--- a/src/main/resources/U5646616_2021_2021.xlsx
+++ b/src/main/resources/U5646616_2021_2021.xlsx
@@ -5,23 +5,24 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\indre\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\indre\IdeaProjects\taxFormFiller\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E630DFDB-3BFA-40BE-B5A2-AFC2F5124559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B01C986-F623-43AC-9950-AAD0F3B6204C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INFO" sheetId="3" r:id="rId1"/>
     <sheet name="U5646616_2021_2021" sheetId="1" r:id="rId2"/>
     <sheet name="StockInfo" sheetId="2" r:id="rId3"/>
     <sheet name="Transactions" sheetId="4" r:id="rId4"/>
-    <sheet name="Output" sheetId="5" r:id="rId5"/>
+    <sheet name="TransactionsFormatted" sheetId="5" r:id="rId5"/>
+    <sheet name="output" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Output!$A$1:$A$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Transactions!$A$1:$N$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">TransactionsFormatted!$A$1:$A$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2586,14 +2587,14 @@
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2970,7 +2971,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="20" t="s">
         <v>642</v>
       </c>
       <c r="C2" t="s">
@@ -2981,7 +2982,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="18"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="2" t="s">
         <v>633</v>
       </c>
@@ -2993,7 +2994,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="2" t="s">
         <v>634</v>
       </c>
@@ -3005,7 +3006,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="18"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="2" t="s">
         <v>635</v>
       </c>
@@ -3017,7 +3018,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="2" t="s">
         <v>636</v>
       </c>
@@ -3029,7 +3030,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="2" t="s">
         <v>637</v>
       </c>
@@ -3041,7 +3042,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="18"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="2" t="s">
         <v>638</v>
       </c>
@@ -3053,7 +3054,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="19" t="s">
         <v>645</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -3067,7 +3068,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="2" t="s">
         <v>640</v>
       </c>
@@ -3079,7 +3080,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="2" t="s">
         <v>641</v>
       </c>
@@ -3091,7 +3092,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="19" t="s">
         <v>644</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -3105,7 +3106,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
+      <c r="A15" s="19"/>
       <c r="B15" s="2" t="s">
         <v>640</v>
       </c>
@@ -3117,7 +3118,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="2" t="s">
         <v>641</v>
       </c>
@@ -3130,7 +3131,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="19" t="s">
         <v>647</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -3144,7 +3145,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="2" t="s">
         <v>640</v>
       </c>
@@ -3156,7 +3157,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="2" t="s">
         <v>641</v>
       </c>
@@ -3169,7 +3170,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="19" t="s">
         <v>646</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -3177,7 +3178,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
+      <c r="A23" s="19"/>
       <c r="B23" s="2" t="s">
         <v>640</v>
       </c>
@@ -3186,7 +3187,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
+      <c r="A24" s="19"/>
       <c r="B24" s="2" t="s">
         <v>641</v>
       </c>
@@ -26462,7 +26463,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{724CC0B6-5A09-458C-B4E3-582AB8DBA603}">
   <dimension ref="A1:P110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:L1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -26476,8 +26479,8 @@
     <col min="8" max="8" width="10.5546875" style="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.21875" style="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9" style="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="18" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4" style="7" customWidth="1"/>
     <col min="14" max="15" width="19.21875" style="7" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6.88671875" style="7" bestFit="1" customWidth="1"/>
@@ -26515,10 +26518,10 @@
       <c r="J1" s="16" t="s">
         <v>666</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="17" t="s">
         <v>667</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="17" t="s">
         <v>668</v>
       </c>
       <c r="M1" s="5"/>
@@ -26572,10 +26575,10 @@
       <c r="J2" s="9">
         <v>0</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="L2" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N2" s="7" t="str">
@@ -26630,10 +26633,10 @@
       <c r="J3" s="9">
         <v>0</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N3" s="7" t="str">
@@ -26688,10 +26691,10 @@
       <c r="J4" s="9">
         <v>0</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="L4" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N4" s="7" t="str">
@@ -26746,10 +26749,10 @@
       <c r="J5" s="9">
         <v>0</v>
       </c>
-      <c r="K5" s="20" t="s">
+      <c r="K5" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L5" s="20" t="s">
+      <c r="L5" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N5" s="7" t="str">
@@ -26804,10 +26807,10 @@
       <c r="J6" s="9">
         <v>0</v>
       </c>
-      <c r="K6" s="20" t="s">
+      <c r="K6" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L6" s="20" t="s">
+      <c r="L6" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N6" s="7" t="str">
@@ -26862,10 +26865,10 @@
       <c r="J7" s="9">
         <v>0</v>
       </c>
-      <c r="K7" s="20" t="s">
+      <c r="K7" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L7" s="20" t="s">
+      <c r="L7" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N7" s="7" t="str">
@@ -26920,10 +26923,10 @@
       <c r="J8" s="9">
         <v>0</v>
       </c>
-      <c r="K8" s="20" t="s">
+      <c r="K8" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L8" s="20" t="s">
+      <c r="L8" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N8" s="7" t="str">
@@ -26978,10 +26981,10 @@
       <c r="J9" s="9">
         <v>0</v>
       </c>
-      <c r="K9" s="20" t="s">
+      <c r="K9" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L9" s="20" t="s">
+      <c r="L9" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N9" s="7" t="str">
@@ -27036,10 +27039,10 @@
       <c r="J10" s="9">
         <v>0</v>
       </c>
-      <c r="K10" s="20" t="s">
+      <c r="K10" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L10" s="20" t="s">
+      <c r="L10" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N10" s="7" t="str">
@@ -27094,10 +27097,10 @@
       <c r="J11" s="9">
         <v>0</v>
       </c>
-      <c r="K11" s="20" t="s">
+      <c r="K11" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L11" s="20" t="s">
+      <c r="L11" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N11" s="7" t="str">
@@ -27152,10 +27155,10 @@
       <c r="J12" s="9">
         <v>0</v>
       </c>
-      <c r="K12" s="20" t="s">
+      <c r="K12" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L12" s="20" t="s">
+      <c r="L12" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N12" s="7" t="str">
@@ -27210,10 +27213,10 @@
       <c r="J13" s="9">
         <v>0</v>
       </c>
-      <c r="K13" s="20" t="s">
+      <c r="K13" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L13" s="20" t="s">
+      <c r="L13" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N13" s="7" t="str">
@@ -27268,10 +27271,10 @@
       <c r="J14" s="9">
         <v>0</v>
       </c>
-      <c r="K14" s="20" t="s">
+      <c r="K14" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L14" s="20" t="s">
+      <c r="L14" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N14" s="7" t="str">
@@ -27326,10 +27329,10 @@
       <c r="J15" s="9">
         <v>0</v>
       </c>
-      <c r="K15" s="20" t="s">
+      <c r="K15" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L15" s="20" t="s">
+      <c r="L15" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N15" s="7" t="str">
@@ -27384,10 +27387,10 @@
       <c r="J16" s="9">
         <v>0</v>
       </c>
-      <c r="K16" s="20" t="s">
+      <c r="K16" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L16" s="20" t="s">
+      <c r="L16" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N16" s="7" t="str">
@@ -27442,10 +27445,10 @@
       <c r="J17" s="9">
         <v>0</v>
       </c>
-      <c r="K17" s="20" t="s">
+      <c r="K17" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L17" s="20" t="s">
+      <c r="L17" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N17" s="7" t="str">
@@ -27500,10 +27503,10 @@
       <c r="J18" s="9">
         <v>0</v>
       </c>
-      <c r="K18" s="20" t="s">
+      <c r="K18" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L18" s="20" t="s">
+      <c r="L18" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N18" s="7" t="str">
@@ -27558,10 +27561,10 @@
       <c r="J19" s="9">
         <v>0</v>
       </c>
-      <c r="K19" s="20" t="s">
+      <c r="K19" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L19" s="20" t="s">
+      <c r="L19" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N19" s="7" t="str">
@@ -27616,10 +27619,10 @@
       <c r="J20" s="9">
         <v>0</v>
       </c>
-      <c r="K20" s="20" t="s">
+      <c r="K20" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L20" s="20" t="s">
+      <c r="L20" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N20" s="7" t="str">
@@ -27674,10 +27677,10 @@
       <c r="J21" s="9">
         <v>0</v>
       </c>
-      <c r="K21" s="20" t="s">
+      <c r="K21" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L21" s="20" t="s">
+      <c r="L21" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N21" s="7" t="str">
@@ -27732,10 +27735,10 @@
       <c r="J22" s="9">
         <v>0</v>
       </c>
-      <c r="K22" s="20" t="s">
+      <c r="K22" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L22" s="20" t="s">
+      <c r="L22" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N22" s="7" t="str">
@@ -27790,10 +27793,10 @@
       <c r="J23" s="9">
         <v>0</v>
       </c>
-      <c r="K23" s="20" t="s">
+      <c r="K23" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L23" s="20" t="s">
+      <c r="L23" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N23" s="7" t="str">
@@ -27848,10 +27851,10 @@
       <c r="J24" s="9">
         <v>0</v>
       </c>
-      <c r="K24" s="20" t="s">
+      <c r="K24" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L24" s="20" t="s">
+      <c r="L24" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N24" s="7" t="str">
@@ -27906,10 +27909,10 @@
       <c r="J25" s="9">
         <v>0</v>
       </c>
-      <c r="K25" s="20" t="s">
+      <c r="K25" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L25" s="20" t="s">
+      <c r="L25" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N25" s="7" t="str">
@@ -27964,10 +27967,10 @@
       <c r="J26" s="9">
         <v>0</v>
       </c>
-      <c r="K26" s="20" t="s">
+      <c r="K26" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L26" s="20" t="s">
+      <c r="L26" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N26" s="7" t="str">
@@ -28022,10 +28025,10 @@
       <c r="J27" s="9">
         <v>0</v>
       </c>
-      <c r="K27" s="20" t="s">
+      <c r="K27" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L27" s="20" t="s">
+      <c r="L27" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N27" s="7" t="str">
@@ -28080,10 +28083,10 @@
       <c r="J28" s="9">
         <v>0</v>
       </c>
-      <c r="K28" s="20" t="s">
+      <c r="K28" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L28" s="20" t="s">
+      <c r="L28" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N28" s="7" t="str">
@@ -28138,10 +28141,10 @@
       <c r="J29" s="9">
         <v>0</v>
       </c>
-      <c r="K29" s="20" t="s">
+      <c r="K29" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L29" s="20" t="s">
+      <c r="L29" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N29" s="7" t="str">
@@ -28196,10 +28199,10 @@
       <c r="J30" s="9">
         <v>0</v>
       </c>
-      <c r="K30" s="20" t="s">
+      <c r="K30" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L30" s="20" t="s">
+      <c r="L30" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N30" s="7" t="str">
@@ -28254,10 +28257,10 @@
       <c r="J31" s="9">
         <v>0</v>
       </c>
-      <c r="K31" s="20" t="s">
+      <c r="K31" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L31" s="20" t="s">
+      <c r="L31" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N31" s="7" t="str">
@@ -28312,10 +28315,10 @@
       <c r="J32" s="9">
         <v>0</v>
       </c>
-      <c r="K32" s="20" t="s">
+      <c r="K32" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L32" s="20" t="s">
+      <c r="L32" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N32" s="7" t="str">
@@ -28370,10 +28373,10 @@
       <c r="J33" s="9">
         <v>0</v>
       </c>
-      <c r="K33" s="20" t="s">
+      <c r="K33" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L33" s="20" t="s">
+      <c r="L33" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N33" s="7" t="str">
@@ -28428,10 +28431,10 @@
       <c r="J34" s="9">
         <v>0</v>
       </c>
-      <c r="K34" s="20" t="s">
+      <c r="K34" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L34" s="20" t="s">
+      <c r="L34" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N34" s="7" t="str">
@@ -28486,10 +28489,10 @@
       <c r="J35" s="9">
         <v>0</v>
       </c>
-      <c r="K35" s="20" t="s">
+      <c r="K35" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L35" s="20" t="s">
+      <c r="L35" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N35" s="7" t="str">
@@ -28544,10 +28547,10 @@
       <c r="J36" s="9">
         <v>0</v>
       </c>
-      <c r="K36" s="20" t="s">
+      <c r="K36" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L36" s="20" t="s">
+      <c r="L36" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N36" s="7" t="str">
@@ -28602,10 +28605,10 @@
       <c r="J37" s="9">
         <v>0</v>
       </c>
-      <c r="K37" s="20" t="s">
+      <c r="K37" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L37" s="20" t="s">
+      <c r="L37" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N37" s="7" t="str">
@@ -28660,10 +28663,10 @@
       <c r="J38" s="9">
         <v>0</v>
       </c>
-      <c r="K38" s="20" t="s">
+      <c r="K38" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L38" s="20" t="s">
+      <c r="L38" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N38" s="7" t="str">
@@ -28718,10 +28721,10 @@
       <c r="J39" s="9">
         <v>0</v>
       </c>
-      <c r="K39" s="20" t="s">
+      <c r="K39" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L39" s="20" t="s">
+      <c r="L39" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N39" s="7" t="str">
@@ -28776,10 +28779,10 @@
       <c r="J40" s="9">
         <v>0</v>
       </c>
-      <c r="K40" s="20" t="s">
+      <c r="K40" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L40" s="20" t="s">
+      <c r="L40" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N40" s="7" t="str">
@@ -28834,10 +28837,10 @@
       <c r="J41" s="9">
         <v>0</v>
       </c>
-      <c r="K41" s="20" t="s">
+      <c r="K41" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L41" s="20" t="s">
+      <c r="L41" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N41" s="7" t="str">
@@ -28892,10 +28895,10 @@
       <c r="J42" s="9">
         <v>0</v>
       </c>
-      <c r="K42" s="20" t="s">
+      <c r="K42" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L42" s="20" t="s">
+      <c r="L42" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N42" s="7" t="str">
@@ -28950,10 +28953,10 @@
       <c r="J43" s="9">
         <v>0</v>
       </c>
-      <c r="K43" s="20" t="s">
+      <c r="K43" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L43" s="20" t="s">
+      <c r="L43" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N43" s="7" t="str">
@@ -29008,10 +29011,10 @@
       <c r="J44" s="9">
         <v>0</v>
       </c>
-      <c r="K44" s="20" t="s">
+      <c r="K44" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L44" s="20" t="s">
+      <c r="L44" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N44" s="7" t="str">
@@ -29066,10 +29069,10 @@
       <c r="J45" s="9">
         <v>0</v>
       </c>
-      <c r="K45" s="20" t="s">
+      <c r="K45" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L45" s="20" t="s">
+      <c r="L45" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N45" s="7" t="str">
@@ -29124,10 +29127,10 @@
       <c r="J46" s="9">
         <v>0</v>
       </c>
-      <c r="K46" s="20" t="s">
+      <c r="K46" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L46" s="20" t="s">
+      <c r="L46" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N46" s="7" t="str">
@@ -29182,10 +29185,10 @@
       <c r="J47" s="9">
         <v>0</v>
       </c>
-      <c r="K47" s="20" t="s">
+      <c r="K47" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L47" s="20" t="s">
+      <c r="L47" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N47" s="7" t="str">
@@ -29240,10 +29243,10 @@
       <c r="J48" s="9">
         <v>0</v>
       </c>
-      <c r="K48" s="20" t="s">
+      <c r="K48" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L48" s="20" t="s">
+      <c r="L48" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N48" s="7" t="str">
@@ -29298,10 +29301,10 @@
       <c r="J49" s="9">
         <v>0</v>
       </c>
-      <c r="K49" s="20" t="s">
+      <c r="K49" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L49" s="20" t="s">
+      <c r="L49" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N49" s="7" t="str">
@@ -29356,10 +29359,10 @@
       <c r="J50" s="9">
         <v>0</v>
       </c>
-      <c r="K50" s="20" t="s">
+      <c r="K50" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L50" s="20" t="s">
+      <c r="L50" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N50" s="7" t="str">
@@ -29414,10 +29417,10 @@
       <c r="J51" s="9">
         <v>0</v>
       </c>
-      <c r="K51" s="20" t="s">
+      <c r="K51" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L51" s="20" t="s">
+      <c r="L51" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N51" s="7" t="str">
@@ -29472,10 +29475,10 @@
       <c r="J52" s="9">
         <v>0</v>
       </c>
-      <c r="K52" s="20" t="s">
+      <c r="K52" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L52" s="20" t="s">
+      <c r="L52" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N52" s="7" t="str">
@@ -29530,10 +29533,10 @@
       <c r="J53" s="9">
         <v>0</v>
       </c>
-      <c r="K53" s="20" t="s">
+      <c r="K53" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L53" s="20" t="s">
+      <c r="L53" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N53" s="7" t="str">
@@ -29588,10 +29591,10 @@
       <c r="J54" s="9">
         <v>0</v>
       </c>
-      <c r="K54" s="20" t="s">
+      <c r="K54" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L54" s="20" t="s">
+      <c r="L54" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N54" s="7" t="str">
@@ -29646,10 +29649,10 @@
       <c r="J55" s="9">
         <v>0</v>
       </c>
-      <c r="K55" s="20" t="s">
+      <c r="K55" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L55" s="20" t="s">
+      <c r="L55" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N55" s="7" t="str">
@@ -29704,10 +29707,10 @@
       <c r="J56" s="9">
         <v>0</v>
       </c>
-      <c r="K56" s="20" t="s">
+      <c r="K56" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L56" s="20" t="s">
+      <c r="L56" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N56" s="7" t="str">
@@ -29762,10 +29765,10 @@
       <c r="J57" s="9">
         <v>0</v>
       </c>
-      <c r="K57" s="20" t="s">
+      <c r="K57" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L57" s="20" t="s">
+      <c r="L57" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N57" s="7" t="str">
@@ -29820,10 +29823,10 @@
       <c r="J58" s="9">
         <v>0</v>
       </c>
-      <c r="K58" s="20" t="s">
+      <c r="K58" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L58" s="20" t="s">
+      <c r="L58" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N58" s="7" t="str">
@@ -29878,10 +29881,10 @@
       <c r="J59" s="9">
         <v>0</v>
       </c>
-      <c r="K59" s="20" t="s">
+      <c r="K59" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L59" s="20" t="s">
+      <c r="L59" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N59" s="7" t="str">
@@ -29936,10 +29939,10 @@
       <c r="J60" s="9">
         <v>0</v>
       </c>
-      <c r="K60" s="20" t="s">
+      <c r="K60" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L60" s="20" t="s">
+      <c r="L60" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N60" s="7" t="str">
@@ -29994,10 +29997,10 @@
       <c r="J61" s="9">
         <v>0</v>
       </c>
-      <c r="K61" s="20" t="s">
+      <c r="K61" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L61" s="20" t="s">
+      <c r="L61" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N61" s="7" t="str">
@@ -30052,10 +30055,10 @@
       <c r="J62" s="9">
         <v>0</v>
       </c>
-      <c r="K62" s="20" t="s">
+      <c r="K62" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L62" s="20" t="s">
+      <c r="L62" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N62" s="7" t="str">
@@ -30110,10 +30113,10 @@
       <c r="J63" s="9">
         <v>0</v>
       </c>
-      <c r="K63" s="20" t="s">
+      <c r="K63" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L63" s="20" t="s">
+      <c r="L63" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N63" s="7" t="str">
@@ -30168,10 +30171,10 @@
       <c r="J64" s="9">
         <v>0</v>
       </c>
-      <c r="K64" s="20" t="s">
+      <c r="K64" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L64" s="20" t="s">
+      <c r="L64" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N64" s="7" t="str">
@@ -30226,10 +30229,10 @@
       <c r="J65" s="9">
         <v>0</v>
       </c>
-      <c r="K65" s="20" t="s">
+      <c r="K65" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L65" s="20" t="s">
+      <c r="L65" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N65" s="7" t="str">
@@ -30284,10 +30287,10 @@
       <c r="J66" s="9">
         <v>0</v>
       </c>
-      <c r="K66" s="20" t="s">
+      <c r="K66" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L66" s="20" t="s">
+      <c r="L66" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N66" s="7" t="str">
@@ -30342,10 +30345,10 @@
       <c r="J67" s="9">
         <v>0</v>
       </c>
-      <c r="K67" s="20" t="s">
+      <c r="K67" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L67" s="20" t="s">
+      <c r="L67" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N67" s="7" t="str">
@@ -30400,10 +30403,10 @@
       <c r="J68" s="9">
         <v>0</v>
       </c>
-      <c r="K68" s="20" t="s">
+      <c r="K68" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L68" s="20" t="s">
+      <c r="L68" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N68" s="7" t="str">
@@ -30458,10 +30461,10 @@
       <c r="J69" s="9">
         <v>0</v>
       </c>
-      <c r="K69" s="20" t="s">
+      <c r="K69" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L69" s="20" t="s">
+      <c r="L69" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N69" s="7" t="str">
@@ -30516,10 +30519,10 @@
       <c r="J70" s="9">
         <v>0</v>
       </c>
-      <c r="K70" s="20" t="s">
+      <c r="K70" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L70" s="20" t="s">
+      <c r="L70" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N70" s="7" t="str">
@@ -30574,10 +30577,10 @@
       <c r="J71" s="9">
         <v>0</v>
       </c>
-      <c r="K71" s="20" t="s">
+      <c r="K71" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L71" s="20" t="s">
+      <c r="L71" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N71" s="7" t="str">
@@ -30632,10 +30635,10 @@
       <c r="J72" s="9">
         <v>0</v>
       </c>
-      <c r="K72" s="20" t="s">
+      <c r="K72" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L72" s="20" t="s">
+      <c r="L72" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N72" s="7" t="str">
@@ -30690,10 +30693,10 @@
       <c r="J73" s="9">
         <v>0</v>
       </c>
-      <c r="K73" s="20" t="s">
+      <c r="K73" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L73" s="20" t="s">
+      <c r="L73" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N73" s="7" t="str">
@@ -30748,10 +30751,10 @@
       <c r="J74" s="9">
         <v>0</v>
       </c>
-      <c r="K74" s="20" t="s">
+      <c r="K74" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L74" s="20" t="s">
+      <c r="L74" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N74" s="7" t="str">
@@ -30806,10 +30809,10 @@
       <c r="J75" s="9">
         <v>0</v>
       </c>
-      <c r="K75" s="20" t="s">
+      <c r="K75" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L75" s="20" t="s">
+      <c r="L75" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N75" s="7" t="str">
@@ -30864,10 +30867,10 @@
       <c r="J76" s="9">
         <v>0</v>
       </c>
-      <c r="K76" s="20" t="s">
+      <c r="K76" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L76" s="20" t="s">
+      <c r="L76" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N76" s="7" t="str">
@@ -30922,10 +30925,10 @@
       <c r="J77" s="9">
         <v>0</v>
       </c>
-      <c r="K77" s="20" t="s">
+      <c r="K77" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L77" s="20" t="s">
+      <c r="L77" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N77" s="7" t="str">
@@ -30980,10 +30983,10 @@
       <c r="J78" s="9">
         <v>0</v>
       </c>
-      <c r="K78" s="20" t="s">
+      <c r="K78" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L78" s="20" t="s">
+      <c r="L78" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N78" s="7" t="str">
@@ -31038,10 +31041,10 @@
       <c r="J79" s="9">
         <v>0</v>
       </c>
-      <c r="K79" s="20" t="s">
+      <c r="K79" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L79" s="20" t="s">
+      <c r="L79" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N79" s="7" t="str">
@@ -31096,10 +31099,10 @@
       <c r="J80" s="9">
         <v>0</v>
       </c>
-      <c r="K80" s="20" t="s">
+      <c r="K80" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L80" s="20" t="s">
+      <c r="L80" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N80" s="7" t="str">
@@ -31154,10 +31157,10 @@
       <c r="J81" s="9">
         <v>0</v>
       </c>
-      <c r="K81" s="20" t="s">
+      <c r="K81" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L81" s="20" t="s">
+      <c r="L81" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N81" s="7" t="str">
@@ -31212,10 +31215,10 @@
       <c r="J82" s="9">
         <v>0</v>
       </c>
-      <c r="K82" s="20" t="s">
+      <c r="K82" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L82" s="20" t="s">
+      <c r="L82" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N82" s="7" t="str">
@@ -31270,10 +31273,10 @@
       <c r="J83" s="9">
         <v>0</v>
       </c>
-      <c r="K83" s="20" t="s">
+      <c r="K83" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L83" s="20" t="s">
+      <c r="L83" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N83" s="7" t="str">
@@ -31328,10 +31331,10 @@
       <c r="J84" s="9">
         <v>0</v>
       </c>
-      <c r="K84" s="20" t="s">
+      <c r="K84" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L84" s="20" t="s">
+      <c r="L84" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N84" s="7" t="str">
@@ -31386,10 +31389,10 @@
       <c r="J85" s="9">
         <v>0</v>
       </c>
-      <c r="K85" s="20" t="s">
+      <c r="K85" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L85" s="20" t="s">
+      <c r="L85" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N85" s="7" t="str">
@@ -31444,10 +31447,10 @@
       <c r="J86" s="9">
         <v>0</v>
       </c>
-      <c r="K86" s="20" t="s">
+      <c r="K86" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L86" s="20" t="s">
+      <c r="L86" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N86" s="7" t="str">
@@ -31502,10 +31505,10 @@
       <c r="J87" s="9">
         <v>0</v>
       </c>
-      <c r="K87" s="20" t="s">
+      <c r="K87" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L87" s="20" t="s">
+      <c r="L87" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N87" s="7" t="str">
@@ -31560,10 +31563,10 @@
       <c r="J88" s="9">
         <v>0</v>
       </c>
-      <c r="K88" s="20" t="s">
+      <c r="K88" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L88" s="20" t="s">
+      <c r="L88" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N88" s="7" t="str">
@@ -31618,10 +31621,10 @@
       <c r="J89" s="9">
         <v>0</v>
       </c>
-      <c r="K89" s="20" t="s">
+      <c r="K89" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L89" s="20" t="s">
+      <c r="L89" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N89" s="7" t="str">
@@ -31676,10 +31679,10 @@
       <c r="J90" s="9">
         <v>0</v>
       </c>
-      <c r="K90" s="20" t="s">
+      <c r="K90" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L90" s="20" t="s">
+      <c r="L90" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N90" s="7" t="str">
@@ -31734,10 +31737,10 @@
       <c r="J91" s="9">
         <v>0</v>
       </c>
-      <c r="K91" s="20" t="s">
+      <c r="K91" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L91" s="20" t="s">
+      <c r="L91" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N91" s="7" t="str">
@@ -31792,10 +31795,10 @@
       <c r="J92" s="9">
         <v>0</v>
       </c>
-      <c r="K92" s="20" t="s">
+      <c r="K92" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L92" s="20" t="s">
+      <c r="L92" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N92" s="7" t="str">
@@ -31850,10 +31853,10 @@
       <c r="J93" s="9">
         <v>0</v>
       </c>
-      <c r="K93" s="20" t="s">
+      <c r="K93" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L93" s="20" t="s">
+      <c r="L93" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N93" s="7" t="str">
@@ -31908,10 +31911,10 @@
       <c r="J94" s="9">
         <v>0</v>
       </c>
-      <c r="K94" s="20" t="s">
+      <c r="K94" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L94" s="20" t="s">
+      <c r="L94" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N94" s="7" t="str">
@@ -31966,10 +31969,10 @@
       <c r="J95" s="9">
         <v>0</v>
       </c>
-      <c r="K95" s="20" t="s">
+      <c r="K95" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L95" s="20" t="s">
+      <c r="L95" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N95" s="7" t="str">
@@ -32024,10 +32027,10 @@
       <c r="J96" s="9">
         <v>0</v>
       </c>
-      <c r="K96" s="20" t="s">
+      <c r="K96" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L96" s="20" t="s">
+      <c r="L96" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N96" s="7" t="str">
@@ -32082,10 +32085,10 @@
       <c r="J97" s="9">
         <v>0</v>
       </c>
-      <c r="K97" s="20" t="s">
+      <c r="K97" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L97" s="20" t="s">
+      <c r="L97" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N97" s="7" t="str">
@@ -32140,10 +32143,10 @@
       <c r="J98" s="9">
         <v>0</v>
       </c>
-      <c r="K98" s="20" t="s">
+      <c r="K98" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L98" s="20" t="s">
+      <c r="L98" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N98" s="7" t="str">
@@ -32198,10 +32201,10 @@
       <c r="J99" s="9">
         <v>0</v>
       </c>
-      <c r="K99" s="20" t="s">
+      <c r="K99" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L99" s="20" t="s">
+      <c r="L99" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N99" s="7" t="str">
@@ -32256,10 +32259,10 @@
       <c r="J100" s="9">
         <v>0</v>
       </c>
-      <c r="K100" s="20" t="s">
+      <c r="K100" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L100" s="20" t="s">
+      <c r="L100" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N100" s="7" t="str">
@@ -32314,10 +32317,10 @@
       <c r="J101" s="9">
         <v>0</v>
       </c>
-      <c r="K101" s="20" t="s">
+      <c r="K101" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L101" s="20" t="s">
+      <c r="L101" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N101" s="7" t="str">
@@ -32372,10 +32375,10 @@
       <c r="J102" s="9">
         <v>0</v>
       </c>
-      <c r="K102" s="20" t="s">
+      <c r="K102" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L102" s="20" t="s">
+      <c r="L102" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N102" s="7" t="str">
@@ -32430,10 +32433,10 @@
       <c r="J103" s="9">
         <v>0</v>
       </c>
-      <c r="K103" s="20" t="s">
+      <c r="K103" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L103" s="20" t="s">
+      <c r="L103" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N103" s="7" t="str">
@@ -32488,10 +32491,10 @@
       <c r="J104" s="9">
         <v>0</v>
       </c>
-      <c r="K104" s="20" t="s">
+      <c r="K104" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L104" s="20" t="s">
+      <c r="L104" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N104" s="7" t="str">
@@ -32546,10 +32549,10 @@
       <c r="J105" s="9">
         <v>0</v>
       </c>
-      <c r="K105" s="20" t="s">
+      <c r="K105" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L105" s="20" t="s">
+      <c r="L105" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N105" s="7" t="str">
@@ -32604,10 +32607,10 @@
       <c r="J106" s="9">
         <v>0</v>
       </c>
-      <c r="K106" s="20" t="s">
+      <c r="K106" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L106" s="20" t="s">
+      <c r="L106" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N106" s="7" t="str">
@@ -32662,10 +32665,10 @@
       <c r="J107" s="9">
         <v>0</v>
       </c>
-      <c r="K107" s="20" t="s">
+      <c r="K107" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L107" s="20" t="s">
+      <c r="L107" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N107" s="7" t="str">
@@ -32720,10 +32723,10 @@
       <c r="J108" s="9">
         <v>0</v>
       </c>
-      <c r="K108" s="20" t="s">
+      <c r="K108" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L108" s="20" t="s">
+      <c r="L108" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N108" s="7" t="str">
@@ -32778,10 +32781,10 @@
       <c r="J109" s="9">
         <v>0</v>
       </c>
-      <c r="K109" s="20" t="s">
+      <c r="K109" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L109" s="20" t="s">
+      <c r="L109" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N109" s="7" t="str">
@@ -32836,10 +32839,10 @@
       <c r="J110" s="9">
         <v>0</v>
       </c>
-      <c r="K110" s="20" t="s">
+      <c r="K110" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="L110" s="20" t="s">
+      <c r="L110" s="18" t="s">
         <v>88</v>
       </c>
       <c r="N110" s="7" t="str">
@@ -32858,4 +32861,5046 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A617EC5-69E2-4458-95CC-9F54FE0EA36C}">
+  <dimension ref="A1:K109"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="A109" sqref="A109"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.77734375" style="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="str">
+        <f>TransactionsFormatted!B2</f>
+        <v>US0138721065</v>
+      </c>
+      <c r="B1" s="7" t="str">
+        <f>TransactionsFormatted!C2</f>
+        <v>ALCOA CORP</v>
+      </c>
+      <c r="C1" s="10">
+        <f ca="1">TransactionsFormatted!D2</f>
+        <v>44333</v>
+      </c>
+      <c r="D1" s="10">
+        <f ca="1">TransactionsFormatted!E2</f>
+        <v>44333</v>
+      </c>
+      <c r="E1" s="11">
+        <f ca="1">TransactionsFormatted!F2</f>
+        <v>6</v>
+      </c>
+      <c r="F1" s="9">
+        <f ca="1">TransactionsFormatted!G2</f>
+        <v>241.08</v>
+      </c>
+      <c r="G1" s="9">
+        <f ca="1">TransactionsFormatted!H2</f>
+        <v>-1</v>
+      </c>
+      <c r="H1" s="9">
+        <f ca="1">TransactionsFormatted!I2</f>
+        <v>237.24</v>
+      </c>
+      <c r="I1" s="9">
+        <f>TransactionsFormatted!J2</f>
+        <v>0</v>
+      </c>
+      <c r="J1" s="18" t="str">
+        <f>TransactionsFormatted!K2</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K1" s="18" t="str">
+        <f>TransactionsFormatted!L2</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="str">
+        <f>TransactionsFormatted!B3</f>
+        <v>US0192222075</v>
+      </c>
+      <c r="B2" s="7" t="str">
+        <f>TransactionsFormatted!C3</f>
+        <v>ALLIED HEALTHCARE PRODUCTS</v>
+      </c>
+      <c r="C2" s="10">
+        <f ca="1">TransactionsFormatted!D3</f>
+        <v>44438</v>
+      </c>
+      <c r="D2" s="10">
+        <f ca="1">TransactionsFormatted!E3</f>
+        <v>44456</v>
+      </c>
+      <c r="E2" s="11">
+        <f ca="1">TransactionsFormatted!F3</f>
+        <v>21</v>
+      </c>
+      <c r="F2" s="9">
+        <f ca="1">TransactionsFormatted!G3</f>
+        <v>215.88</v>
+      </c>
+      <c r="G2" s="9">
+        <f ca="1">TransactionsFormatted!H3</f>
+        <v>-1</v>
+      </c>
+      <c r="H2" s="9">
+        <f ca="1">TransactionsFormatted!I3</f>
+        <v>156.41999999999999</v>
+      </c>
+      <c r="I2" s="9">
+        <f>TransactionsFormatted!J3</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="18" t="str">
+        <f>TransactionsFormatted!K3</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K2" s="18" t="str">
+        <f>TransactionsFormatted!L3</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="str">
+        <f>TransactionsFormatted!B4</f>
+        <v>US0144421072</v>
+      </c>
+      <c r="B3" s="7" t="str">
+        <f>TransactionsFormatted!C4</f>
+        <v>ALECTOR INC</v>
+      </c>
+      <c r="C3" s="10">
+        <f ca="1">TransactionsFormatted!D4</f>
+        <v>44391</v>
+      </c>
+      <c r="D3" s="10">
+        <f ca="1">TransactionsFormatted!E4</f>
+        <v>44391</v>
+      </c>
+      <c r="E3" s="11">
+        <f ca="1">TransactionsFormatted!F4</f>
+        <v>6</v>
+      </c>
+      <c r="F3" s="9">
+        <f ca="1">TransactionsFormatted!G4</f>
+        <v>230.88</v>
+      </c>
+      <c r="G3" s="9">
+        <f ca="1">TransactionsFormatted!H4</f>
+        <v>-1</v>
+      </c>
+      <c r="H3" s="9">
+        <f ca="1">TransactionsFormatted!I4</f>
+        <v>225.48</v>
+      </c>
+      <c r="I3" s="9">
+        <f>TransactionsFormatted!J4</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="18" t="str">
+        <f>TransactionsFormatted!K4</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K3" s="18" t="str">
+        <f>TransactionsFormatted!L4</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="str">
+        <f>TransactionsFormatted!B5</f>
+        <v>US0144421072</v>
+      </c>
+      <c r="B4" s="7" t="str">
+        <f>TransactionsFormatted!C5</f>
+        <v>ALECTOR INC</v>
+      </c>
+      <c r="C4" s="10">
+        <f ca="1">TransactionsFormatted!D5</f>
+        <v>44403</v>
+      </c>
+      <c r="D4" s="10">
+        <f ca="1">TransactionsFormatted!E5</f>
+        <v>44403</v>
+      </c>
+      <c r="E4" s="11">
+        <f ca="1">TransactionsFormatted!F5</f>
+        <v>7</v>
+      </c>
+      <c r="F4" s="9">
+        <f ca="1">TransactionsFormatted!G5</f>
+        <v>236.88</v>
+      </c>
+      <c r="G4" s="9">
+        <f ca="1">TransactionsFormatted!H5</f>
+        <v>-1</v>
+      </c>
+      <c r="H4" s="9">
+        <f ca="1">TransactionsFormatted!I5</f>
+        <v>233.52</v>
+      </c>
+      <c r="I4" s="9">
+        <f>TransactionsFormatted!J5</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="18" t="str">
+        <f>TransactionsFormatted!K5</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K4" s="18" t="str">
+        <f>TransactionsFormatted!L5</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="str">
+        <f>TransactionsFormatted!B6</f>
+        <v>US00165C1045</v>
+      </c>
+      <c r="B5" s="7" t="str">
+        <f>TransactionsFormatted!C6</f>
+        <v>AMC ENTERTAINMENT HLDS-CL A</v>
+      </c>
+      <c r="C5" s="10">
+        <f ca="1">TransactionsFormatted!D6</f>
+        <v>44364</v>
+      </c>
+      <c r="D5" s="10">
+        <f ca="1">TransactionsFormatted!E6</f>
+        <v>44364</v>
+      </c>
+      <c r="E5" s="11">
+        <f ca="1">TransactionsFormatted!F6</f>
+        <v>4</v>
+      </c>
+      <c r="F5" s="9">
+        <f ca="1">TransactionsFormatted!G6</f>
+        <v>252.24</v>
+      </c>
+      <c r="G5" s="9">
+        <f ca="1">TransactionsFormatted!H6</f>
+        <v>-1</v>
+      </c>
+      <c r="H5" s="9">
+        <f ca="1">TransactionsFormatted!I6</f>
+        <v>241.6</v>
+      </c>
+      <c r="I5" s="9">
+        <f>TransactionsFormatted!J6</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="18" t="str">
+        <f>TransactionsFormatted!K6</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K5" s="18" t="str">
+        <f>TransactionsFormatted!L6</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="str">
+        <f>TransactionsFormatted!B7</f>
+        <v>US0207641061</v>
+      </c>
+      <c r="B6" s="7" t="str">
+        <f>TransactionsFormatted!C7</f>
+        <v>ALPHA METALLURGICAL RESOURCE</v>
+      </c>
+      <c r="C6" s="10">
+        <f ca="1">TransactionsFormatted!D7</f>
+        <v>44480</v>
+      </c>
+      <c r="D6" s="10">
+        <f ca="1">TransactionsFormatted!E7</f>
+        <v>44480</v>
+      </c>
+      <c r="E6" s="11">
+        <f ca="1">TransactionsFormatted!F7</f>
+        <v>4</v>
+      </c>
+      <c r="F6" s="9">
+        <f ca="1">TransactionsFormatted!G7</f>
+        <v>249.08</v>
+      </c>
+      <c r="G6" s="9">
+        <f ca="1">TransactionsFormatted!H7</f>
+        <v>-1</v>
+      </c>
+      <c r="H6" s="9">
+        <f ca="1">TransactionsFormatted!I7</f>
+        <v>244.6</v>
+      </c>
+      <c r="I6" s="9">
+        <f>TransactionsFormatted!J7</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="18" t="str">
+        <f>TransactionsFormatted!K7</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K6" s="18" t="str">
+        <f>TransactionsFormatted!L7</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="str">
+        <f>TransactionsFormatted!B8</f>
+        <v>US02361E1082</v>
+      </c>
+      <c r="B7" s="7" t="str">
+        <f>TransactionsFormatted!C8</f>
+        <v>AMERESCO INC-CL A</v>
+      </c>
+      <c r="C7" s="10">
+        <f ca="1">TransactionsFormatted!D8</f>
+        <v>44522</v>
+      </c>
+      <c r="D7" s="10">
+        <f ca="1">TransactionsFormatted!E8</f>
+        <v>44522</v>
+      </c>
+      <c r="E7" s="11">
+        <f ca="1">TransactionsFormatted!F8</f>
+        <v>2</v>
+      </c>
+      <c r="F7" s="9">
+        <f ca="1">TransactionsFormatted!G8</f>
+        <v>193.38</v>
+      </c>
+      <c r="G7" s="9">
+        <f ca="1">TransactionsFormatted!H8</f>
+        <v>-1</v>
+      </c>
+      <c r="H7" s="9">
+        <f ca="1">TransactionsFormatted!I8</f>
+        <v>189.82</v>
+      </c>
+      <c r="I7" s="9">
+        <f>TransactionsFormatted!J8</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="18" t="str">
+        <f>TransactionsFormatted!K8</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K7" s="18" t="str">
+        <f>TransactionsFormatted!L8</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="str">
+        <f>TransactionsFormatted!B9</f>
+        <v>US03236M2008</v>
+      </c>
+      <c r="B8" s="7" t="str">
+        <f>TransactionsFormatted!C9</f>
+        <v>AMYRIS INC</v>
+      </c>
+      <c r="C8" s="10">
+        <f ca="1">TransactionsFormatted!D9</f>
+        <v>44354</v>
+      </c>
+      <c r="D8" s="10">
+        <f ca="1">TransactionsFormatted!E9</f>
+        <v>44356</v>
+      </c>
+      <c r="E8" s="11">
+        <f ca="1">TransactionsFormatted!F9</f>
+        <v>16</v>
+      </c>
+      <c r="F8" s="9">
+        <f ca="1">TransactionsFormatted!G9</f>
+        <v>244.72</v>
+      </c>
+      <c r="G8" s="9">
+        <f ca="1">TransactionsFormatted!H9</f>
+        <v>-1</v>
+      </c>
+      <c r="H8" s="9">
+        <f ca="1">TransactionsFormatted!I9</f>
+        <v>250.91</v>
+      </c>
+      <c r="I8" s="9">
+        <f>TransactionsFormatted!J9</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="18" t="str">
+        <f>TransactionsFormatted!K9</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K8" s="18" t="str">
+        <f>TransactionsFormatted!L9</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="str">
+        <f>TransactionsFormatted!B10</f>
+        <v>CA84841L3083</v>
+      </c>
+      <c r="B9" s="7" t="str">
+        <f>TransactionsFormatted!C10</f>
+        <v>SPHERE 3D CORP</v>
+      </c>
+      <c r="C9" s="10">
+        <f ca="1">TransactionsFormatted!D10</f>
+        <v>44480</v>
+      </c>
+      <c r="D9" s="10">
+        <f ca="1">TransactionsFormatted!E10</f>
+        <v>44480</v>
+      </c>
+      <c r="E9" s="11">
+        <f ca="1">TransactionsFormatted!F10</f>
+        <v>35</v>
+      </c>
+      <c r="F9" s="9">
+        <f ca="1">TransactionsFormatted!G10</f>
+        <v>243.95</v>
+      </c>
+      <c r="G9" s="9">
+        <f ca="1">TransactionsFormatted!H10</f>
+        <v>-1.01</v>
+      </c>
+      <c r="H9" s="9">
+        <f ca="1">TransactionsFormatted!I10</f>
+        <v>239.4</v>
+      </c>
+      <c r="I9" s="9">
+        <f>TransactionsFormatted!J10</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="18" t="str">
+        <f>TransactionsFormatted!K10</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K9" s="18" t="str">
+        <f>TransactionsFormatted!L10</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="str">
+        <f>TransactionsFormatted!B11</f>
+        <v>BMG6331P1041</v>
+      </c>
+      <c r="B10" s="7" t="str">
+        <f>TransactionsFormatted!C11</f>
+        <v>ALPHA &amp; OMEGA SEMICONDUCTOR</v>
+      </c>
+      <c r="C10" s="10">
+        <f ca="1">TransactionsFormatted!D11</f>
+        <v>44522</v>
+      </c>
+      <c r="D10" s="10">
+        <f ca="1">TransactionsFormatted!E11</f>
+        <v>44523</v>
+      </c>
+      <c r="E10" s="11">
+        <f ca="1">TransactionsFormatted!F11</f>
+        <v>5</v>
+      </c>
+      <c r="F10" s="9">
+        <f ca="1">TransactionsFormatted!G11</f>
+        <v>237.9</v>
+      </c>
+      <c r="G10" s="9">
+        <f ca="1">TransactionsFormatted!H11</f>
+        <v>-1</v>
+      </c>
+      <c r="H10" s="9">
+        <f ca="1">TransactionsFormatted!I11</f>
+        <v>226.85</v>
+      </c>
+      <c r="I10" s="9">
+        <f>TransactionsFormatted!J11</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="18" t="str">
+        <f>TransactionsFormatted!K11</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K10" s="18" t="str">
+        <f>TransactionsFormatted!L11</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="str">
+        <f>TransactionsFormatted!B12</f>
+        <v>CA03765K1049</v>
+      </c>
+      <c r="B11" s="7" t="str">
+        <f>TransactionsFormatted!C12</f>
+        <v>APHRIA INC</v>
+      </c>
+      <c r="C11" s="10">
+        <f ca="1">TransactionsFormatted!D12</f>
+        <v>44312</v>
+      </c>
+      <c r="D11" s="10">
+        <f ca="1">TransactionsFormatted!E12</f>
+        <v>44312</v>
+      </c>
+      <c r="E11" s="11">
+        <f ca="1">TransactionsFormatted!F12</f>
+        <v>17</v>
+      </c>
+      <c r="F11" s="9">
+        <f ca="1">TransactionsFormatted!G12</f>
+        <v>244.46</v>
+      </c>
+      <c r="G11" s="9">
+        <f ca="1">TransactionsFormatted!H12</f>
+        <v>-1</v>
+      </c>
+      <c r="H11" s="9">
+        <f ca="1">TransactionsFormatted!I12</f>
+        <v>239.87</v>
+      </c>
+      <c r="I11" s="9">
+        <f>TransactionsFormatted!J12</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="18" t="str">
+        <f>TransactionsFormatted!K12</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K11" s="18" t="str">
+        <f>TransactionsFormatted!L12</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="str">
+        <f>TransactionsFormatted!B13</f>
+        <v>US25400W1027</v>
+      </c>
+      <c r="B12" s="7" t="str">
+        <f>TransactionsFormatted!C13</f>
+        <v>DIGITAL TURBINE INC</v>
+      </c>
+      <c r="C12" s="10">
+        <f ca="1">TransactionsFormatted!D13</f>
+        <v>44299</v>
+      </c>
+      <c r="D12" s="10">
+        <f ca="1">TransactionsFormatted!E13</f>
+        <v>44299</v>
+      </c>
+      <c r="E12" s="11">
+        <f ca="1">TransactionsFormatted!F13</f>
+        <v>3</v>
+      </c>
+      <c r="F12" s="9">
+        <f ca="1">TransactionsFormatted!G13</f>
+        <v>275.67</v>
+      </c>
+      <c r="G12" s="9">
+        <f ca="1">TransactionsFormatted!H13</f>
+        <v>-1</v>
+      </c>
+      <c r="H12" s="9">
+        <f ca="1">TransactionsFormatted!I13</f>
+        <v>269.37</v>
+      </c>
+      <c r="I12" s="9">
+        <f>TransactionsFormatted!J13</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="18" t="str">
+        <f>TransactionsFormatted!K13</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K12" s="18" t="str">
+        <f>TransactionsFormatted!L13</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="str">
+        <f>TransactionsFormatted!B14</f>
+        <v>US03674X1063</v>
+      </c>
+      <c r="B13" s="7" t="str">
+        <f>TransactionsFormatted!C14</f>
+        <v>ANTERO RESOURCES CORP</v>
+      </c>
+      <c r="C13" s="10">
+        <f ca="1">TransactionsFormatted!D14</f>
+        <v>44491</v>
+      </c>
+      <c r="D13" s="10">
+        <f ca="1">TransactionsFormatted!E14</f>
+        <v>44491</v>
+      </c>
+      <c r="E13" s="11">
+        <f ca="1">TransactionsFormatted!F14</f>
+        <v>12</v>
+      </c>
+      <c r="F13" s="9">
+        <f ca="1">TransactionsFormatted!G14</f>
+        <v>240.12</v>
+      </c>
+      <c r="G13" s="9">
+        <f ca="1">TransactionsFormatted!H14</f>
+        <v>-1</v>
+      </c>
+      <c r="H13" s="9">
+        <f ca="1">TransactionsFormatted!I14</f>
+        <v>237.72</v>
+      </c>
+      <c r="I13" s="9">
+        <f>TransactionsFormatted!J14</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="18" t="str">
+        <f>TransactionsFormatted!K14</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K13" s="18" t="str">
+        <f>TransactionsFormatted!L14</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="str">
+        <f>TransactionsFormatted!B15</f>
+        <v>US03674X1063</v>
+      </c>
+      <c r="B14" s="7" t="str">
+        <f>TransactionsFormatted!C15</f>
+        <v>ANTERO RESOURCES CORP</v>
+      </c>
+      <c r="C14" s="10">
+        <f ca="1">TransactionsFormatted!D15</f>
+        <v>44504</v>
+      </c>
+      <c r="D14" s="10">
+        <f ca="1">TransactionsFormatted!E15</f>
+        <v>44504</v>
+      </c>
+      <c r="E14" s="11">
+        <f ca="1">TransactionsFormatted!F15</f>
+        <v>11</v>
+      </c>
+      <c r="F14" s="9">
+        <f ca="1">TransactionsFormatted!G15</f>
+        <v>239.67</v>
+      </c>
+      <c r="G14" s="9">
+        <f ca="1">TransactionsFormatted!H15</f>
+        <v>-1</v>
+      </c>
+      <c r="H14" s="9">
+        <f ca="1">TransactionsFormatted!I15</f>
+        <v>236.72</v>
+      </c>
+      <c r="I14" s="9">
+        <f>TransactionsFormatted!J15</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="18" t="str">
+        <f>TransactionsFormatted!K15</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K14" s="18" t="str">
+        <f>TransactionsFormatted!L15</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="str">
+        <f>TransactionsFormatted!B16</f>
+        <v>US03674X1063</v>
+      </c>
+      <c r="B15" s="7" t="str">
+        <f>TransactionsFormatted!C16</f>
+        <v>ANTERO RESOURCES CORP</v>
+      </c>
+      <c r="C15" s="10">
+        <f ca="1">TransactionsFormatted!D16</f>
+        <v>44508</v>
+      </c>
+      <c r="D15" s="10">
+        <f ca="1">TransactionsFormatted!E16</f>
+        <v>44508</v>
+      </c>
+      <c r="E15" s="11">
+        <f ca="1">TransactionsFormatted!F16</f>
+        <v>11</v>
+      </c>
+      <c r="F15" s="9">
+        <f ca="1">TransactionsFormatted!G16</f>
+        <v>233.09</v>
+      </c>
+      <c r="G15" s="9">
+        <f ca="1">TransactionsFormatted!H16</f>
+        <v>-1</v>
+      </c>
+      <c r="H15" s="9">
+        <f ca="1">TransactionsFormatted!I16</f>
+        <v>230.01</v>
+      </c>
+      <c r="I15" s="9">
+        <f>TransactionsFormatted!J16</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="18" t="str">
+        <f>TransactionsFormatted!K16</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K15" s="18" t="str">
+        <f>TransactionsFormatted!L16</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="str">
+        <f>TransactionsFormatted!B17</f>
+        <v>US03674X1063</v>
+      </c>
+      <c r="B16" s="7" t="str">
+        <f>TransactionsFormatted!C17</f>
+        <v>ANTERO RESOURCES CORP</v>
+      </c>
+      <c r="C16" s="10">
+        <f ca="1">TransactionsFormatted!D17</f>
+        <v>44508</v>
+      </c>
+      <c r="D16" s="10">
+        <f ca="1">TransactionsFormatted!E17</f>
+        <v>44508</v>
+      </c>
+      <c r="E16" s="11">
+        <f ca="1">TransactionsFormatted!F17</f>
+        <v>11</v>
+      </c>
+      <c r="F16" s="9">
+        <f ca="1">TransactionsFormatted!G17</f>
+        <v>234.03</v>
+      </c>
+      <c r="G16" s="9">
+        <f ca="1">TransactionsFormatted!H17</f>
+        <v>-1</v>
+      </c>
+      <c r="H16" s="9">
+        <f ca="1">TransactionsFormatted!I17</f>
+        <v>230.01</v>
+      </c>
+      <c r="I16" s="9">
+        <f>TransactionsFormatted!J17</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="18" t="str">
+        <f>TransactionsFormatted!K17</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K16" s="18" t="str">
+        <f>TransactionsFormatted!L17</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="str">
+        <f>TransactionsFormatted!B18</f>
+        <v>US03966V1070</v>
+      </c>
+      <c r="B17" s="7" t="str">
+        <f>TransactionsFormatted!C18</f>
+        <v>ARCONIC CORP</v>
+      </c>
+      <c r="C17" s="10">
+        <f ca="1">TransactionsFormatted!D18</f>
+        <v>44333</v>
+      </c>
+      <c r="D17" s="10">
+        <f ca="1">TransactionsFormatted!E18</f>
+        <v>44333</v>
+      </c>
+      <c r="E17" s="11">
+        <f ca="1">TransactionsFormatted!F18</f>
+        <v>6</v>
+      </c>
+      <c r="F17" s="9">
+        <f ca="1">TransactionsFormatted!G18</f>
+        <v>217.08</v>
+      </c>
+      <c r="G17" s="9">
+        <f ca="1">TransactionsFormatted!H18</f>
+        <v>-1</v>
+      </c>
+      <c r="H17" s="9">
+        <f ca="1">TransactionsFormatted!I18</f>
+        <v>212.52</v>
+      </c>
+      <c r="I17" s="9">
+        <f>TransactionsFormatted!J18</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="18" t="str">
+        <f>TransactionsFormatted!K18</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K17" s="18" t="str">
+        <f>TransactionsFormatted!L18</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="str">
+        <f>TransactionsFormatted!B19</f>
+        <v>LU2314763264</v>
+      </c>
+      <c r="B18" s="7" t="str">
+        <f>TransactionsFormatted!C19</f>
+        <v>ARRIVAL SA</v>
+      </c>
+      <c r="C18" s="10">
+        <f ca="1">TransactionsFormatted!D19</f>
+        <v>44497</v>
+      </c>
+      <c r="D18" s="10">
+        <f ca="1">TransactionsFormatted!E19</f>
+        <v>44501</v>
+      </c>
+      <c r="E18" s="11">
+        <f ca="1">TransactionsFormatted!F19</f>
+        <v>8</v>
+      </c>
+      <c r="F18" s="9">
+        <f ca="1">TransactionsFormatted!G19</f>
+        <v>125.84</v>
+      </c>
+      <c r="G18" s="9">
+        <f ca="1">TransactionsFormatted!H19</f>
+        <v>-1</v>
+      </c>
+      <c r="H18" s="9">
+        <f ca="1">TransactionsFormatted!I19</f>
+        <v>138.63999999999999</v>
+      </c>
+      <c r="I18" s="9">
+        <f>TransactionsFormatted!J19</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="18" t="str">
+        <f>TransactionsFormatted!K19</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K18" s="18" t="str">
+        <f>TransactionsFormatted!L19</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="str">
+        <f>TransactionsFormatted!B20</f>
+        <v>LU2314763264</v>
+      </c>
+      <c r="B19" s="7" t="str">
+        <f>TransactionsFormatted!C20</f>
+        <v>ARRIVAL SA</v>
+      </c>
+      <c r="C19" s="10">
+        <f ca="1">TransactionsFormatted!D20</f>
+        <v>44497</v>
+      </c>
+      <c r="D19" s="10">
+        <f ca="1">TransactionsFormatted!E20</f>
+        <v>44509</v>
+      </c>
+      <c r="E19" s="11">
+        <f ca="1">TransactionsFormatted!F20</f>
+        <v>8</v>
+      </c>
+      <c r="F19" s="9">
+        <f ca="1">TransactionsFormatted!G20</f>
+        <v>125.84</v>
+      </c>
+      <c r="G19" s="9">
+        <f ca="1">TransactionsFormatted!H20</f>
+        <v>-1</v>
+      </c>
+      <c r="H19" s="9">
+        <f ca="1">TransactionsFormatted!I20</f>
+        <v>111.2</v>
+      </c>
+      <c r="I19" s="9">
+        <f>TransactionsFormatted!J20</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="18" t="str">
+        <f>TransactionsFormatted!K20</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K19" s="18" t="str">
+        <f>TransactionsFormatted!L20</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="str">
+        <f>TransactionsFormatted!B21</f>
+        <v>US04342Y1047</v>
+      </c>
+      <c r="B20" s="7" t="str">
+        <f>TransactionsFormatted!C21</f>
+        <v>ASANA INC - CL A</v>
+      </c>
+      <c r="C20" s="10">
+        <f ca="1">TransactionsFormatted!D21</f>
+        <v>44509</v>
+      </c>
+      <c r="D20" s="10">
+        <f ca="1">TransactionsFormatted!E21</f>
+        <v>44509</v>
+      </c>
+      <c r="E20" s="11">
+        <f ca="1">TransactionsFormatted!F21</f>
+        <v>2</v>
+      </c>
+      <c r="F20" s="9">
+        <f ca="1">TransactionsFormatted!G21</f>
+        <v>279.77999999999997</v>
+      </c>
+      <c r="G20" s="9">
+        <f ca="1">TransactionsFormatted!H21</f>
+        <v>-1</v>
+      </c>
+      <c r="H20" s="9">
+        <f ca="1">TransactionsFormatted!I21</f>
+        <v>277.02</v>
+      </c>
+      <c r="I20" s="9">
+        <f>TransactionsFormatted!J21</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="18" t="str">
+        <f>TransactionsFormatted!K21</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K20" s="18" t="str">
+        <f>TransactionsFormatted!L21</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="str">
+        <f>TransactionsFormatted!B22</f>
+        <v>US04342Y1047</v>
+      </c>
+      <c r="B21" s="7" t="str">
+        <f>TransactionsFormatted!C22</f>
+        <v>ASANA INC - CL A</v>
+      </c>
+      <c r="C21" s="10">
+        <f ca="1">TransactionsFormatted!D22</f>
+        <v>44517</v>
+      </c>
+      <c r="D21" s="10">
+        <f ca="1">TransactionsFormatted!E22</f>
+        <v>44517</v>
+      </c>
+      <c r="E21" s="11">
+        <f ca="1">TransactionsFormatted!F22</f>
+        <v>1</v>
+      </c>
+      <c r="F21" s="9">
+        <f ca="1">TransactionsFormatted!G22</f>
+        <v>139.33000000000001</v>
+      </c>
+      <c r="G21" s="9">
+        <f ca="1">TransactionsFormatted!H22</f>
+        <v>-1</v>
+      </c>
+      <c r="H21" s="9">
+        <f ca="1">TransactionsFormatted!I22</f>
+        <v>135.77000000000001</v>
+      </c>
+      <c r="I21" s="9">
+        <f>TransactionsFormatted!J22</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="18" t="str">
+        <f>TransactionsFormatted!K22</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K21" s="18" t="str">
+        <f>TransactionsFormatted!L22</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="str">
+        <f>TransactionsFormatted!B23</f>
+        <v>US04342Y1047</v>
+      </c>
+      <c r="B22" s="7" t="str">
+        <f>TransactionsFormatted!C23</f>
+        <v>ASANA INC - CL A</v>
+      </c>
+      <c r="C22" s="10">
+        <f ca="1">TransactionsFormatted!D23</f>
+        <v>44518</v>
+      </c>
+      <c r="D22" s="10">
+        <f ca="1">TransactionsFormatted!E23</f>
+        <v>44518</v>
+      </c>
+      <c r="E22" s="11">
+        <f ca="1">TransactionsFormatted!F23</f>
+        <v>1</v>
+      </c>
+      <c r="F22" s="9">
+        <f ca="1">TransactionsFormatted!G23</f>
+        <v>136.93</v>
+      </c>
+      <c r="G22" s="9">
+        <f ca="1">TransactionsFormatted!H23</f>
+        <v>-1</v>
+      </c>
+      <c r="H22" s="9">
+        <f ca="1">TransactionsFormatted!I23</f>
+        <v>133.44</v>
+      </c>
+      <c r="I22" s="9">
+        <f>TransactionsFormatted!J23</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="18" t="str">
+        <f>TransactionsFormatted!K23</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K22" s="18" t="str">
+        <f>TransactionsFormatted!L23</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="str">
+        <f>TransactionsFormatted!B24</f>
+        <v>US05464C1018</v>
+      </c>
+      <c r="B23" s="7" t="str">
+        <f>TransactionsFormatted!C24</f>
+        <v>AXON ENTERPRISE INC</v>
+      </c>
+      <c r="C23" s="10">
+        <f ca="1">TransactionsFormatted!D24</f>
+        <v>44516</v>
+      </c>
+      <c r="D23" s="10">
+        <f ca="1">TransactionsFormatted!E24</f>
+        <v>44516</v>
+      </c>
+      <c r="E23" s="11">
+        <f ca="1">TransactionsFormatted!F24</f>
+        <v>1</v>
+      </c>
+      <c r="F23" s="9">
+        <f ca="1">TransactionsFormatted!G24</f>
+        <v>179.89</v>
+      </c>
+      <c r="G23" s="9">
+        <f ca="1">TransactionsFormatted!H24</f>
+        <v>-1</v>
+      </c>
+      <c r="H23" s="9">
+        <f ca="1">TransactionsFormatted!I24</f>
+        <v>179.52</v>
+      </c>
+      <c r="I23" s="9">
+        <f>TransactionsFormatted!J24</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="18" t="str">
+        <f>TransactionsFormatted!K24</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K23" s="18" t="str">
+        <f>TransactionsFormatted!L24</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="str">
+        <f>TransactionsFormatted!B25</f>
+        <v>US0758961009</v>
+      </c>
+      <c r="B24" s="7" t="str">
+        <f>TransactionsFormatted!C25</f>
+        <v>BED BATH &amp; BEYOND INC</v>
+      </c>
+      <c r="C24" s="10">
+        <f ca="1">TransactionsFormatted!D25</f>
+        <v>44517</v>
+      </c>
+      <c r="D24" s="10">
+        <f ca="1">TransactionsFormatted!E25</f>
+        <v>44517</v>
+      </c>
+      <c r="E24" s="11">
+        <f ca="1">TransactionsFormatted!F25</f>
+        <v>10</v>
+      </c>
+      <c r="F24" s="9">
+        <f ca="1">TransactionsFormatted!G25</f>
+        <v>236.47</v>
+      </c>
+      <c r="G24" s="9">
+        <f ca="1">TransactionsFormatted!H25</f>
+        <v>-1</v>
+      </c>
+      <c r="H24" s="9">
+        <f ca="1">TransactionsFormatted!I25</f>
+        <v>226.6</v>
+      </c>
+      <c r="I24" s="9">
+        <f>TransactionsFormatted!J25</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="18" t="str">
+        <f>TransactionsFormatted!K25</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K24" s="18" t="str">
+        <f>TransactionsFormatted!L25</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="str">
+        <f>TransactionsFormatted!B26</f>
+        <v>US08915P1012</v>
+      </c>
+      <c r="B25" s="7" t="str">
+        <f>TransactionsFormatted!C26</f>
+        <v>BIG 5 SPORTING GOODS CORP</v>
+      </c>
+      <c r="C25" s="10">
+        <f ca="1">TransactionsFormatted!D26</f>
+        <v>44333</v>
+      </c>
+      <c r="D25" s="10">
+        <f ca="1">TransactionsFormatted!E26</f>
+        <v>44333</v>
+      </c>
+      <c r="E25" s="11">
+        <f ca="1">TransactionsFormatted!F26</f>
+        <v>8</v>
+      </c>
+      <c r="F25" s="9">
+        <f ca="1">TransactionsFormatted!G26</f>
+        <v>230.56</v>
+      </c>
+      <c r="G25" s="9">
+        <f ca="1">TransactionsFormatted!H26</f>
+        <v>-1</v>
+      </c>
+      <c r="H25" s="9">
+        <f ca="1">TransactionsFormatted!I26</f>
+        <v>224.09</v>
+      </c>
+      <c r="I25" s="9">
+        <f>TransactionsFormatted!J26</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="18" t="str">
+        <f>TransactionsFormatted!K26</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K25" s="18" t="str">
+        <f>TransactionsFormatted!L26</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="str">
+        <f>TransactionsFormatted!B27</f>
+        <v>US0893021032</v>
+      </c>
+      <c r="B26" s="7" t="str">
+        <f>TransactionsFormatted!C27</f>
+        <v>BIG LOTS INC</v>
+      </c>
+      <c r="C26" s="10">
+        <f ca="1">TransactionsFormatted!D27</f>
+        <v>44291</v>
+      </c>
+      <c r="D26" s="10">
+        <f ca="1">TransactionsFormatted!E27</f>
+        <v>44291</v>
+      </c>
+      <c r="E26" s="11">
+        <f ca="1">TransactionsFormatted!F27</f>
+        <v>3</v>
+      </c>
+      <c r="F26" s="9">
+        <f ca="1">TransactionsFormatted!G27</f>
+        <v>209.22</v>
+      </c>
+      <c r="G26" s="9">
+        <f ca="1">TransactionsFormatted!H27</f>
+        <v>-1</v>
+      </c>
+      <c r="H26" s="9">
+        <f ca="1">TransactionsFormatted!I27</f>
+        <v>206.91</v>
+      </c>
+      <c r="I26" s="9">
+        <f>TransactionsFormatted!J27</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="18" t="str">
+        <f>TransactionsFormatted!K27</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K26" s="18" t="str">
+        <f>TransactionsFormatted!L27</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="str">
+        <f>TransactionsFormatted!B28</f>
+        <v>CA09173B1076</v>
+      </c>
+      <c r="B27" s="7" t="str">
+        <f>TransactionsFormatted!C28</f>
+        <v>BITFARMS LTD/CANADA</v>
+      </c>
+      <c r="C27" s="10">
+        <f ca="1">TransactionsFormatted!D28</f>
+        <v>44530</v>
+      </c>
+      <c r="D27" s="10">
+        <f ca="1">TransactionsFormatted!E28</f>
+        <v>44530</v>
+      </c>
+      <c r="E27" s="11">
+        <f ca="1">TransactionsFormatted!F28</f>
+        <v>31</v>
+      </c>
+      <c r="F27" s="9">
+        <f ca="1">TransactionsFormatted!G28</f>
+        <v>251.72</v>
+      </c>
+      <c r="G27" s="9">
+        <f ca="1">TransactionsFormatted!H28</f>
+        <v>-1</v>
+      </c>
+      <c r="H27" s="9">
+        <f ca="1">TransactionsFormatted!I28</f>
+        <v>241.49</v>
+      </c>
+      <c r="I27" s="9">
+        <f>TransactionsFormatted!J28</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="18" t="str">
+        <f>TransactionsFormatted!K28</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K27" s="18" t="str">
+        <f>TransactionsFormatted!L28</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="str">
+        <f>TransactionsFormatted!B29</f>
+        <v>US0843101017</v>
+      </c>
+      <c r="B28" s="7" t="str">
+        <f>TransactionsFormatted!C29</f>
+        <v>BERKELEY LIGHTS INC</v>
+      </c>
+      <c r="C28" s="10">
+        <f ca="1">TransactionsFormatted!D29</f>
+        <v>44510</v>
+      </c>
+      <c r="D28" s="10">
+        <f ca="1">TransactionsFormatted!E29</f>
+        <v>44510</v>
+      </c>
+      <c r="E28" s="11">
+        <f ca="1">TransactionsFormatted!F29</f>
+        <v>10</v>
+      </c>
+      <c r="F28" s="9">
+        <f ca="1">TransactionsFormatted!G29</f>
+        <v>259.60000000000002</v>
+      </c>
+      <c r="G28" s="9">
+        <f ca="1">TransactionsFormatted!H29</f>
+        <v>-1</v>
+      </c>
+      <c r="H28" s="9">
+        <f ca="1">TransactionsFormatted!I29</f>
+        <v>250.5</v>
+      </c>
+      <c r="I28" s="9">
+        <f>TransactionsFormatted!J29</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="18" t="str">
+        <f>TransactionsFormatted!K29</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K28" s="18" t="str">
+        <f>TransactionsFormatted!L29</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="str">
+        <f>TransactionsFormatted!B30</f>
+        <v>US09075V1026</v>
+      </c>
+      <c r="B29" s="7" t="str">
+        <f>TransactionsFormatted!C30</f>
+        <v>BIONTECH SE-ADR</v>
+      </c>
+      <c r="C29" s="10">
+        <f ca="1">TransactionsFormatted!D30</f>
+        <v>44349</v>
+      </c>
+      <c r="D29" s="10">
+        <f ca="1">TransactionsFormatted!E30</f>
+        <v>44350</v>
+      </c>
+      <c r="E29" s="11">
+        <f ca="1">TransactionsFormatted!F30</f>
+        <v>1</v>
+      </c>
+      <c r="F29" s="9">
+        <f ca="1">TransactionsFormatted!G30</f>
+        <v>210.17</v>
+      </c>
+      <c r="G29" s="9">
+        <f ca="1">TransactionsFormatted!H30</f>
+        <v>-1</v>
+      </c>
+      <c r="H29" s="9">
+        <f ca="1">TransactionsFormatted!I30</f>
+        <v>216.05</v>
+      </c>
+      <c r="I29" s="9">
+        <f>TransactionsFormatted!J30</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="18" t="str">
+        <f>TransactionsFormatted!K30</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K29" s="18" t="str">
+        <f>TransactionsFormatted!L30</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="str">
+        <f>TransactionsFormatted!B31</f>
+        <v>US09075V1026</v>
+      </c>
+      <c r="B30" s="7" t="str">
+        <f>TransactionsFormatted!C31</f>
+        <v>BIONTECH SE-ADR</v>
+      </c>
+      <c r="C30" s="10">
+        <f ca="1">TransactionsFormatted!D31</f>
+        <v>44483</v>
+      </c>
+      <c r="D30" s="10">
+        <f ca="1">TransactionsFormatted!E31</f>
+        <v>44483</v>
+      </c>
+      <c r="E30" s="11">
+        <f ca="1">TransactionsFormatted!F31</f>
+        <v>1</v>
+      </c>
+      <c r="F30" s="9">
+        <f ca="1">TransactionsFormatted!G31</f>
+        <v>255.68</v>
+      </c>
+      <c r="G30" s="9">
+        <f ca="1">TransactionsFormatted!H31</f>
+        <v>-1</v>
+      </c>
+      <c r="H30" s="9">
+        <f ca="1">TransactionsFormatted!I31</f>
+        <v>249.59</v>
+      </c>
+      <c r="I30" s="9">
+        <f>TransactionsFormatted!J31</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="18" t="str">
+        <f>TransactionsFormatted!K31</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K30" s="18" t="str">
+        <f>TransactionsFormatted!L31</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="str">
+        <f>TransactionsFormatted!B32</f>
+        <v>KYG1144A1058</v>
+      </c>
+      <c r="B31" s="7" t="str">
+        <f>TransactionsFormatted!C32</f>
+        <v>BIT DIGITAL INC</v>
+      </c>
+      <c r="C31" s="10">
+        <f ca="1">TransactionsFormatted!D32</f>
+        <v>44421</v>
+      </c>
+      <c r="D31" s="10">
+        <f ca="1">TransactionsFormatted!E32</f>
+        <v>44421</v>
+      </c>
+      <c r="E31" s="11">
+        <f ca="1">TransactionsFormatted!F32</f>
+        <v>16</v>
+      </c>
+      <c r="F31" s="9">
+        <f ca="1">TransactionsFormatted!G32</f>
+        <v>253.76</v>
+      </c>
+      <c r="G31" s="9">
+        <f ca="1">TransactionsFormatted!H32</f>
+        <v>-1</v>
+      </c>
+      <c r="H31" s="9">
+        <f ca="1">TransactionsFormatted!I32</f>
+        <v>244</v>
+      </c>
+      <c r="I31" s="9">
+        <f>TransactionsFormatted!J32</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="18" t="str">
+        <f>TransactionsFormatted!K32</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K31" s="18" t="str">
+        <f>TransactionsFormatted!L32</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="str">
+        <f>TransactionsFormatted!B33</f>
+        <v>CA13321L1085</v>
+      </c>
+      <c r="B32" s="7" t="str">
+        <f>TransactionsFormatted!C33</f>
+        <v>CAMECO CORP</v>
+      </c>
+      <c r="C32" s="10">
+        <f ca="1">TransactionsFormatted!D33</f>
+        <v>44503</v>
+      </c>
+      <c r="D32" s="10">
+        <f ca="1">TransactionsFormatted!E33</f>
+        <v>44508</v>
+      </c>
+      <c r="E32" s="11">
+        <f ca="1">TransactionsFormatted!F33</f>
+        <v>4</v>
+      </c>
+      <c r="F32" s="9">
+        <f ca="1">TransactionsFormatted!G33</f>
+        <v>104.48</v>
+      </c>
+      <c r="G32" s="9">
+        <f ca="1">TransactionsFormatted!H33</f>
+        <v>-1</v>
+      </c>
+      <c r="H32" s="9">
+        <f ca="1">TransactionsFormatted!I33</f>
+        <v>109.16</v>
+      </c>
+      <c r="I32" s="9">
+        <f>TransactionsFormatted!J33</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="18" t="str">
+        <f>TransactionsFormatted!K33</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K32" s="18" t="str">
+        <f>TransactionsFormatted!L33</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="str">
+        <f>TransactionsFormatted!B34</f>
+        <v>CA13321L1085</v>
+      </c>
+      <c r="B33" s="7" t="str">
+        <f>TransactionsFormatted!C34</f>
+        <v>CAMECO CORP</v>
+      </c>
+      <c r="C33" s="10">
+        <f ca="1">TransactionsFormatted!D34</f>
+        <v>44503</v>
+      </c>
+      <c r="D33" s="10">
+        <f ca="1">TransactionsFormatted!E34</f>
+        <v>44516</v>
+      </c>
+      <c r="E33" s="11">
+        <f ca="1">TransactionsFormatted!F34</f>
+        <v>3</v>
+      </c>
+      <c r="F33" s="9">
+        <f ca="1">TransactionsFormatted!G34</f>
+        <v>78.36</v>
+      </c>
+      <c r="G33" s="9">
+        <f ca="1">TransactionsFormatted!H34</f>
+        <v>-0.8</v>
+      </c>
+      <c r="H33" s="9">
+        <f ca="1">TransactionsFormatted!I34</f>
+        <v>79.430000000000007</v>
+      </c>
+      <c r="I33" s="9">
+        <f>TransactionsFormatted!J34</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="18" t="str">
+        <f>TransactionsFormatted!K34</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K33" s="18" t="str">
+        <f>TransactionsFormatted!L34</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="str">
+        <f>TransactionsFormatted!B35</f>
+        <v>US15118V2079</v>
+      </c>
+      <c r="B34" s="7" t="str">
+        <f>TransactionsFormatted!C35</f>
+        <v>CELSIUS HOLDINGS INC</v>
+      </c>
+      <c r="C34" s="10">
+        <f ca="1">TransactionsFormatted!D35</f>
+        <v>44482</v>
+      </c>
+      <c r="D34" s="10">
+        <f ca="1">TransactionsFormatted!E35</f>
+        <v>44482</v>
+      </c>
+      <c r="E34" s="11">
+        <f ca="1">TransactionsFormatted!F35</f>
+        <v>1</v>
+      </c>
+      <c r="F34" s="9">
+        <f ca="1">TransactionsFormatted!G35</f>
+        <v>98.39</v>
+      </c>
+      <c r="G34" s="9">
+        <f ca="1">TransactionsFormatted!H35</f>
+        <v>-0.97</v>
+      </c>
+      <c r="H34" s="9">
+        <f ca="1">TransactionsFormatted!I35</f>
+        <v>96.81</v>
+      </c>
+      <c r="I34" s="9">
+        <f>TransactionsFormatted!J35</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="18" t="str">
+        <f>TransactionsFormatted!K35</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K34" s="18" t="str">
+        <f>TransactionsFormatted!L35</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="str">
+        <f>TransactionsFormatted!B36</f>
+        <v>US15117B2025</v>
+      </c>
+      <c r="B35" s="7" t="str">
+        <f>TransactionsFormatted!C36</f>
+        <v>CELLDEX THERAPEUTICS INC</v>
+      </c>
+      <c r="C35" s="10">
+        <f ca="1">TransactionsFormatted!D36</f>
+        <v>44413</v>
+      </c>
+      <c r="D35" s="10">
+        <f ca="1">TransactionsFormatted!E36</f>
+        <v>44414</v>
+      </c>
+      <c r="E35" s="11">
+        <f ca="1">TransactionsFormatted!F36</f>
+        <v>5</v>
+      </c>
+      <c r="F35" s="9">
+        <f ca="1">TransactionsFormatted!G36</f>
+        <v>231.75</v>
+      </c>
+      <c r="G35" s="9">
+        <f ca="1">TransactionsFormatted!H36</f>
+        <v>-1</v>
+      </c>
+      <c r="H35" s="9">
+        <f ca="1">TransactionsFormatted!I36</f>
+        <v>226.6</v>
+      </c>
+      <c r="I35" s="9">
+        <f>TransactionsFormatted!J36</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="18" t="str">
+        <f>TransactionsFormatted!K36</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K35" s="18" t="str">
+        <f>TransactionsFormatted!L36</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="str">
+        <f>TransactionsFormatted!B37</f>
+        <v>US19260Q1076</v>
+      </c>
+      <c r="B36" s="7" t="str">
+        <f>TransactionsFormatted!C37</f>
+        <v>COINBASE GLOBAL INC -CLASS A</v>
+      </c>
+      <c r="C36" s="10">
+        <f ca="1">TransactionsFormatted!D37</f>
+        <v>44515</v>
+      </c>
+      <c r="D36" s="10">
+        <f ca="1">TransactionsFormatted!E37</f>
+        <v>44515</v>
+      </c>
+      <c r="E36" s="11">
+        <f ca="1">TransactionsFormatted!F37</f>
+        <v>1</v>
+      </c>
+      <c r="F36" s="9">
+        <f ca="1">TransactionsFormatted!G37</f>
+        <v>347.64</v>
+      </c>
+      <c r="G36" s="9">
+        <f ca="1">TransactionsFormatted!H37</f>
+        <v>-1</v>
+      </c>
+      <c r="H36" s="9">
+        <f ca="1">TransactionsFormatted!I37</f>
+        <v>342.58</v>
+      </c>
+      <c r="I36" s="9">
+        <f>TransactionsFormatted!J37</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="18" t="str">
+        <f>TransactionsFormatted!K37</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K36" s="18" t="str">
+        <f>TransactionsFormatted!L37</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="str">
+        <f>TransactionsFormatted!B38</f>
+        <v>US13123X5086</v>
+      </c>
+      <c r="B37" s="7" t="str">
+        <f>TransactionsFormatted!C38</f>
+        <v>CALLON PETROLEUM CO</v>
+      </c>
+      <c r="C37" s="10">
+        <f ca="1">TransactionsFormatted!D38</f>
+        <v>44504</v>
+      </c>
+      <c r="D37" s="10">
+        <f ca="1">TransactionsFormatted!E38</f>
+        <v>44504</v>
+      </c>
+      <c r="E37" s="11">
+        <f ca="1">TransactionsFormatted!F38</f>
+        <v>4</v>
+      </c>
+      <c r="F37" s="9">
+        <f ca="1">TransactionsFormatted!G38</f>
+        <v>231.6</v>
+      </c>
+      <c r="G37" s="9">
+        <f ca="1">TransactionsFormatted!H38</f>
+        <v>-1</v>
+      </c>
+      <c r="H37" s="9">
+        <f ca="1">TransactionsFormatted!I38</f>
+        <v>223.76</v>
+      </c>
+      <c r="I37" s="9">
+        <f>TransactionsFormatted!J38</f>
+        <v>0</v>
+      </c>
+      <c r="J37" s="18" t="str">
+        <f>TransactionsFormatted!K38</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K37" s="18" t="str">
+        <f>TransactionsFormatted!L38</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="str">
+        <f>TransactionsFormatted!B39</f>
+        <v>US12769G1004</v>
+      </c>
+      <c r="B38" s="7" t="str">
+        <f>TransactionsFormatted!C39</f>
+        <v>CAESARS ENTERTAINMENT INC</v>
+      </c>
+      <c r="C38" s="10">
+        <f ca="1">TransactionsFormatted!D39</f>
+        <v>44483</v>
+      </c>
+      <c r="D38" s="10">
+        <f ca="1">TransactionsFormatted!E39</f>
+        <v>44483</v>
+      </c>
+      <c r="E38" s="11">
+        <f ca="1">TransactionsFormatted!F39</f>
+        <v>2</v>
+      </c>
+      <c r="F38" s="9">
+        <f ca="1">TransactionsFormatted!G39</f>
+        <v>232.84</v>
+      </c>
+      <c r="G38" s="9">
+        <f ca="1">TransactionsFormatted!H39</f>
+        <v>-1</v>
+      </c>
+      <c r="H38" s="9">
+        <f ca="1">TransactionsFormatted!I39</f>
+        <v>230.7</v>
+      </c>
+      <c r="I38" s="9">
+        <f>TransactionsFormatted!J39</f>
+        <v>0</v>
+      </c>
+      <c r="J38" s="18" t="str">
+        <f>TransactionsFormatted!K39</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K38" s="18" t="str">
+        <f>TransactionsFormatted!L39</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="str">
+        <f>TransactionsFormatted!B40</f>
+        <v>MHY1968P1218</v>
+      </c>
+      <c r="B39" s="7" t="str">
+        <f>TransactionsFormatted!C40</f>
+        <v>DANAOS CORP</v>
+      </c>
+      <c r="C39" s="10">
+        <f ca="1">TransactionsFormatted!D40</f>
+        <v>44305</v>
+      </c>
+      <c r="D39" s="10">
+        <f ca="1">TransactionsFormatted!E40</f>
+        <v>44305</v>
+      </c>
+      <c r="E39" s="11">
+        <f ca="1">TransactionsFormatted!F40</f>
+        <v>4</v>
+      </c>
+      <c r="F39" s="9">
+        <f ca="1">TransactionsFormatted!G40</f>
+        <v>214.64</v>
+      </c>
+      <c r="G39" s="9">
+        <f ca="1">TransactionsFormatted!H40</f>
+        <v>-1</v>
+      </c>
+      <c r="H39" s="9">
+        <f ca="1">TransactionsFormatted!I40</f>
+        <v>211.2</v>
+      </c>
+      <c r="I39" s="9">
+        <f>TransactionsFormatted!J40</f>
+        <v>0</v>
+      </c>
+      <c r="J39" s="18" t="str">
+        <f>TransactionsFormatted!K40</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K39" s="18" t="str">
+        <f>TransactionsFormatted!L40</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="str">
+        <f>TransactionsFormatted!B41</f>
+        <v>MHY1968P1218</v>
+      </c>
+      <c r="B40" s="7" t="str">
+        <f>TransactionsFormatted!C41</f>
+        <v>DANAOS CORP</v>
+      </c>
+      <c r="C40" s="10">
+        <f ca="1">TransactionsFormatted!D41</f>
+        <v>44349</v>
+      </c>
+      <c r="D40" s="10">
+        <f ca="1">TransactionsFormatted!E41</f>
+        <v>44349</v>
+      </c>
+      <c r="E40" s="11">
+        <f ca="1">TransactionsFormatted!F41</f>
+        <v>3</v>
+      </c>
+      <c r="F40" s="9">
+        <f ca="1">TransactionsFormatted!G41</f>
+        <v>197.49</v>
+      </c>
+      <c r="G40" s="9">
+        <f ca="1">TransactionsFormatted!H41</f>
+        <v>-1</v>
+      </c>
+      <c r="H40" s="9">
+        <f ca="1">TransactionsFormatted!I41</f>
+        <v>194.37</v>
+      </c>
+      <c r="I40" s="9">
+        <f>TransactionsFormatted!J41</f>
+        <v>0</v>
+      </c>
+      <c r="J40" s="18" t="str">
+        <f>TransactionsFormatted!K41</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K40" s="18" t="str">
+        <f>TransactionsFormatted!L41</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="7" t="str">
+        <f>TransactionsFormatted!B42</f>
+        <v>US24984K1051</v>
+      </c>
+      <c r="B41" s="7" t="str">
+        <f>TransactionsFormatted!C42</f>
+        <v>DERMTECH INC</v>
+      </c>
+      <c r="C41" s="10">
+        <f ca="1">TransactionsFormatted!D42</f>
+        <v>44354</v>
+      </c>
+      <c r="D41" s="10">
+        <f ca="1">TransactionsFormatted!E42</f>
+        <v>44356</v>
+      </c>
+      <c r="E41" s="11">
+        <f ca="1">TransactionsFormatted!F42</f>
+        <v>3</v>
+      </c>
+      <c r="F41" s="9">
+        <f ca="1">TransactionsFormatted!G42</f>
+        <v>120.89</v>
+      </c>
+      <c r="G41" s="9">
+        <f ca="1">TransactionsFormatted!H42</f>
+        <v>-1</v>
+      </c>
+      <c r="H41" s="9">
+        <f ca="1">TransactionsFormatted!I42</f>
+        <v>133.53</v>
+      </c>
+      <c r="I41" s="9">
+        <f>TransactionsFormatted!J42</f>
+        <v>0</v>
+      </c>
+      <c r="J41" s="18" t="str">
+        <f>TransactionsFormatted!K42</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K41" s="18" t="str">
+        <f>TransactionsFormatted!L42</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="str">
+        <f>TransactionsFormatted!B43</f>
+        <v>US24984K1051</v>
+      </c>
+      <c r="B42" s="7" t="str">
+        <f>TransactionsFormatted!C43</f>
+        <v>DERMTECH INC</v>
+      </c>
+      <c r="C42" s="10">
+        <f ca="1">TransactionsFormatted!D43</f>
+        <v>44354</v>
+      </c>
+      <c r="D42" s="10">
+        <f ca="1">TransactionsFormatted!E43</f>
+        <v>44358</v>
+      </c>
+      <c r="E42" s="11">
+        <f ca="1">TransactionsFormatted!F43</f>
+        <v>3</v>
+      </c>
+      <c r="F42" s="9">
+        <f ca="1">TransactionsFormatted!G43</f>
+        <v>120.89</v>
+      </c>
+      <c r="G42" s="9">
+        <f ca="1">TransactionsFormatted!H43</f>
+        <v>-1</v>
+      </c>
+      <c r="H42" s="9">
+        <f ca="1">TransactionsFormatted!I43</f>
+        <v>122.31</v>
+      </c>
+      <c r="I42" s="9">
+        <f>TransactionsFormatted!J43</f>
+        <v>0</v>
+      </c>
+      <c r="J42" s="18" t="str">
+        <f>TransactionsFormatted!K43</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K42" s="18" t="str">
+        <f>TransactionsFormatted!L43</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="str">
+        <f>TransactionsFormatted!B44</f>
+        <v>US25402D1028</v>
+      </c>
+      <c r="B43" s="7" t="str">
+        <f>TransactionsFormatted!C44</f>
+        <v>DIGITALOCEAN HOLDINGS INC</v>
+      </c>
+      <c r="C43" s="10">
+        <f ca="1">TransactionsFormatted!D44</f>
+        <v>44482</v>
+      </c>
+      <c r="D43" s="10">
+        <f ca="1">TransactionsFormatted!E44</f>
+        <v>44487</v>
+      </c>
+      <c r="E43" s="11">
+        <f ca="1">TransactionsFormatted!F44</f>
+        <v>2</v>
+      </c>
+      <c r="F43" s="9">
+        <f ca="1">TransactionsFormatted!G44</f>
+        <v>178.92</v>
+      </c>
+      <c r="G43" s="9">
+        <f ca="1">TransactionsFormatted!H44</f>
+        <v>-1</v>
+      </c>
+      <c r="H43" s="9">
+        <f ca="1">TransactionsFormatted!I44</f>
+        <v>180.78</v>
+      </c>
+      <c r="I43" s="9">
+        <f>TransactionsFormatted!J44</f>
+        <v>0</v>
+      </c>
+      <c r="J43" s="18" t="str">
+        <f>TransactionsFormatted!K44</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K43" s="18" t="str">
+        <f>TransactionsFormatted!L44</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="str">
+        <f>TransactionsFormatted!B45</f>
+        <v>US28106W1036</v>
+      </c>
+      <c r="B44" s="7" t="str">
+        <f>TransactionsFormatted!C45</f>
+        <v>EDITAS MEDICINE INC</v>
+      </c>
+      <c r="C44" s="10">
+        <f ca="1">TransactionsFormatted!D45</f>
+        <v>44438</v>
+      </c>
+      <c r="D44" s="10">
+        <f ca="1">TransactionsFormatted!E45</f>
+        <v>44438</v>
+      </c>
+      <c r="E44" s="11">
+        <f ca="1">TransactionsFormatted!F45</f>
+        <v>3</v>
+      </c>
+      <c r="F44" s="9">
+        <f ca="1">TransactionsFormatted!G45</f>
+        <v>202.32</v>
+      </c>
+      <c r="G44" s="9">
+        <f ca="1">TransactionsFormatted!H45</f>
+        <v>-1</v>
+      </c>
+      <c r="H44" s="9">
+        <f ca="1">TransactionsFormatted!I45</f>
+        <v>195.48</v>
+      </c>
+      <c r="I44" s="9">
+        <f>TransactionsFormatted!J45</f>
+        <v>0</v>
+      </c>
+      <c r="J44" s="18" t="str">
+        <f>TransactionsFormatted!K45</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K44" s="18" t="str">
+        <f>TransactionsFormatted!L45</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="7" t="str">
+        <f>TransactionsFormatted!B46</f>
+        <v>US29355A1079</v>
+      </c>
+      <c r="B45" s="7" t="str">
+        <f>TransactionsFormatted!C46</f>
+        <v>ENPHASE ENERGY INC</v>
+      </c>
+      <c r="C45" s="10">
+        <f ca="1">TransactionsFormatted!D46</f>
+        <v>44517</v>
+      </c>
+      <c r="D45" s="10">
+        <f ca="1">TransactionsFormatted!E46</f>
+        <v>44518</v>
+      </c>
+      <c r="E45" s="11">
+        <f ca="1">TransactionsFormatted!F46</f>
+        <v>1</v>
+      </c>
+      <c r="F45" s="9">
+        <f ca="1">TransactionsFormatted!G46</f>
+        <v>254.65</v>
+      </c>
+      <c r="G45" s="9">
+        <f ca="1">TransactionsFormatted!H46</f>
+        <v>-1</v>
+      </c>
+      <c r="H45" s="9">
+        <f ca="1">TransactionsFormatted!I46</f>
+        <v>250.21</v>
+      </c>
+      <c r="I45" s="9">
+        <f>TransactionsFormatted!J46</f>
+        <v>0</v>
+      </c>
+      <c r="J45" s="18" t="str">
+        <f>TransactionsFormatted!K46</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K45" s="18" t="str">
+        <f>TransactionsFormatted!L46</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="7" t="str">
+        <f>TransactionsFormatted!B47</f>
+        <v>US29415C1018</v>
+      </c>
+      <c r="B46" s="7" t="str">
+        <f>TransactionsFormatted!C47</f>
+        <v>EOS ENERGY ENTERPRISES INC</v>
+      </c>
+      <c r="C46" s="10">
+        <f ca="1">TransactionsFormatted!D47</f>
+        <v>44355</v>
+      </c>
+      <c r="D46" s="10">
+        <f ca="1">TransactionsFormatted!E47</f>
+        <v>44356</v>
+      </c>
+      <c r="E46" s="11">
+        <f ca="1">TransactionsFormatted!F47</f>
+        <v>12</v>
+      </c>
+      <c r="F46" s="9">
+        <f ca="1">TransactionsFormatted!G47</f>
+        <v>251.04</v>
+      </c>
+      <c r="G46" s="9">
+        <f ca="1">TransactionsFormatted!H47</f>
+        <v>-1</v>
+      </c>
+      <c r="H46" s="9">
+        <f ca="1">TransactionsFormatted!I47</f>
+        <v>242.3</v>
+      </c>
+      <c r="I46" s="9">
+        <f>TransactionsFormatted!J47</f>
+        <v>0</v>
+      </c>
+      <c r="J46" s="18" t="str">
+        <f>TransactionsFormatted!K47</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K46" s="18" t="str">
+        <f>TransactionsFormatted!L47</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="7" t="str">
+        <f>TransactionsFormatted!B48</f>
+        <v>SGXZ53262598</v>
+      </c>
+      <c r="B47" s="7" t="str">
+        <f>TransactionsFormatted!C48</f>
+        <v>EQONEX LTD</v>
+      </c>
+      <c r="C47" s="10">
+        <f ca="1">TransactionsFormatted!D48</f>
+        <v>44508</v>
+      </c>
+      <c r="D47" s="10">
+        <f ca="1">TransactionsFormatted!E48</f>
+        <v>44508</v>
+      </c>
+      <c r="E47" s="11">
+        <f ca="1">TransactionsFormatted!F48</f>
+        <v>42</v>
+      </c>
+      <c r="F47" s="9">
+        <f ca="1">TransactionsFormatted!G48</f>
+        <v>257.88</v>
+      </c>
+      <c r="G47" s="9">
+        <f ca="1">TransactionsFormatted!H48</f>
+        <v>-1.01</v>
+      </c>
+      <c r="H47" s="9">
+        <f ca="1">TransactionsFormatted!I48</f>
+        <v>244.44</v>
+      </c>
+      <c r="I47" s="9">
+        <f>TransactionsFormatted!J48</f>
+        <v>0</v>
+      </c>
+      <c r="J47" s="18" t="str">
+        <f>TransactionsFormatted!K48</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K47" s="18" t="str">
+        <f>TransactionsFormatted!L48</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="7" t="str">
+        <f>TransactionsFormatted!B49</f>
+        <v>US36118L1061</v>
+      </c>
+      <c r="B48" s="7" t="str">
+        <f>TransactionsFormatted!C49</f>
+        <v>FUTU HOLDINGS LTD-ADR</v>
+      </c>
+      <c r="C48" s="10">
+        <f ca="1">TransactionsFormatted!D49</f>
+        <v>44426</v>
+      </c>
+      <c r="D48" s="10">
+        <f ca="1">TransactionsFormatted!E49</f>
+        <v>44427</v>
+      </c>
+      <c r="E48" s="11">
+        <f ca="1">TransactionsFormatted!F49</f>
+        <v>1</v>
+      </c>
+      <c r="F48" s="9">
+        <f ca="1">TransactionsFormatted!G49</f>
+        <v>94.98</v>
+      </c>
+      <c r="G48" s="9">
+        <f ca="1">TransactionsFormatted!H49</f>
+        <v>-0.89</v>
+      </c>
+      <c r="H48" s="9">
+        <f ca="1">TransactionsFormatted!I49</f>
+        <v>88.93</v>
+      </c>
+      <c r="I48" s="9">
+        <f>TransactionsFormatted!J49</f>
+        <v>0</v>
+      </c>
+      <c r="J48" s="18" t="str">
+        <f>TransactionsFormatted!K49</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K48" s="18" t="str">
+        <f>TransactionsFormatted!L49</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="7" t="str">
+        <f>TransactionsFormatted!B50</f>
+        <v>US3632252025</v>
+      </c>
+      <c r="B49" s="7" t="str">
+        <f>TransactionsFormatted!C50</f>
+        <v>GALECTIN THERAPEUTICS INC</v>
+      </c>
+      <c r="C49" s="10">
+        <f ca="1">TransactionsFormatted!D50</f>
+        <v>44355</v>
+      </c>
+      <c r="D49" s="10">
+        <f ca="1">TransactionsFormatted!E50</f>
+        <v>44355</v>
+      </c>
+      <c r="E49" s="11">
+        <f ca="1">TransactionsFormatted!F50</f>
+        <v>62</v>
+      </c>
+      <c r="F49" s="9">
+        <f ca="1">TransactionsFormatted!G50</f>
+        <v>248.62</v>
+      </c>
+      <c r="G49" s="9">
+        <f ca="1">TransactionsFormatted!H50</f>
+        <v>-1.01</v>
+      </c>
+      <c r="H49" s="9">
+        <f ca="1">TransactionsFormatted!I50</f>
+        <v>244.9</v>
+      </c>
+      <c r="I49" s="9">
+        <f>TransactionsFormatted!J50</f>
+        <v>0</v>
+      </c>
+      <c r="J49" s="18" t="str">
+        <f>TransactionsFormatted!K50</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K49" s="18" t="str">
+        <f>TransactionsFormatted!L50</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="7" t="str">
+        <f>TransactionsFormatted!B51</f>
+        <v>MHY2687W1084</v>
+      </c>
+      <c r="B50" s="7" t="str">
+        <f>TransactionsFormatted!C51</f>
+        <v>GASLOG PARTNERS LP</v>
+      </c>
+      <c r="C50" s="10">
+        <f ca="1">TransactionsFormatted!D51</f>
+        <v>44403</v>
+      </c>
+      <c r="D50" s="10">
+        <f ca="1">TransactionsFormatted!E51</f>
+        <v>44404</v>
+      </c>
+      <c r="E50" s="11">
+        <f ca="1">TransactionsFormatted!F51</f>
+        <v>49</v>
+      </c>
+      <c r="F50" s="9">
+        <f ca="1">TransactionsFormatted!G51</f>
+        <v>248.77</v>
+      </c>
+      <c r="G50" s="9">
+        <f ca="1">TransactionsFormatted!H51</f>
+        <v>-1.01</v>
+      </c>
+      <c r="H50" s="9">
+        <f ca="1">TransactionsFormatted!I51</f>
+        <v>215.6</v>
+      </c>
+      <c r="I50" s="9">
+        <f>TransactionsFormatted!J51</f>
+        <v>0</v>
+      </c>
+      <c r="J50" s="18" t="str">
+        <f>TransactionsFormatted!K51</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K50" s="18" t="str">
+        <f>TransactionsFormatted!L51</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="7" t="str">
+        <f>TransactionsFormatted!B52</f>
+        <v>US36467W1099</v>
+      </c>
+      <c r="B51" s="7" t="str">
+        <f>TransactionsFormatted!C52</f>
+        <v>GAMESTOP CORP-CLASS A</v>
+      </c>
+      <c r="C51" s="10">
+        <f ca="1">TransactionsFormatted!D52</f>
+        <v>44305</v>
+      </c>
+      <c r="D51" s="10">
+        <f ca="1">TransactionsFormatted!E52</f>
+        <v>44305</v>
+      </c>
+      <c r="E51" s="11">
+        <f ca="1">TransactionsFormatted!F52</f>
+        <v>1</v>
+      </c>
+      <c r="F51" s="9">
+        <f ca="1">TransactionsFormatted!G52</f>
+        <v>173.26</v>
+      </c>
+      <c r="G51" s="9">
+        <f ca="1">TransactionsFormatted!H52</f>
+        <v>-1</v>
+      </c>
+      <c r="H51" s="9">
+        <f ca="1">TransactionsFormatted!I52</f>
+        <v>169.31</v>
+      </c>
+      <c r="I51" s="9">
+        <f>TransactionsFormatted!J52</f>
+        <v>0</v>
+      </c>
+      <c r="J51" s="18" t="str">
+        <f>TransactionsFormatted!K52</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K51" s="18" t="str">
+        <f>TransactionsFormatted!L52</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="7" t="str">
+        <f>TransactionsFormatted!B53</f>
+        <v>US36338D1081</v>
+      </c>
+      <c r="B52" s="7" t="str">
+        <f>TransactionsFormatted!C53</f>
+        <v>GALERA THERAPEUTICS INC</v>
+      </c>
+      <c r="C52" s="10">
+        <f ca="1">TransactionsFormatted!D53</f>
+        <v>44544</v>
+      </c>
+      <c r="D52" s="10">
+        <f ca="1">TransactionsFormatted!E53</f>
+        <v>44544</v>
+      </c>
+      <c r="E52" s="11">
+        <f ca="1">TransactionsFormatted!F53</f>
+        <v>100</v>
+      </c>
+      <c r="F52" s="9">
+        <f ca="1">TransactionsFormatted!G53</f>
+        <v>307.5</v>
+      </c>
+      <c r="G52" s="9">
+        <f ca="1">TransactionsFormatted!H53</f>
+        <v>-1.01</v>
+      </c>
+      <c r="H52" s="9">
+        <f ca="1">TransactionsFormatted!I53</f>
+        <v>295</v>
+      </c>
+      <c r="I52" s="9">
+        <f>TransactionsFormatted!J53</f>
+        <v>0</v>
+      </c>
+      <c r="J52" s="18" t="str">
+        <f>TransactionsFormatted!K53</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K52" s="18" t="str">
+        <f>TransactionsFormatted!L53</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="7" t="str">
+        <f>TransactionsFormatted!B54</f>
+        <v>KYG4645E1052</v>
+      </c>
+      <c r="B53" s="7" t="str">
+        <f>TransactionsFormatted!C54</f>
+        <v>HUADI INTERNATIONAL GROUP CO</v>
+      </c>
+      <c r="C53" s="10">
+        <f ca="1">TransactionsFormatted!D54</f>
+        <v>44510</v>
+      </c>
+      <c r="D53" s="10">
+        <f ca="1">TransactionsFormatted!E54</f>
+        <v>44510</v>
+      </c>
+      <c r="E53" s="11">
+        <f ca="1">TransactionsFormatted!F54</f>
+        <v>9</v>
+      </c>
+      <c r="F53" s="9">
+        <f ca="1">TransactionsFormatted!G54</f>
+        <v>231.66</v>
+      </c>
+      <c r="G53" s="9">
+        <f ca="1">TransactionsFormatted!H54</f>
+        <v>-1</v>
+      </c>
+      <c r="H53" s="9">
+        <f ca="1">TransactionsFormatted!I54</f>
+        <v>218.34</v>
+      </c>
+      <c r="I53" s="9">
+        <f>TransactionsFormatted!J54</f>
+        <v>0</v>
+      </c>
+      <c r="J53" s="18" t="str">
+        <f>TransactionsFormatted!K54</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K53" s="18" t="str">
+        <f>TransactionsFormatted!L54</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="7" t="str">
+        <f>TransactionsFormatted!B55</f>
+        <v>US45172K1025</v>
+      </c>
+      <c r="B54" s="7" t="str">
+        <f>TransactionsFormatted!C55</f>
+        <v>IKONICS CORP</v>
+      </c>
+      <c r="C54" s="10">
+        <f ca="1">TransactionsFormatted!D55</f>
+        <v>44403</v>
+      </c>
+      <c r="D54" s="10">
+        <f ca="1">TransactionsFormatted!E55</f>
+        <v>44404</v>
+      </c>
+      <c r="E54" s="11">
+        <f ca="1">TransactionsFormatted!F55</f>
+        <v>9</v>
+      </c>
+      <c r="F54" s="9">
+        <f ca="1">TransactionsFormatted!G55</f>
+        <v>200.79</v>
+      </c>
+      <c r="G54" s="9">
+        <f ca="1">TransactionsFormatted!H55</f>
+        <v>-1</v>
+      </c>
+      <c r="H54" s="9">
+        <f ca="1">TransactionsFormatted!I55</f>
+        <v>189.54</v>
+      </c>
+      <c r="I54" s="9">
+        <f>TransactionsFormatted!J55</f>
+        <v>0</v>
+      </c>
+      <c r="J54" s="18" t="str">
+        <f>TransactionsFormatted!K55</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K54" s="18" t="str">
+        <f>TransactionsFormatted!L55</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="7" t="str">
+        <f>TransactionsFormatted!B56</f>
+        <v>US46583P1021</v>
+      </c>
+      <c r="B55" s="7" t="str">
+        <f>TransactionsFormatted!C56</f>
+        <v>IVERIC BIO INC</v>
+      </c>
+      <c r="C55" s="10">
+        <f ca="1">TransactionsFormatted!D56</f>
+        <v>44484</v>
+      </c>
+      <c r="D55" s="10">
+        <f ca="1">TransactionsFormatted!E56</f>
+        <v>44484</v>
+      </c>
+      <c r="E55" s="11">
+        <f ca="1">TransactionsFormatted!F56</f>
+        <v>13</v>
+      </c>
+      <c r="F55" s="9">
+        <f ca="1">TransactionsFormatted!G56</f>
+        <v>225.55</v>
+      </c>
+      <c r="G55" s="9">
+        <f ca="1">TransactionsFormatted!H56</f>
+        <v>-1</v>
+      </c>
+      <c r="H55" s="9">
+        <f ca="1">TransactionsFormatted!I56</f>
+        <v>221.05</v>
+      </c>
+      <c r="I55" s="9">
+        <f>TransactionsFormatted!J56</f>
+        <v>0</v>
+      </c>
+      <c r="J55" s="18" t="str">
+        <f>TransactionsFormatted!K56</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K55" s="18" t="str">
+        <f>TransactionsFormatted!L56</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="7" t="str">
+        <f>TransactionsFormatted!B57</f>
+        <v>CA53680Q2071</v>
+      </c>
+      <c r="B56" s="7" t="str">
+        <f>TransactionsFormatted!C57</f>
+        <v>LITHIUM AMERICAS CORP</v>
+      </c>
+      <c r="C56" s="10">
+        <f ca="1">TransactionsFormatted!D57</f>
+        <v>44494</v>
+      </c>
+      <c r="D56" s="10">
+        <f ca="1">TransactionsFormatted!E57</f>
+        <v>44496</v>
+      </c>
+      <c r="E56" s="11">
+        <f ca="1">TransactionsFormatted!F57</f>
+        <v>5</v>
+      </c>
+      <c r="F56" s="9">
+        <f ca="1">TransactionsFormatted!G57</f>
+        <v>128.43</v>
+      </c>
+      <c r="G56" s="9">
+        <f ca="1">TransactionsFormatted!H57</f>
+        <v>-1</v>
+      </c>
+      <c r="H56" s="9">
+        <f ca="1">TransactionsFormatted!I57</f>
+        <v>140.15</v>
+      </c>
+      <c r="I56" s="9">
+        <f>TransactionsFormatted!J57</f>
+        <v>0</v>
+      </c>
+      <c r="J56" s="18" t="str">
+        <f>TransactionsFormatted!K57</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K56" s="18" t="str">
+        <f>TransactionsFormatted!L57</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="7" t="str">
+        <f>TransactionsFormatted!B58</f>
+        <v>CA53680Q2071</v>
+      </c>
+      <c r="B57" s="7" t="str">
+        <f>TransactionsFormatted!C58</f>
+        <v>LITHIUM AMERICAS CORP</v>
+      </c>
+      <c r="C57" s="10">
+        <f ca="1">TransactionsFormatted!D58</f>
+        <v>44494</v>
+      </c>
+      <c r="D57" s="10">
+        <f ca="1">TransactionsFormatted!E58</f>
+        <v>44510</v>
+      </c>
+      <c r="E57" s="11">
+        <f ca="1">TransactionsFormatted!F58</f>
+        <v>4</v>
+      </c>
+      <c r="F57" s="9">
+        <f ca="1">TransactionsFormatted!G58</f>
+        <v>102.74</v>
+      </c>
+      <c r="G57" s="9">
+        <f ca="1">TransactionsFormatted!H58</f>
+        <v>-1</v>
+      </c>
+      <c r="H57" s="9">
+        <f ca="1">TransactionsFormatted!I58</f>
+        <v>130.56</v>
+      </c>
+      <c r="I57" s="9">
+        <f>TransactionsFormatted!J58</f>
+        <v>0</v>
+      </c>
+      <c r="J57" s="18" t="str">
+        <f>TransactionsFormatted!K58</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K57" s="18" t="str">
+        <f>TransactionsFormatted!L58</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="7" t="str">
+        <f>TransactionsFormatted!B59</f>
+        <v>CA53680Q2071</v>
+      </c>
+      <c r="B58" s="7" t="str">
+        <f>TransactionsFormatted!C59</f>
+        <v>LITHIUM AMERICAS CORP</v>
+      </c>
+      <c r="C58" s="10">
+        <f ca="1">TransactionsFormatted!D59</f>
+        <v>44518</v>
+      </c>
+      <c r="D58" s="10">
+        <f ca="1">TransactionsFormatted!E59</f>
+        <v>44518</v>
+      </c>
+      <c r="E58" s="11">
+        <f ca="1">TransactionsFormatted!F59</f>
+        <v>10</v>
+      </c>
+      <c r="F58" s="9">
+        <f ca="1">TransactionsFormatted!G59</f>
+        <v>345.8</v>
+      </c>
+      <c r="G58" s="9">
+        <f ca="1">TransactionsFormatted!H59</f>
+        <v>-1</v>
+      </c>
+      <c r="H58" s="9">
+        <f ca="1">TransactionsFormatted!I59</f>
+        <v>333.75</v>
+      </c>
+      <c r="I58" s="9">
+        <f>TransactionsFormatted!J59</f>
+        <v>0</v>
+      </c>
+      <c r="J58" s="18" t="str">
+        <f>TransactionsFormatted!K59</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K58" s="18" t="str">
+        <f>TransactionsFormatted!L59</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="7" t="str">
+        <f>TransactionsFormatted!B60</f>
+        <v>US5494981039</v>
+      </c>
+      <c r="B59" s="7" t="str">
+        <f>TransactionsFormatted!C60</f>
+        <v>LUCID GROUP INC</v>
+      </c>
+      <c r="C59" s="10">
+        <f ca="1">TransactionsFormatted!D60</f>
+        <v>44529</v>
+      </c>
+      <c r="D59" s="10">
+        <f ca="1">TransactionsFormatted!E60</f>
+        <v>44529</v>
+      </c>
+      <c r="E59" s="11">
+        <f ca="1">TransactionsFormatted!F60</f>
+        <v>5</v>
+      </c>
+      <c r="F59" s="9">
+        <f ca="1">TransactionsFormatted!G60</f>
+        <v>263.89999999999998</v>
+      </c>
+      <c r="G59" s="9">
+        <f ca="1">TransactionsFormatted!H60</f>
+        <v>-1</v>
+      </c>
+      <c r="H59" s="9">
+        <f ca="1">TransactionsFormatted!I60</f>
+        <v>259.95</v>
+      </c>
+      <c r="I59" s="9">
+        <f>TransactionsFormatted!J60</f>
+        <v>0</v>
+      </c>
+      <c r="J59" s="18" t="str">
+        <f>TransactionsFormatted!K60</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K59" s="18" t="str">
+        <f>TransactionsFormatted!L60</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="7" t="str">
+        <f>TransactionsFormatted!B61</f>
+        <v>US5494981039</v>
+      </c>
+      <c r="B60" s="7" t="str">
+        <f>TransactionsFormatted!C61</f>
+        <v>LUCID GROUP INC</v>
+      </c>
+      <c r="C60" s="10">
+        <f ca="1">TransactionsFormatted!D61</f>
+        <v>44530</v>
+      </c>
+      <c r="D60" s="10">
+        <f ca="1">TransactionsFormatted!E61</f>
+        <v>44530</v>
+      </c>
+      <c r="E60" s="11">
+        <f ca="1">TransactionsFormatted!F61</f>
+        <v>4</v>
+      </c>
+      <c r="F60" s="9">
+        <f ca="1">TransactionsFormatted!G61</f>
+        <v>221.88</v>
+      </c>
+      <c r="G60" s="9">
+        <f ca="1">TransactionsFormatted!H61</f>
+        <v>-1</v>
+      </c>
+      <c r="H60" s="9">
+        <f ca="1">TransactionsFormatted!I61</f>
+        <v>217.28</v>
+      </c>
+      <c r="I60" s="9">
+        <f>TransactionsFormatted!J61</f>
+        <v>0</v>
+      </c>
+      <c r="J60" s="18" t="str">
+        <f>TransactionsFormatted!K61</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K60" s="18" t="str">
+        <f>TransactionsFormatted!L61</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="7" t="str">
+        <f>TransactionsFormatted!B62</f>
+        <v>US5494981039</v>
+      </c>
+      <c r="B61" s="7" t="str">
+        <f>TransactionsFormatted!C62</f>
+        <v>LUCID GROUP INC</v>
+      </c>
+      <c r="C61" s="10">
+        <f ca="1">TransactionsFormatted!D62</f>
+        <v>44530</v>
+      </c>
+      <c r="D61" s="10">
+        <f ca="1">TransactionsFormatted!E62</f>
+        <v>44530</v>
+      </c>
+      <c r="E61" s="11">
+        <f ca="1">TransactionsFormatted!F62</f>
+        <v>4</v>
+      </c>
+      <c r="F61" s="9">
+        <f ca="1">TransactionsFormatted!G62</f>
+        <v>222.04</v>
+      </c>
+      <c r="G61" s="9">
+        <f ca="1">TransactionsFormatted!H62</f>
+        <v>-1</v>
+      </c>
+      <c r="H61" s="9">
+        <f ca="1">TransactionsFormatted!I62</f>
+        <v>216.22</v>
+      </c>
+      <c r="I61" s="9">
+        <f>TransactionsFormatted!J62</f>
+        <v>0</v>
+      </c>
+      <c r="J61" s="18" t="str">
+        <f>TransactionsFormatted!K62</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K61" s="18" t="str">
+        <f>TransactionsFormatted!L62</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="7" t="str">
+        <f>TransactionsFormatted!B63</f>
+        <v>US54738L1098</v>
+      </c>
+      <c r="B62" s="7" t="str">
+        <f>TransactionsFormatted!C63</f>
+        <v>LOVESAC CO/THE</v>
+      </c>
+      <c r="C62" s="10">
+        <f ca="1">TransactionsFormatted!D63</f>
+        <v>44355</v>
+      </c>
+      <c r="D62" s="10">
+        <f ca="1">TransactionsFormatted!E63</f>
+        <v>44355</v>
+      </c>
+      <c r="E62" s="11">
+        <f ca="1">TransactionsFormatted!F63</f>
+        <v>2</v>
+      </c>
+      <c r="F62" s="9">
+        <f ca="1">TransactionsFormatted!G63</f>
+        <v>173.6</v>
+      </c>
+      <c r="G62" s="9">
+        <f ca="1">TransactionsFormatted!H63</f>
+        <v>-1</v>
+      </c>
+      <c r="H62" s="9">
+        <f ca="1">TransactionsFormatted!I63</f>
+        <v>169.62</v>
+      </c>
+      <c r="I62" s="9">
+        <f>TransactionsFormatted!J63</f>
+        <v>0</v>
+      </c>
+      <c r="J62" s="18" t="str">
+        <f>TransactionsFormatted!K63</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K62" s="18" t="str">
+        <f>TransactionsFormatted!L63</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="7" t="str">
+        <f>TransactionsFormatted!B64</f>
+        <v>US5657881067</v>
+      </c>
+      <c r="B63" s="7" t="str">
+        <f>TransactionsFormatted!C64</f>
+        <v>MARATHON DIGITAL HOLDINGS IN</v>
+      </c>
+      <c r="C63" s="10">
+        <f ca="1">TransactionsFormatted!D64</f>
+        <v>44501</v>
+      </c>
+      <c r="D63" s="10">
+        <f ca="1">TransactionsFormatted!E64</f>
+        <v>44503</v>
+      </c>
+      <c r="E63" s="11">
+        <f ca="1">TransactionsFormatted!F64</f>
+        <v>2</v>
+      </c>
+      <c r="F63" s="9">
+        <f ca="1">TransactionsFormatted!G64</f>
+        <v>105.62</v>
+      </c>
+      <c r="G63" s="9">
+        <f ca="1">TransactionsFormatted!H64</f>
+        <v>-1</v>
+      </c>
+      <c r="H63" s="9">
+        <f ca="1">TransactionsFormatted!I64</f>
+        <v>119.24</v>
+      </c>
+      <c r="I63" s="9">
+        <f>TransactionsFormatted!J64</f>
+        <v>0</v>
+      </c>
+      <c r="J63" s="18" t="str">
+        <f>TransactionsFormatted!K64</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K63" s="18" t="str">
+        <f>TransactionsFormatted!L64</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="7" t="str">
+        <f>TransactionsFormatted!B65</f>
+        <v>US5657881067</v>
+      </c>
+      <c r="B64" s="7" t="str">
+        <f>TransactionsFormatted!C65</f>
+        <v>MARATHON DIGITAL HOLDINGS IN</v>
+      </c>
+      <c r="C64" s="10">
+        <f ca="1">TransactionsFormatted!D65</f>
+        <v>44501</v>
+      </c>
+      <c r="D64" s="10">
+        <f ca="1">TransactionsFormatted!E65</f>
+        <v>44509</v>
+      </c>
+      <c r="E64" s="11">
+        <f ca="1">TransactionsFormatted!F65</f>
+        <v>2</v>
+      </c>
+      <c r="F64" s="9">
+        <f ca="1">TransactionsFormatted!G65</f>
+        <v>105.62</v>
+      </c>
+      <c r="G64" s="9">
+        <f ca="1">TransactionsFormatted!H65</f>
+        <v>-1</v>
+      </c>
+      <c r="H64" s="9">
+        <f ca="1">TransactionsFormatted!I65</f>
+        <v>159.36000000000001</v>
+      </c>
+      <c r="I64" s="9">
+        <f>TransactionsFormatted!J65</f>
+        <v>0</v>
+      </c>
+      <c r="J64" s="18" t="str">
+        <f>TransactionsFormatted!K65</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K64" s="18" t="str">
+        <f>TransactionsFormatted!L65</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="7" t="str">
+        <f>TransactionsFormatted!B66</f>
+        <v>US5764852050</v>
+      </c>
+      <c r="B65" s="7" t="str">
+        <f>TransactionsFormatted!C66</f>
+        <v>MATADOR RESOURCES CO</v>
+      </c>
+      <c r="C65" s="10">
+        <f ca="1">TransactionsFormatted!D66</f>
+        <v>44508</v>
+      </c>
+      <c r="D65" s="10">
+        <f ca="1">TransactionsFormatted!E66</f>
+        <v>44509</v>
+      </c>
+      <c r="E65" s="11">
+        <f ca="1">TransactionsFormatted!F66</f>
+        <v>5</v>
+      </c>
+      <c r="F65" s="9">
+        <f ca="1">TransactionsFormatted!G66</f>
+        <v>225.65</v>
+      </c>
+      <c r="G65" s="9">
+        <f ca="1">TransactionsFormatted!H66</f>
+        <v>-1</v>
+      </c>
+      <c r="H65" s="9">
+        <f ca="1">TransactionsFormatted!I66</f>
+        <v>221.35</v>
+      </c>
+      <c r="I65" s="9">
+        <f>TransactionsFormatted!J66</f>
+        <v>0</v>
+      </c>
+      <c r="J65" s="18" t="str">
+        <f>TransactionsFormatted!K66</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K65" s="18" t="str">
+        <f>TransactionsFormatted!L66</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" s="7" t="str">
+        <f>TransactionsFormatted!B67</f>
+        <v>US5770961002</v>
+      </c>
+      <c r="B66" s="7" t="str">
+        <f>TransactionsFormatted!C67</f>
+        <v>MATTERPORT INC</v>
+      </c>
+      <c r="C66" s="10">
+        <f ca="1">TransactionsFormatted!D67</f>
+        <v>44490</v>
+      </c>
+      <c r="D66" s="10">
+        <f ca="1">TransactionsFormatted!E67</f>
+        <v>44491</v>
+      </c>
+      <c r="E66" s="11">
+        <f ca="1">TransactionsFormatted!F67</f>
+        <v>12</v>
+      </c>
+      <c r="F66" s="9">
+        <f ca="1">TransactionsFormatted!G67</f>
+        <v>234.58</v>
+      </c>
+      <c r="G66" s="9">
+        <f ca="1">TransactionsFormatted!H67</f>
+        <v>-1</v>
+      </c>
+      <c r="H66" s="9">
+        <f ca="1">TransactionsFormatted!I67</f>
+        <v>229.82</v>
+      </c>
+      <c r="I66" s="9">
+        <f>TransactionsFormatted!J67</f>
+        <v>0</v>
+      </c>
+      <c r="J66" s="18" t="str">
+        <f>TransactionsFormatted!K67</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K66" s="18" t="str">
+        <f>TransactionsFormatted!L67</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" s="7" t="str">
+        <f>TransactionsFormatted!B68</f>
+        <v>US62914V1061</v>
+      </c>
+      <c r="B67" s="7" t="str">
+        <f>TransactionsFormatted!C68</f>
+        <v>NIO INC - ADR</v>
+      </c>
+      <c r="C67" s="10">
+        <f ca="1">TransactionsFormatted!D68</f>
+        <v>44426</v>
+      </c>
+      <c r="D67" s="10">
+        <f ca="1">TransactionsFormatted!E68</f>
+        <v>44427</v>
+      </c>
+      <c r="E67" s="11">
+        <f ca="1">TransactionsFormatted!F68</f>
+        <v>6</v>
+      </c>
+      <c r="F67" s="9">
+        <f ca="1">TransactionsFormatted!G68</f>
+        <v>232.67</v>
+      </c>
+      <c r="G67" s="9">
+        <f ca="1">TransactionsFormatted!H68</f>
+        <v>-1</v>
+      </c>
+      <c r="H67" s="9">
+        <f ca="1">TransactionsFormatted!I68</f>
+        <v>225.18</v>
+      </c>
+      <c r="I67" s="9">
+        <f>TransactionsFormatted!J68</f>
+        <v>0</v>
+      </c>
+      <c r="J67" s="18" t="str">
+        <f>TransactionsFormatted!K68</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K67" s="18" t="str">
+        <f>TransactionsFormatted!L68</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" s="7" t="str">
+        <f>TransactionsFormatted!B69</f>
+        <v>US68559A1097</v>
+      </c>
+      <c r="B68" s="7" t="str">
+        <f>TransactionsFormatted!C69</f>
+        <v>ORBITAL ENERGY GROUP INC</v>
+      </c>
+      <c r="C68" s="10">
+        <f ca="1">TransactionsFormatted!D69</f>
+        <v>44356</v>
+      </c>
+      <c r="D68" s="10">
+        <f ca="1">TransactionsFormatted!E69</f>
+        <v>44356</v>
+      </c>
+      <c r="E68" s="11">
+        <f ca="1">TransactionsFormatted!F69</f>
+        <v>43</v>
+      </c>
+      <c r="F68" s="9">
+        <f ca="1">TransactionsFormatted!G69</f>
+        <v>251.38</v>
+      </c>
+      <c r="G68" s="9">
+        <f ca="1">TransactionsFormatted!H69</f>
+        <v>-1.01</v>
+      </c>
+      <c r="H68" s="9">
+        <f ca="1">TransactionsFormatted!I69</f>
+        <v>236.5</v>
+      </c>
+      <c r="I68" s="9">
+        <f>TransactionsFormatted!J69</f>
+        <v>0</v>
+      </c>
+      <c r="J68" s="18" t="str">
+        <f>TransactionsFormatted!K69</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K68" s="18" t="str">
+        <f>TransactionsFormatted!L69</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" s="7" t="str">
+        <f>TransactionsFormatted!B70</f>
+        <v>IL0010958192</v>
+      </c>
+      <c r="B69" s="7" t="str">
+        <f>TransactionsFormatted!C70</f>
+        <v>PERION NETWORK LTD</v>
+      </c>
+      <c r="C69" s="10">
+        <f ca="1">TransactionsFormatted!D70</f>
+        <v>44509</v>
+      </c>
+      <c r="D69" s="10">
+        <f ca="1">TransactionsFormatted!E70</f>
+        <v>44509</v>
+      </c>
+      <c r="E69" s="11">
+        <f ca="1">TransactionsFormatted!F70</f>
+        <v>8</v>
+      </c>
+      <c r="F69" s="9">
+        <f ca="1">TransactionsFormatted!G70</f>
+        <v>238.56</v>
+      </c>
+      <c r="G69" s="9">
+        <f ca="1">TransactionsFormatted!H70</f>
+        <v>-1</v>
+      </c>
+      <c r="H69" s="9">
+        <f ca="1">TransactionsFormatted!I70</f>
+        <v>236.56</v>
+      </c>
+      <c r="I69" s="9">
+        <f>TransactionsFormatted!J70</f>
+        <v>0</v>
+      </c>
+      <c r="J69" s="18" t="str">
+        <f>TransactionsFormatted!K70</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K69" s="18" t="str">
+        <f>TransactionsFormatted!L70</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" s="7" t="str">
+        <f>TransactionsFormatted!B71</f>
+        <v>IL0010958192</v>
+      </c>
+      <c r="B70" s="7" t="str">
+        <f>TransactionsFormatted!C71</f>
+        <v>PERION NETWORK LTD</v>
+      </c>
+      <c r="C70" s="10">
+        <f ca="1">TransactionsFormatted!D71</f>
+        <v>44515</v>
+      </c>
+      <c r="D70" s="10">
+        <f ca="1">TransactionsFormatted!E71</f>
+        <v>44515</v>
+      </c>
+      <c r="E70" s="11">
+        <f ca="1">TransactionsFormatted!F71</f>
+        <v>8</v>
+      </c>
+      <c r="F70" s="9">
+        <f ca="1">TransactionsFormatted!G71</f>
+        <v>249.04</v>
+      </c>
+      <c r="G70" s="9">
+        <f ca="1">TransactionsFormatted!H71</f>
+        <v>-1</v>
+      </c>
+      <c r="H70" s="9">
+        <f ca="1">TransactionsFormatted!I71</f>
+        <v>245.36</v>
+      </c>
+      <c r="I70" s="9">
+        <f>TransactionsFormatted!J71</f>
+        <v>0</v>
+      </c>
+      <c r="J70" s="18" t="str">
+        <f>TransactionsFormatted!K71</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K70" s="18" t="str">
+        <f>TransactionsFormatted!L71</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" s="7" t="str">
+        <f>TransactionsFormatted!B72</f>
+        <v>US72919P2020</v>
+      </c>
+      <c r="B71" s="7" t="str">
+        <f>TransactionsFormatted!C72</f>
+        <v>PLUG POWER INC</v>
+      </c>
+      <c r="C71" s="10">
+        <f ca="1">TransactionsFormatted!D72</f>
+        <v>44519</v>
+      </c>
+      <c r="D71" s="10">
+        <f ca="1">TransactionsFormatted!E72</f>
+        <v>44519</v>
+      </c>
+      <c r="E71" s="11">
+        <f ca="1">TransactionsFormatted!F72</f>
+        <v>4</v>
+      </c>
+      <c r="F71" s="9">
+        <f ca="1">TransactionsFormatted!G72</f>
+        <v>168.08</v>
+      </c>
+      <c r="G71" s="9">
+        <f ca="1">TransactionsFormatted!H72</f>
+        <v>-1</v>
+      </c>
+      <c r="H71" s="9">
+        <f ca="1">TransactionsFormatted!I72</f>
+        <v>166.6</v>
+      </c>
+      <c r="I71" s="9">
+        <f>TransactionsFormatted!J72</f>
+        <v>0</v>
+      </c>
+      <c r="J71" s="18" t="str">
+        <f>TransactionsFormatted!K72</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K71" s="18" t="str">
+        <f>TransactionsFormatted!L72</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72" s="7" t="str">
+        <f>TransactionsFormatted!B73</f>
+        <v>US72919P2020</v>
+      </c>
+      <c r="B72" s="7" t="str">
+        <f>TransactionsFormatted!C73</f>
+        <v>PLUG POWER INC</v>
+      </c>
+      <c r="C72" s="10">
+        <f ca="1">TransactionsFormatted!D73</f>
+        <v>44519</v>
+      </c>
+      <c r="D72" s="10">
+        <f ca="1">TransactionsFormatted!E73</f>
+        <v>44523</v>
+      </c>
+      <c r="E72" s="11">
+        <f ca="1">TransactionsFormatted!F73</f>
+        <v>4</v>
+      </c>
+      <c r="F72" s="9">
+        <f ca="1">TransactionsFormatted!G73</f>
+        <v>169.39</v>
+      </c>
+      <c r="G72" s="9">
+        <f ca="1">TransactionsFormatted!H73</f>
+        <v>-1</v>
+      </c>
+      <c r="H72" s="9">
+        <f ca="1">TransactionsFormatted!I73</f>
+        <v>169.42</v>
+      </c>
+      <c r="I72" s="9">
+        <f>TransactionsFormatted!J73</f>
+        <v>0</v>
+      </c>
+      <c r="J72" s="18" t="str">
+        <f>TransactionsFormatted!K73</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K72" s="18" t="str">
+        <f>TransactionsFormatted!L73</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" s="7" t="str">
+        <f>TransactionsFormatted!B74</f>
+        <v>IE00B91XRN20</v>
+      </c>
+      <c r="B73" s="7" t="str">
+        <f>TransactionsFormatted!C74</f>
+        <v>PROTHENA CORP PLC</v>
+      </c>
+      <c r="C73" s="10">
+        <f ca="1">TransactionsFormatted!D74</f>
+        <v>44403</v>
+      </c>
+      <c r="D73" s="10">
+        <f ca="1">TransactionsFormatted!E74</f>
+        <v>44403</v>
+      </c>
+      <c r="E73" s="11">
+        <f ca="1">TransactionsFormatted!F74</f>
+        <v>4</v>
+      </c>
+      <c r="F73" s="9">
+        <f ca="1">TransactionsFormatted!G74</f>
+        <v>215.92</v>
+      </c>
+      <c r="G73" s="9">
+        <f ca="1">TransactionsFormatted!H74</f>
+        <v>-1</v>
+      </c>
+      <c r="H73" s="9">
+        <f ca="1">TransactionsFormatted!I74</f>
+        <v>204.72</v>
+      </c>
+      <c r="I73" s="9">
+        <f>TransactionsFormatted!J74</f>
+        <v>0</v>
+      </c>
+      <c r="J73" s="18" t="str">
+        <f>TransactionsFormatted!K74</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K73" s="18" t="str">
+        <f>TransactionsFormatted!L74</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" s="7" t="str">
+        <f>TransactionsFormatted!B75</f>
+        <v>US74276R1023</v>
+      </c>
+      <c r="B74" s="7" t="str">
+        <f>TransactionsFormatted!C75</f>
+        <v>PRIVIA HEALTH GROUP INC</v>
+      </c>
+      <c r="C74" s="10">
+        <f ca="1">TransactionsFormatted!D75</f>
+        <v>44508</v>
+      </c>
+      <c r="D74" s="10">
+        <f ca="1">TransactionsFormatted!E75</f>
+        <v>44515</v>
+      </c>
+      <c r="E74" s="11">
+        <f ca="1">TransactionsFormatted!F75</f>
+        <v>8</v>
+      </c>
+      <c r="F74" s="9">
+        <f ca="1">TransactionsFormatted!G75</f>
+        <v>249.68</v>
+      </c>
+      <c r="G74" s="9">
+        <f ca="1">TransactionsFormatted!H75</f>
+        <v>-1</v>
+      </c>
+      <c r="H74" s="9">
+        <f ca="1">TransactionsFormatted!I75</f>
+        <v>249.9</v>
+      </c>
+      <c r="I74" s="9">
+        <f>TransactionsFormatted!J75</f>
+        <v>0</v>
+      </c>
+      <c r="J74" s="18" t="str">
+        <f>TransactionsFormatted!K75</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K74" s="18" t="str">
+        <f>TransactionsFormatted!L75</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="7" t="str">
+        <f>TransactionsFormatted!B76</f>
+        <v>US74347M1080</v>
+      </c>
+      <c r="B75" s="7" t="str">
+        <f>TransactionsFormatted!C76</f>
+        <v>PROPETRO HOLDING CORP</v>
+      </c>
+      <c r="C75" s="10">
+        <f ca="1">TransactionsFormatted!D76</f>
+        <v>44494</v>
+      </c>
+      <c r="D75" s="10">
+        <f ca="1">TransactionsFormatted!E76</f>
+        <v>44494</v>
+      </c>
+      <c r="E75" s="11">
+        <f ca="1">TransactionsFormatted!F76</f>
+        <v>20</v>
+      </c>
+      <c r="F75" s="9">
+        <f ca="1">TransactionsFormatted!G76</f>
+        <v>208.2</v>
+      </c>
+      <c r="G75" s="9">
+        <f ca="1">TransactionsFormatted!H76</f>
+        <v>-1</v>
+      </c>
+      <c r="H75" s="9">
+        <f ca="1">TransactionsFormatted!I76</f>
+        <v>205.8</v>
+      </c>
+      <c r="I75" s="9">
+        <f>TransactionsFormatted!J76</f>
+        <v>0</v>
+      </c>
+      <c r="J75" s="18" t="str">
+        <f>TransactionsFormatted!K76</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K75" s="18" t="str">
+        <f>TransactionsFormatted!L76</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="7" t="str">
+        <f>TransactionsFormatted!B77</f>
+        <v>US54405Q1004</v>
+      </c>
+      <c r="B76" s="7" t="str">
+        <f>TransactionsFormatted!C77</f>
+        <v>LORDSTOWN MOTORS CORP-CL A</v>
+      </c>
+      <c r="C76" s="10">
+        <f ca="1">TransactionsFormatted!D77</f>
+        <v>44349</v>
+      </c>
+      <c r="D76" s="10">
+        <f ca="1">TransactionsFormatted!E77</f>
+        <v>44349</v>
+      </c>
+      <c r="E76" s="11">
+        <f ca="1">TransactionsFormatted!F77</f>
+        <v>23</v>
+      </c>
+      <c r="F76" s="9">
+        <f ca="1">TransactionsFormatted!G77</f>
+        <v>244.9</v>
+      </c>
+      <c r="G76" s="9">
+        <f ca="1">TransactionsFormatted!H77</f>
+        <v>-1</v>
+      </c>
+      <c r="H76" s="9">
+        <f ca="1">TransactionsFormatted!I77</f>
+        <v>279.68</v>
+      </c>
+      <c r="I76" s="9">
+        <f>TransactionsFormatted!J77</f>
+        <v>0</v>
+      </c>
+      <c r="J76" s="18" t="str">
+        <f>TransactionsFormatted!K77</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K76" s="18" t="str">
+        <f>TransactionsFormatted!L77</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="7" t="str">
+        <f>TransactionsFormatted!B78</f>
+        <v>US7672921050</v>
+      </c>
+      <c r="B77" s="7" t="str">
+        <f>TransactionsFormatted!C78</f>
+        <v>RIOT BLOCKCHAIN INC</v>
+      </c>
+      <c r="C77" s="10">
+        <f ca="1">TransactionsFormatted!D78</f>
+        <v>44312</v>
+      </c>
+      <c r="D77" s="10">
+        <f ca="1">TransactionsFormatted!E78</f>
+        <v>44312</v>
+      </c>
+      <c r="E77" s="11">
+        <f ca="1">TransactionsFormatted!F78</f>
+        <v>6</v>
+      </c>
+      <c r="F77" s="9">
+        <f ca="1">TransactionsFormatted!G78</f>
+        <v>249.12</v>
+      </c>
+      <c r="G77" s="9">
+        <f ca="1">TransactionsFormatted!H78</f>
+        <v>-1</v>
+      </c>
+      <c r="H77" s="9">
+        <f ca="1">TransactionsFormatted!I78</f>
+        <v>243.6</v>
+      </c>
+      <c r="I77" s="9">
+        <f>TransactionsFormatted!J78</f>
+        <v>0</v>
+      </c>
+      <c r="J77" s="18" t="str">
+        <f>TransactionsFormatted!K78</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K77" s="18" t="str">
+        <f>TransactionsFormatted!L78</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="7" t="str">
+        <f>TransactionsFormatted!B79</f>
+        <v>US7672921050</v>
+      </c>
+      <c r="B78" s="7" t="str">
+        <f>TransactionsFormatted!C79</f>
+        <v>RIOT BLOCKCHAIN INC</v>
+      </c>
+      <c r="C78" s="10">
+        <f ca="1">TransactionsFormatted!D79</f>
+        <v>44530</v>
+      </c>
+      <c r="D78" s="10">
+        <f ca="1">TransactionsFormatted!E79</f>
+        <v>44530</v>
+      </c>
+      <c r="E78" s="11">
+        <f ca="1">TransactionsFormatted!F79</f>
+        <v>6</v>
+      </c>
+      <c r="F78" s="9">
+        <f ca="1">TransactionsFormatted!G79</f>
+        <v>230.76</v>
+      </c>
+      <c r="G78" s="9">
+        <f ca="1">TransactionsFormatted!H79</f>
+        <v>-1</v>
+      </c>
+      <c r="H78" s="9">
+        <f ca="1">TransactionsFormatted!I79</f>
+        <v>226.86</v>
+      </c>
+      <c r="I78" s="9">
+        <f>TransactionsFormatted!J79</f>
+        <v>0</v>
+      </c>
+      <c r="J78" s="18" t="str">
+        <f>TransactionsFormatted!K79</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K78" s="18" t="str">
+        <f>TransactionsFormatted!L79</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="7" t="str">
+        <f>TransactionsFormatted!B80</f>
+        <v>US7837541041</v>
+      </c>
+      <c r="B79" s="7" t="str">
+        <f>TransactionsFormatted!C80</f>
+        <v>RYERSON HOLDING CORP</v>
+      </c>
+      <c r="C79" s="10">
+        <f ca="1">TransactionsFormatted!D80</f>
+        <v>44438</v>
+      </c>
+      <c r="D79" s="10">
+        <f ca="1">TransactionsFormatted!E80</f>
+        <v>44438</v>
+      </c>
+      <c r="E79" s="11">
+        <f ca="1">TransactionsFormatted!F80</f>
+        <v>10</v>
+      </c>
+      <c r="F79" s="9">
+        <f ca="1">TransactionsFormatted!G80</f>
+        <v>242.9</v>
+      </c>
+      <c r="G79" s="9">
+        <f ca="1">TransactionsFormatted!H80</f>
+        <v>-1</v>
+      </c>
+      <c r="H79" s="9">
+        <f ca="1">TransactionsFormatted!I80</f>
+        <v>235.8</v>
+      </c>
+      <c r="I79" s="9">
+        <f>TransactionsFormatted!J80</f>
+        <v>0</v>
+      </c>
+      <c r="J79" s="18" t="str">
+        <f>TransactionsFormatted!K80</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K79" s="18" t="str">
+        <f>TransactionsFormatted!L80</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="7" t="str">
+        <f>TransactionsFormatted!B81</f>
+        <v>US79546E1047</v>
+      </c>
+      <c r="B80" s="7" t="str">
+        <f>TransactionsFormatted!C81</f>
+        <v>SALLY BEAUTY HOLDINGS INC</v>
+      </c>
+      <c r="C80" s="10">
+        <f ca="1">TransactionsFormatted!D81</f>
+        <v>44298</v>
+      </c>
+      <c r="D80" s="10">
+        <f ca="1">TransactionsFormatted!E81</f>
+        <v>44298</v>
+      </c>
+      <c r="E80" s="11">
+        <f ca="1">TransactionsFormatted!F81</f>
+        <v>12</v>
+      </c>
+      <c r="F80" s="9">
+        <f ca="1">TransactionsFormatted!G81</f>
+        <v>246.24</v>
+      </c>
+      <c r="G80" s="9">
+        <f ca="1">TransactionsFormatted!H81</f>
+        <v>-1</v>
+      </c>
+      <c r="H80" s="9">
+        <f ca="1">TransactionsFormatted!I81</f>
+        <v>244.68</v>
+      </c>
+      <c r="I80" s="9">
+        <f>TransactionsFormatted!J81</f>
+        <v>0</v>
+      </c>
+      <c r="J80" s="18" t="str">
+        <f>TransactionsFormatted!K81</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K80" s="18" t="str">
+        <f>TransactionsFormatted!L81</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="7" t="str">
+        <f>TransactionsFormatted!B82</f>
+        <v>US81282V1008</v>
+      </c>
+      <c r="B81" s="7" t="str">
+        <f>TransactionsFormatted!C82</f>
+        <v>SEAWORLD ENTERTAINMENT INC</v>
+      </c>
+      <c r="C81" s="10">
+        <f ca="1">TransactionsFormatted!D82</f>
+        <v>44291</v>
+      </c>
+      <c r="D81" s="10">
+        <f ca="1">TransactionsFormatted!E82</f>
+        <v>44291</v>
+      </c>
+      <c r="E81" s="11">
+        <f ca="1">TransactionsFormatted!F82</f>
+        <v>4</v>
+      </c>
+      <c r="F81" s="9">
+        <f ca="1">TransactionsFormatted!G82</f>
+        <v>213.92</v>
+      </c>
+      <c r="G81" s="9">
+        <f ca="1">TransactionsFormatted!H82</f>
+        <v>-1</v>
+      </c>
+      <c r="H81" s="9">
+        <f ca="1">TransactionsFormatted!I82</f>
+        <v>207.26</v>
+      </c>
+      <c r="I81" s="9">
+        <f>TransactionsFormatted!J82</f>
+        <v>0</v>
+      </c>
+      <c r="J81" s="18" t="str">
+        <f>TransactionsFormatted!K82</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K81" s="18" t="str">
+        <f>TransactionsFormatted!L82</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="7" t="str">
+        <f>TransactionsFormatted!B83</f>
+        <v>US8608971078</v>
+      </c>
+      <c r="B82" s="7" t="str">
+        <f>TransactionsFormatted!C83</f>
+        <v>STITCH FIX INC-CLASS A</v>
+      </c>
+      <c r="C82" s="10">
+        <f ca="1">TransactionsFormatted!D83</f>
+        <v>44383</v>
+      </c>
+      <c r="D82" s="10">
+        <f ca="1">TransactionsFormatted!E83</f>
+        <v>44383</v>
+      </c>
+      <c r="E82" s="11">
+        <f ca="1">TransactionsFormatted!F83</f>
+        <v>4</v>
+      </c>
+      <c r="F82" s="9">
+        <f ca="1">TransactionsFormatted!G83</f>
+        <v>251.24</v>
+      </c>
+      <c r="G82" s="9">
+        <f ca="1">TransactionsFormatted!H83</f>
+        <v>-1</v>
+      </c>
+      <c r="H82" s="9">
+        <f ca="1">TransactionsFormatted!I83</f>
+        <v>250.04</v>
+      </c>
+      <c r="I82" s="9">
+        <f>TransactionsFormatted!J83</f>
+        <v>0</v>
+      </c>
+      <c r="J82" s="18" t="str">
+        <f>TransactionsFormatted!K83</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K82" s="18" t="str">
+        <f>TransactionsFormatted!L83</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="7" t="str">
+        <f>TransactionsFormatted!B84</f>
+        <v>US8190471016</v>
+      </c>
+      <c r="B83" s="7" t="str">
+        <f>TransactionsFormatted!C84</f>
+        <v>SHAKE SHACK INC - CLASS A</v>
+      </c>
+      <c r="C83" s="10">
+        <f ca="1">TransactionsFormatted!D84</f>
+        <v>44522</v>
+      </c>
+      <c r="D83" s="10">
+        <f ca="1">TransactionsFormatted!E84</f>
+        <v>44522</v>
+      </c>
+      <c r="E83" s="11">
+        <f ca="1">TransactionsFormatted!F84</f>
+        <v>3</v>
+      </c>
+      <c r="F83" s="9">
+        <f ca="1">TransactionsFormatted!G84</f>
+        <v>238.41</v>
+      </c>
+      <c r="G83" s="9">
+        <f ca="1">TransactionsFormatted!H84</f>
+        <v>-1</v>
+      </c>
+      <c r="H83" s="9">
+        <f ca="1">TransactionsFormatted!I84</f>
+        <v>236.7</v>
+      </c>
+      <c r="I83" s="9">
+        <f>TransactionsFormatted!J84</f>
+        <v>0</v>
+      </c>
+      <c r="J83" s="18" t="str">
+        <f>TransactionsFormatted!K84</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K83" s="18" t="str">
+        <f>TransactionsFormatted!L84</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" s="7" t="str">
+        <f>TransactionsFormatted!B85</f>
+        <v>US82837P4081</v>
+      </c>
+      <c r="B84" s="7" t="str">
+        <f>TransactionsFormatted!C85</f>
+        <v>SILVERGATE CAPITAL CORP-CL A</v>
+      </c>
+      <c r="C84" s="10">
+        <f ca="1">TransactionsFormatted!D85</f>
+        <v>44354</v>
+      </c>
+      <c r="D84" s="10">
+        <f ca="1">TransactionsFormatted!E85</f>
+        <v>44354</v>
+      </c>
+      <c r="E84" s="11">
+        <f ca="1">TransactionsFormatted!F85</f>
+        <v>2</v>
+      </c>
+      <c r="F84" s="9">
+        <f ca="1">TransactionsFormatted!G85</f>
+        <v>229.2</v>
+      </c>
+      <c r="G84" s="9">
+        <f ca="1">TransactionsFormatted!H85</f>
+        <v>-1</v>
+      </c>
+      <c r="H84" s="9">
+        <f ca="1">TransactionsFormatted!I85</f>
+        <v>225.14</v>
+      </c>
+      <c r="I84" s="9">
+        <f>TransactionsFormatted!J85</f>
+        <v>0</v>
+      </c>
+      <c r="J84" s="18" t="str">
+        <f>TransactionsFormatted!K85</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K84" s="18" t="str">
+        <f>TransactionsFormatted!L85</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" s="7" t="str">
+        <f>TransactionsFormatted!B86</f>
+        <v>US88331L1089</v>
+      </c>
+      <c r="B85" s="7" t="str">
+        <f>TransactionsFormatted!C86</f>
+        <v>BEAUTY HEALTH CO/THE</v>
+      </c>
+      <c r="C85" s="10">
+        <f ca="1">TransactionsFormatted!D86</f>
+        <v>44522</v>
+      </c>
+      <c r="D85" s="10">
+        <f ca="1">TransactionsFormatted!E86</f>
+        <v>44522</v>
+      </c>
+      <c r="E85" s="11">
+        <f ca="1">TransactionsFormatted!F86</f>
+        <v>8</v>
+      </c>
+      <c r="F85" s="9">
+        <f ca="1">TransactionsFormatted!G86</f>
+        <v>233.48</v>
+      </c>
+      <c r="G85" s="9">
+        <f ca="1">TransactionsFormatted!H86</f>
+        <v>-1</v>
+      </c>
+      <c r="H85" s="9">
+        <f ca="1">TransactionsFormatted!I86</f>
+        <v>229.04</v>
+      </c>
+      <c r="I85" s="9">
+        <f>TransactionsFormatted!J86</f>
+        <v>0</v>
+      </c>
+      <c r="J85" s="18" t="str">
+        <f>TransactionsFormatted!K86</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K85" s="18" t="str">
+        <f>TransactionsFormatted!L86</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" s="7" t="str">
+        <f>TransactionsFormatted!B87</f>
+        <v>CA8536061010</v>
+      </c>
+      <c r="B86" s="7" t="str">
+        <f>TransactionsFormatted!C87</f>
+        <v>STANDARD LITHIUM LTD</v>
+      </c>
+      <c r="C86" s="10">
+        <f ca="1">TransactionsFormatted!D87</f>
+        <v>44494</v>
+      </c>
+      <c r="D86" s="10">
+        <f ca="1">TransactionsFormatted!E87</f>
+        <v>44496</v>
+      </c>
+      <c r="E86" s="11">
+        <f ca="1">TransactionsFormatted!F87</f>
+        <v>13</v>
+      </c>
+      <c r="F86" s="9">
+        <f ca="1">TransactionsFormatted!G87</f>
+        <v>141.57</v>
+      </c>
+      <c r="G86" s="9">
+        <f ca="1">TransactionsFormatted!H87</f>
+        <v>-1</v>
+      </c>
+      <c r="H86" s="9">
+        <f ca="1">TransactionsFormatted!I87</f>
+        <v>160.81</v>
+      </c>
+      <c r="I86" s="9">
+        <f>TransactionsFormatted!J87</f>
+        <v>0</v>
+      </c>
+      <c r="J86" s="18" t="str">
+        <f>TransactionsFormatted!K87</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K86" s="18" t="str">
+        <f>TransactionsFormatted!L87</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" s="7" t="str">
+        <f>TransactionsFormatted!B88</f>
+        <v>CA8536061010</v>
+      </c>
+      <c r="B87" s="7" t="str">
+        <f>TransactionsFormatted!C88</f>
+        <v>STANDARD LITHIUM LTD</v>
+      </c>
+      <c r="C87" s="10">
+        <f ca="1">TransactionsFormatted!D88</f>
+        <v>44494</v>
+      </c>
+      <c r="D87" s="10">
+        <f ca="1">TransactionsFormatted!E88</f>
+        <v>44498</v>
+      </c>
+      <c r="E87" s="11">
+        <f ca="1">TransactionsFormatted!F88</f>
+        <v>10</v>
+      </c>
+      <c r="F87" s="9">
+        <f ca="1">TransactionsFormatted!G88</f>
+        <v>108.9</v>
+      </c>
+      <c r="G87" s="9">
+        <f ca="1">TransactionsFormatted!H88</f>
+        <v>-1</v>
+      </c>
+      <c r="H87" s="9">
+        <f ca="1">TransactionsFormatted!I88</f>
+        <v>112.82</v>
+      </c>
+      <c r="I87" s="9">
+        <f>TransactionsFormatted!J88</f>
+        <v>0</v>
+      </c>
+      <c r="J87" s="18" t="str">
+        <f>TransactionsFormatted!K88</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K87" s="18" t="str">
+        <f>TransactionsFormatted!L88</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" s="7" t="str">
+        <f>TransactionsFormatted!B89</f>
+        <v>US92766K1060</v>
+      </c>
+      <c r="B88" s="7" t="str">
+        <f>TransactionsFormatted!C89</f>
+        <v>VIRGIN GALACTIC HOLDINGS INC</v>
+      </c>
+      <c r="C88" s="10">
+        <f ca="1">TransactionsFormatted!D89</f>
+        <v>44424</v>
+      </c>
+      <c r="D88" s="10">
+        <f ca="1">TransactionsFormatted!E89</f>
+        <v>44425</v>
+      </c>
+      <c r="E88" s="11">
+        <f ca="1">TransactionsFormatted!F89</f>
+        <v>9</v>
+      </c>
+      <c r="F88" s="9">
+        <f ca="1">TransactionsFormatted!G89</f>
+        <v>233.89</v>
+      </c>
+      <c r="G88" s="9">
+        <f ca="1">TransactionsFormatted!H89</f>
+        <v>-1</v>
+      </c>
+      <c r="H88" s="9">
+        <f ca="1">TransactionsFormatted!I89</f>
+        <v>225</v>
+      </c>
+      <c r="I88" s="9">
+        <f>TransactionsFormatted!J89</f>
+        <v>0</v>
+      </c>
+      <c r="J88" s="18" t="str">
+        <f>TransactionsFormatted!K89</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K88" s="18" t="str">
+        <f>TransactionsFormatted!L89</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" s="7" t="str">
+        <f>TransactionsFormatted!B90</f>
+        <v>US92766K1060</v>
+      </c>
+      <c r="B89" s="7" t="str">
+        <f>TransactionsFormatted!C90</f>
+        <v>VIRGIN GALACTIC HOLDINGS INC</v>
+      </c>
+      <c r="C89" s="10">
+        <f ca="1">TransactionsFormatted!D90</f>
+        <v>44426</v>
+      </c>
+      <c r="D89" s="10">
+        <f ca="1">TransactionsFormatted!E90</f>
+        <v>44427</v>
+      </c>
+      <c r="E89" s="11">
+        <f ca="1">TransactionsFormatted!F90</f>
+        <v>6</v>
+      </c>
+      <c r="F89" s="9">
+        <f ca="1">TransactionsFormatted!G90</f>
+        <v>151.36000000000001</v>
+      </c>
+      <c r="G89" s="9">
+        <f ca="1">TransactionsFormatted!H90</f>
+        <v>-1</v>
+      </c>
+      <c r="H89" s="9">
+        <f ca="1">TransactionsFormatted!I90</f>
+        <v>147.25</v>
+      </c>
+      <c r="I89" s="9">
+        <f>TransactionsFormatted!J90</f>
+        <v>0</v>
+      </c>
+      <c r="J89" s="18" t="str">
+        <f>TransactionsFormatted!K90</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K89" s="18" t="str">
+        <f>TransactionsFormatted!L90</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" s="7" t="str">
+        <f>TransactionsFormatted!B91</f>
+        <v>US89374L1044</v>
+      </c>
+      <c r="B90" s="7" t="str">
+        <f>TransactionsFormatted!C91</f>
+        <v>TRANSLATE BIO INC</v>
+      </c>
+      <c r="C90" s="10">
+        <f ca="1">TransactionsFormatted!D91</f>
+        <v>44397</v>
+      </c>
+      <c r="D90" s="10">
+        <f ca="1">TransactionsFormatted!E91</f>
+        <v>44398</v>
+      </c>
+      <c r="E90" s="11">
+        <f ca="1">TransactionsFormatted!F91</f>
+        <v>8</v>
+      </c>
+      <c r="F90" s="9">
+        <f ca="1">TransactionsFormatted!G91</f>
+        <v>239.12</v>
+      </c>
+      <c r="G90" s="9">
+        <f ca="1">TransactionsFormatted!H91</f>
+        <v>-1</v>
+      </c>
+      <c r="H90" s="9">
+        <f ca="1">TransactionsFormatted!I91</f>
+        <v>234.03</v>
+      </c>
+      <c r="I90" s="9">
+        <f>TransactionsFormatted!J91</f>
+        <v>0</v>
+      </c>
+      <c r="J90" s="18" t="str">
+        <f>TransactionsFormatted!K91</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K90" s="18" t="str">
+        <f>TransactionsFormatted!L91</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" s="7" t="str">
+        <f>TransactionsFormatted!B92</f>
+        <v>US88688T1007</v>
+      </c>
+      <c r="B91" s="7" t="str">
+        <f>TransactionsFormatted!C92</f>
+        <v>TILRAY INC-CLASS 2 COMMON</v>
+      </c>
+      <c r="C91" s="10">
+        <f ca="1">TransactionsFormatted!D92</f>
+        <v>44312</v>
+      </c>
+      <c r="D91" s="10">
+        <f ca="1">TransactionsFormatted!E92</f>
+        <v>44312</v>
+      </c>
+      <c r="E91" s="11">
+        <f ca="1">TransactionsFormatted!F92</f>
+        <v>14</v>
+      </c>
+      <c r="F91" s="9">
+        <f ca="1">TransactionsFormatted!G92</f>
+        <v>241.64</v>
+      </c>
+      <c r="G91" s="9">
+        <f ca="1">TransactionsFormatted!H92</f>
+        <v>-1</v>
+      </c>
+      <c r="H91" s="9">
+        <f ca="1">TransactionsFormatted!I92</f>
+        <v>238.84</v>
+      </c>
+      <c r="I91" s="9">
+        <f>TransactionsFormatted!J92</f>
+        <v>0</v>
+      </c>
+      <c r="J91" s="18" t="str">
+        <f>TransactionsFormatted!K92</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K91" s="18" t="str">
+        <f>TransactionsFormatted!L92</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92" s="7" t="str">
+        <f>TransactionsFormatted!B93</f>
+        <v>US88688T1007</v>
+      </c>
+      <c r="B92" s="7" t="str">
+        <f>TransactionsFormatted!C93</f>
+        <v>TILRAY INC-CLASS 2 COMMON</v>
+      </c>
+      <c r="C92" s="10">
+        <f ca="1">TransactionsFormatted!D93</f>
+        <v>44312</v>
+      </c>
+      <c r="D92" s="10">
+        <f ca="1">TransactionsFormatted!E93</f>
+        <v>44312</v>
+      </c>
+      <c r="E92" s="11">
+        <f ca="1">TransactionsFormatted!F93</f>
+        <v>14</v>
+      </c>
+      <c r="F92" s="9">
+        <f ca="1">TransactionsFormatted!G93</f>
+        <v>242.06</v>
+      </c>
+      <c r="G92" s="9">
+        <f ca="1">TransactionsFormatted!H93</f>
+        <v>-1</v>
+      </c>
+      <c r="H92" s="9">
+        <f ca="1">TransactionsFormatted!I93</f>
+        <v>238.56</v>
+      </c>
+      <c r="I92" s="9">
+        <f>TransactionsFormatted!J93</f>
+        <v>0</v>
+      </c>
+      <c r="J92" s="18" t="str">
+        <f>TransactionsFormatted!K93</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K92" s="18" t="str">
+        <f>TransactionsFormatted!L93</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93" s="7" t="str">
+        <f>TransactionsFormatted!B94</f>
+        <v>US87978U1088</v>
+      </c>
+      <c r="B93" s="7" t="str">
+        <f>TransactionsFormatted!C94</f>
+        <v>TEMPEST THERAPEUTICS INC</v>
+      </c>
+      <c r="C93" s="10">
+        <f ca="1">TransactionsFormatted!D94</f>
+        <v>44397</v>
+      </c>
+      <c r="D93" s="10">
+        <f ca="1">TransactionsFormatted!E94</f>
+        <v>44397</v>
+      </c>
+      <c r="E93" s="11">
+        <f ca="1">TransactionsFormatted!F94</f>
+        <v>12</v>
+      </c>
+      <c r="F93" s="9">
+        <f ca="1">TransactionsFormatted!G94</f>
+        <v>243.24</v>
+      </c>
+      <c r="G93" s="9">
+        <f ca="1">TransactionsFormatted!H94</f>
+        <v>-1</v>
+      </c>
+      <c r="H93" s="9">
+        <f ca="1">TransactionsFormatted!I94</f>
+        <v>237.72</v>
+      </c>
+      <c r="I93" s="9">
+        <f>TransactionsFormatted!J94</f>
+        <v>0</v>
+      </c>
+      <c r="J93" s="18" t="str">
+        <f>TransactionsFormatted!K94</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K93" s="18" t="str">
+        <f>TransactionsFormatted!L94</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" s="7" t="str">
+        <f>TransactionsFormatted!B95</f>
+        <v>US88339J1051</v>
+      </c>
+      <c r="B94" s="7" t="str">
+        <f>TransactionsFormatted!C95</f>
+        <v>TRADE DESK INC/THE -CLASS A</v>
+      </c>
+      <c r="C94" s="10">
+        <f ca="1">TransactionsFormatted!D95</f>
+        <v>44530</v>
+      </c>
+      <c r="D94" s="10">
+        <f ca="1">TransactionsFormatted!E95</f>
+        <v>44530</v>
+      </c>
+      <c r="E94" s="11">
+        <f ca="1">TransactionsFormatted!F95</f>
+        <v>2</v>
+      </c>
+      <c r="F94" s="9">
+        <f ca="1">TransactionsFormatted!G95</f>
+        <v>220.46</v>
+      </c>
+      <c r="G94" s="9">
+        <f ca="1">TransactionsFormatted!H95</f>
+        <v>-1</v>
+      </c>
+      <c r="H94" s="9">
+        <f ca="1">TransactionsFormatted!I95</f>
+        <v>216.07</v>
+      </c>
+      <c r="I94" s="9">
+        <f>TransactionsFormatted!J95</f>
+        <v>0</v>
+      </c>
+      <c r="J94" s="18" t="str">
+        <f>TransactionsFormatted!K95</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K94" s="18" t="str">
+        <f>TransactionsFormatted!L95</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" s="7" t="str">
+        <f>TransactionsFormatted!B96</f>
+        <v>US9043111072</v>
+      </c>
+      <c r="B95" s="7" t="str">
+        <f>TransactionsFormatted!C96</f>
+        <v>UNDER ARMOUR INC-CLASS A</v>
+      </c>
+      <c r="C95" s="10">
+        <f ca="1">TransactionsFormatted!D96</f>
+        <v>44502</v>
+      </c>
+      <c r="D95" s="10">
+        <f ca="1">TransactionsFormatted!E96</f>
+        <v>44505</v>
+      </c>
+      <c r="E95" s="11">
+        <f ca="1">TransactionsFormatted!F96</f>
+        <v>7</v>
+      </c>
+      <c r="F95" s="9">
+        <f ca="1">TransactionsFormatted!G96</f>
+        <v>178.5</v>
+      </c>
+      <c r="G95" s="9">
+        <f ca="1">TransactionsFormatted!H96</f>
+        <v>-1</v>
+      </c>
+      <c r="H95" s="9">
+        <f ca="1">TransactionsFormatted!I96</f>
+        <v>174.45</v>
+      </c>
+      <c r="I95" s="9">
+        <f>TransactionsFormatted!J96</f>
+        <v>0</v>
+      </c>
+      <c r="J95" s="18" t="str">
+        <f>TransactionsFormatted!K96</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K95" s="18" t="str">
+        <f>TransactionsFormatted!L96</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" s="7" t="str">
+        <f>TransactionsFormatted!B97</f>
+        <v>US9111631035</v>
+      </c>
+      <c r="B96" s="7" t="str">
+        <f>TransactionsFormatted!C97</f>
+        <v>UNITED NATURAL FOODS INC</v>
+      </c>
+      <c r="C96" s="10">
+        <f ca="1">TransactionsFormatted!D97</f>
+        <v>44298</v>
+      </c>
+      <c r="D96" s="10">
+        <f ca="1">TransactionsFormatted!E97</f>
+        <v>44298</v>
+      </c>
+      <c r="E96" s="11">
+        <f ca="1">TransactionsFormatted!F97</f>
+        <v>6</v>
+      </c>
+      <c r="F96" s="9">
+        <f ca="1">TransactionsFormatted!G97</f>
+        <v>216.18</v>
+      </c>
+      <c r="G96" s="9">
+        <f ca="1">TransactionsFormatted!H97</f>
+        <v>-1</v>
+      </c>
+      <c r="H96" s="9">
+        <f ca="1">TransactionsFormatted!I97</f>
+        <v>211.2</v>
+      </c>
+      <c r="I96" s="9">
+        <f>TransactionsFormatted!J97</f>
+        <v>0</v>
+      </c>
+      <c r="J96" s="18" t="str">
+        <f>TransactionsFormatted!K97</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K96" s="18" t="str">
+        <f>TransactionsFormatted!L97</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" s="7" t="str">
+        <f>TransactionsFormatted!B98</f>
+        <v>US91680M1071</v>
+      </c>
+      <c r="B97" s="7" t="str">
+        <f>TransactionsFormatted!C98</f>
+        <v>UPSTART HOLDINGS INC</v>
+      </c>
+      <c r="C97" s="10">
+        <f ca="1">TransactionsFormatted!D98</f>
+        <v>44482</v>
+      </c>
+      <c r="D97" s="10">
+        <f ca="1">TransactionsFormatted!E98</f>
+        <v>44482</v>
+      </c>
+      <c r="E97" s="11">
+        <f ca="1">TransactionsFormatted!F98</f>
+        <v>1</v>
+      </c>
+      <c r="F97" s="9">
+        <f ca="1">TransactionsFormatted!G98</f>
+        <v>339.17</v>
+      </c>
+      <c r="G97" s="9">
+        <f ca="1">TransactionsFormatted!H98</f>
+        <v>-1</v>
+      </c>
+      <c r="H97" s="9">
+        <f ca="1">TransactionsFormatted!I98</f>
+        <v>332.08</v>
+      </c>
+      <c r="I97" s="9">
+        <f>TransactionsFormatted!J98</f>
+        <v>0</v>
+      </c>
+      <c r="J97" s="18" t="str">
+        <f>TransactionsFormatted!K98</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K97" s="18" t="str">
+        <f>TransactionsFormatted!L98</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" s="7" t="str">
+        <f>TransactionsFormatted!B99</f>
+        <v>US91688F1049</v>
+      </c>
+      <c r="B98" s="7" t="str">
+        <f>TransactionsFormatted!C99</f>
+        <v>UPWORK INC</v>
+      </c>
+      <c r="C98" s="10">
+        <f ca="1">TransactionsFormatted!D99</f>
+        <v>44383</v>
+      </c>
+      <c r="D98" s="10">
+        <f ca="1">TransactionsFormatted!E99</f>
+        <v>44383</v>
+      </c>
+      <c r="E98" s="11">
+        <f ca="1">TransactionsFormatted!F99</f>
+        <v>4</v>
+      </c>
+      <c r="F98" s="9">
+        <f ca="1">TransactionsFormatted!G99</f>
+        <v>239.8</v>
+      </c>
+      <c r="G98" s="9">
+        <f ca="1">TransactionsFormatted!H99</f>
+        <v>-1</v>
+      </c>
+      <c r="H98" s="9">
+        <f ca="1">TransactionsFormatted!I99</f>
+        <v>235.53</v>
+      </c>
+      <c r="I98" s="9">
+        <f>TransactionsFormatted!J99</f>
+        <v>0</v>
+      </c>
+      <c r="J98" s="18" t="str">
+        <f>TransactionsFormatted!K99</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K98" s="18" t="str">
+        <f>TransactionsFormatted!L99</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" s="7" t="str">
+        <f>TransactionsFormatted!B100</f>
+        <v>CA91702V1013</v>
+      </c>
+      <c r="B99" s="7" t="str">
+        <f>TransactionsFormatted!C100</f>
+        <v>URANIUM ROYALTY CORP</v>
+      </c>
+      <c r="C99" s="10">
+        <f ca="1">TransactionsFormatted!D100</f>
+        <v>44503</v>
+      </c>
+      <c r="D99" s="10">
+        <f ca="1">TransactionsFormatted!E100</f>
+        <v>44508</v>
+      </c>
+      <c r="E99" s="11">
+        <f ca="1">TransactionsFormatted!F100</f>
+        <v>22</v>
+      </c>
+      <c r="F99" s="9">
+        <f ca="1">TransactionsFormatted!G100</f>
+        <v>112.97</v>
+      </c>
+      <c r="G99" s="9">
+        <f ca="1">TransactionsFormatted!H100</f>
+        <v>-1</v>
+      </c>
+      <c r="H99" s="9">
+        <f ca="1">TransactionsFormatted!I100</f>
+        <v>119.24</v>
+      </c>
+      <c r="I99" s="9">
+        <f>TransactionsFormatted!J100</f>
+        <v>0</v>
+      </c>
+      <c r="J99" s="18" t="str">
+        <f>TransactionsFormatted!K100</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K99" s="18" t="str">
+        <f>TransactionsFormatted!L100</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" s="7" t="str">
+        <f>TransactionsFormatted!B101</f>
+        <v>CA91702V1013</v>
+      </c>
+      <c r="B100" s="7" t="str">
+        <f>TransactionsFormatted!C101</f>
+        <v>URANIUM ROYALTY CORP</v>
+      </c>
+      <c r="C100" s="10">
+        <f ca="1">TransactionsFormatted!D101</f>
+        <v>44503</v>
+      </c>
+      <c r="D100" s="10">
+        <f ca="1">TransactionsFormatted!E101</f>
+        <v>44515</v>
+      </c>
+      <c r="E100" s="11">
+        <f ca="1">TransactionsFormatted!F101</f>
+        <v>23</v>
+      </c>
+      <c r="F100" s="9">
+        <f ca="1">TransactionsFormatted!G101</f>
+        <v>118.11</v>
+      </c>
+      <c r="G100" s="9">
+        <f ca="1">TransactionsFormatted!H101</f>
+        <v>-1</v>
+      </c>
+      <c r="H100" s="9">
+        <f ca="1">TransactionsFormatted!I101</f>
+        <v>119.88</v>
+      </c>
+      <c r="I100" s="9">
+        <f>TransactionsFormatted!J101</f>
+        <v>0</v>
+      </c>
+      <c r="J100" s="18" t="str">
+        <f>TransactionsFormatted!K101</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K100" s="18" t="str">
+        <f>TransactionsFormatted!L101</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" s="7" t="str">
+        <f>TransactionsFormatted!B102</f>
+        <v>US92539P1012</v>
+      </c>
+      <c r="B101" s="7" t="str">
+        <f>TransactionsFormatted!C102</f>
+        <v>VERVE THERAPEUTICS INC</v>
+      </c>
+      <c r="C101" s="10">
+        <f ca="1">TransactionsFormatted!D102</f>
+        <v>44403</v>
+      </c>
+      <c r="D101" s="10">
+        <f ca="1">TransactionsFormatted!E102</f>
+        <v>44403</v>
+      </c>
+      <c r="E101" s="11">
+        <f ca="1">TransactionsFormatted!F102</f>
+        <v>4</v>
+      </c>
+      <c r="F101" s="9">
+        <f ca="1">TransactionsFormatted!G102</f>
+        <v>217.16</v>
+      </c>
+      <c r="G101" s="9">
+        <f ca="1">TransactionsFormatted!H102</f>
+        <v>-1</v>
+      </c>
+      <c r="H101" s="9">
+        <f ca="1">TransactionsFormatted!I102</f>
+        <v>212.24</v>
+      </c>
+      <c r="I101" s="9">
+        <f>TransactionsFormatted!J102</f>
+        <v>0</v>
+      </c>
+      <c r="J101" s="18" t="str">
+        <f>TransactionsFormatted!K102</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K101" s="18" t="str">
+        <f>TransactionsFormatted!L102</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" s="7" t="str">
+        <f>TransactionsFormatted!B103</f>
+        <v>CA9237251058</v>
+      </c>
+      <c r="B102" s="7" t="str">
+        <f>TransactionsFormatted!C103</f>
+        <v>VERMILION ENERGY INC</v>
+      </c>
+      <c r="C102" s="10">
+        <f ca="1">TransactionsFormatted!D103</f>
+        <v>44484</v>
+      </c>
+      <c r="D102" s="10">
+        <f ca="1">TransactionsFormatted!E103</f>
+        <v>44484</v>
+      </c>
+      <c r="E102" s="11">
+        <f ca="1">TransactionsFormatted!F103</f>
+        <v>19</v>
+      </c>
+      <c r="F102" s="9">
+        <f ca="1">TransactionsFormatted!G103</f>
+        <v>212.42</v>
+      </c>
+      <c r="G102" s="9">
+        <f ca="1">TransactionsFormatted!H103</f>
+        <v>-1</v>
+      </c>
+      <c r="H102" s="9">
+        <f ca="1">TransactionsFormatted!I103</f>
+        <v>209.95</v>
+      </c>
+      <c r="I102" s="9">
+        <f>TransactionsFormatted!J103</f>
+        <v>0</v>
+      </c>
+      <c r="J102" s="18" t="str">
+        <f>TransactionsFormatted!K103</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K102" s="18" t="str">
+        <f>TransactionsFormatted!L103</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103" s="7" t="str">
+        <f>TransactionsFormatted!B104</f>
+        <v>CA9237251058</v>
+      </c>
+      <c r="B103" s="7" t="str">
+        <f>TransactionsFormatted!C104</f>
+        <v>VERMILION ENERGY INC</v>
+      </c>
+      <c r="C103" s="10">
+        <f ca="1">TransactionsFormatted!D104</f>
+        <v>44494</v>
+      </c>
+      <c r="D103" s="10">
+        <f ca="1">TransactionsFormatted!E104</f>
+        <v>44496</v>
+      </c>
+      <c r="E103" s="11">
+        <f ca="1">TransactionsFormatted!F104</f>
+        <v>18</v>
+      </c>
+      <c r="F103" s="9">
+        <f ca="1">TransactionsFormatted!G104</f>
+        <v>204.84</v>
+      </c>
+      <c r="G103" s="9">
+        <f ca="1">TransactionsFormatted!H104</f>
+        <v>-1</v>
+      </c>
+      <c r="H103" s="9">
+        <f ca="1">TransactionsFormatted!I104</f>
+        <v>197.64</v>
+      </c>
+      <c r="I103" s="9">
+        <f>TransactionsFormatted!J104</f>
+        <v>0</v>
+      </c>
+      <c r="J103" s="18" t="str">
+        <f>TransactionsFormatted!K104</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K103" s="18" t="str">
+        <f>TransactionsFormatted!L104</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104" s="7" t="str">
+        <f>TransactionsFormatted!B105</f>
+        <v>CA9237251058</v>
+      </c>
+      <c r="B104" s="7" t="str">
+        <f>TransactionsFormatted!C105</f>
+        <v>VERMILION ENERGY INC</v>
+      </c>
+      <c r="C104" s="10">
+        <f ca="1">TransactionsFormatted!D105</f>
+        <v>44501</v>
+      </c>
+      <c r="D104" s="10">
+        <f ca="1">TransactionsFormatted!E105</f>
+        <v>44501</v>
+      </c>
+      <c r="E104" s="11">
+        <f ca="1">TransactionsFormatted!F105</f>
+        <v>22</v>
+      </c>
+      <c r="F104" s="9">
+        <f ca="1">TransactionsFormatted!G105</f>
+        <v>243.93</v>
+      </c>
+      <c r="G104" s="9">
+        <f ca="1">TransactionsFormatted!H105</f>
+        <v>-1</v>
+      </c>
+      <c r="H104" s="9">
+        <f ca="1">TransactionsFormatted!I105</f>
+        <v>242.08</v>
+      </c>
+      <c r="I104" s="9">
+        <f>TransactionsFormatted!J105</f>
+        <v>0</v>
+      </c>
+      <c r="J104" s="18" t="str">
+        <f>TransactionsFormatted!K105</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K104" s="18" t="str">
+        <f>TransactionsFormatted!L105</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A105" s="7" t="str">
+        <f>TransactionsFormatted!B106</f>
+        <v>US92337C1045</v>
+      </c>
+      <c r="B105" s="7" t="str">
+        <f>TransactionsFormatted!C106</f>
+        <v>VERASTEM INC</v>
+      </c>
+      <c r="C105" s="10">
+        <f ca="1">TransactionsFormatted!D106</f>
+        <v>44351</v>
+      </c>
+      <c r="D105" s="10">
+        <f ca="1">TransactionsFormatted!E106</f>
+        <v>44356</v>
+      </c>
+      <c r="E105" s="11">
+        <f ca="1">TransactionsFormatted!F106</f>
+        <v>31</v>
+      </c>
+      <c r="F105" s="9">
+        <f ca="1">TransactionsFormatted!G106</f>
+        <v>124</v>
+      </c>
+      <c r="G105" s="9">
+        <f ca="1">TransactionsFormatted!H106</f>
+        <v>-1</v>
+      </c>
+      <c r="H105" s="9">
+        <f ca="1">TransactionsFormatted!I106</f>
+        <v>133.66999999999999</v>
+      </c>
+      <c r="I105" s="9">
+        <f>TransactionsFormatted!J106</f>
+        <v>0</v>
+      </c>
+      <c r="J105" s="18" t="str">
+        <f>TransactionsFormatted!K106</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K105" s="18" t="str">
+        <f>TransactionsFormatted!L106</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106" s="7" t="str">
+        <f>TransactionsFormatted!B107</f>
+        <v>US92337C1045</v>
+      </c>
+      <c r="B106" s="7" t="str">
+        <f>TransactionsFormatted!C107</f>
+        <v>VERASTEM INC</v>
+      </c>
+      <c r="C106" s="10">
+        <f ca="1">TransactionsFormatted!D107</f>
+        <v>44351</v>
+      </c>
+      <c r="D106" s="10">
+        <f ca="1">TransactionsFormatted!E107</f>
+        <v>44369</v>
+      </c>
+      <c r="E106" s="11">
+        <f ca="1">TransactionsFormatted!F107</f>
+        <v>31</v>
+      </c>
+      <c r="F106" s="9">
+        <f ca="1">TransactionsFormatted!G107</f>
+        <v>124</v>
+      </c>
+      <c r="G106" s="9">
+        <f ca="1">TransactionsFormatted!H107</f>
+        <v>-1</v>
+      </c>
+      <c r="H106" s="9">
+        <f ca="1">TransactionsFormatted!I107</f>
+        <v>132.22</v>
+      </c>
+      <c r="I106" s="9">
+        <f>TransactionsFormatted!J107</f>
+        <v>0</v>
+      </c>
+      <c r="J106" s="18" t="str">
+        <f>TransactionsFormatted!K107</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K106" s="18" t="str">
+        <f>TransactionsFormatted!L107</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A107" s="7" t="str">
+        <f>TransactionsFormatted!B108</f>
+        <v>US98980F1049</v>
+      </c>
+      <c r="B107" s="7" t="str">
+        <f>TransactionsFormatted!C108</f>
+        <v>ZOOMINFO TECHNOLOGIES INC-A</v>
+      </c>
+      <c r="C107" s="10">
+        <f ca="1">TransactionsFormatted!D108</f>
+        <v>44438</v>
+      </c>
+      <c r="D107" s="10">
+        <f ca="1">TransactionsFormatted!E108</f>
+        <v>44438</v>
+      </c>
+      <c r="E107" s="11">
+        <f ca="1">TransactionsFormatted!F108</f>
+        <v>4</v>
+      </c>
+      <c r="F107" s="9">
+        <f ca="1">TransactionsFormatted!G108</f>
+        <v>263.68</v>
+      </c>
+      <c r="G107" s="9">
+        <f ca="1">TransactionsFormatted!H108</f>
+        <v>-1</v>
+      </c>
+      <c r="H107" s="9">
+        <f ca="1">TransactionsFormatted!I108</f>
+        <v>258.8</v>
+      </c>
+      <c r="I107" s="9">
+        <f>TransactionsFormatted!J108</f>
+        <v>0</v>
+      </c>
+      <c r="J107" s="18" t="str">
+        <f>TransactionsFormatted!K108</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K107" s="18" t="str">
+        <f>TransactionsFormatted!L108</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A108" s="7" t="str">
+        <f>TransactionsFormatted!B109</f>
+        <v>IL0065100930</v>
+      </c>
+      <c r="B108" s="7" t="str">
+        <f>TransactionsFormatted!C109</f>
+        <v>ZIM INTEGRATED SHIPPING SERV</v>
+      </c>
+      <c r="C108" s="10">
+        <f ca="1">TransactionsFormatted!D109</f>
+        <v>44421</v>
+      </c>
+      <c r="D108" s="10">
+        <f ca="1">TransactionsFormatted!E109</f>
+        <v>44426</v>
+      </c>
+      <c r="E108" s="11">
+        <f ca="1">TransactionsFormatted!F109</f>
+        <v>3</v>
+      </c>
+      <c r="F108" s="9">
+        <f ca="1">TransactionsFormatted!G109</f>
+        <v>131.27000000000001</v>
+      </c>
+      <c r="G108" s="9">
+        <f ca="1">TransactionsFormatted!H109</f>
+        <v>-1</v>
+      </c>
+      <c r="H108" s="9">
+        <f ca="1">TransactionsFormatted!I109</f>
+        <v>144.9</v>
+      </c>
+      <c r="I108" s="9">
+        <f>TransactionsFormatted!J109</f>
+        <v>0</v>
+      </c>
+      <c r="J108" s="18" t="str">
+        <f>TransactionsFormatted!K109</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K108" s="18" t="str">
+        <f>TransactionsFormatted!L109</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A109" s="7" t="str">
+        <f>TransactionsFormatted!B110</f>
+        <v>IL0065100930</v>
+      </c>
+      <c r="B109" s="7" t="str">
+        <f>TransactionsFormatted!C110</f>
+        <v>ZIM INTEGRATED SHIPPING SERV</v>
+      </c>
+      <c r="C109" s="10">
+        <f ca="1">TransactionsFormatted!D110</f>
+        <v>44421</v>
+      </c>
+      <c r="D109" s="10">
+        <f ca="1">TransactionsFormatted!E110</f>
+        <v>44427</v>
+      </c>
+      <c r="E109" s="11">
+        <f ca="1">TransactionsFormatted!F110</f>
+        <v>2</v>
+      </c>
+      <c r="F109" s="9">
+        <f ca="1">TransactionsFormatted!G110</f>
+        <v>87.51</v>
+      </c>
+      <c r="G109" s="9">
+        <f ca="1">TransactionsFormatted!H110</f>
+        <v>-0.91</v>
+      </c>
+      <c r="H109" s="9">
+        <f ca="1">TransactionsFormatted!I110</f>
+        <v>90.53</v>
+      </c>
+      <c r="I109" s="9">
+        <f>TransactionsFormatted!J110</f>
+        <v>0</v>
+      </c>
+      <c r="J109" s="18" t="str">
+        <f>TransactionsFormatted!K110</f>
+        <v>Ameerika</v>
+      </c>
+      <c r="K109" s="18" t="str">
+        <f>TransactionsFormatted!L110</f>
+        <v>USD</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/resources/U5646616_2021_2021.xlsx
+++ b/src/main/resources/U5646616_2021_2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\indre\IdeaProjects\taxFormFiller\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B01C986-F623-43AC-9950-AAD0F3B6204C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21596826-945A-4AC6-8872-9DD82181B707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26464,7 +26464,7 @@
   <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:L1048576"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -26565,8 +26565,8 @@
         <v>241.08</v>
       </c>
       <c r="H2" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P2*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P2*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I2" s="9">
         <f ca="1">ROUND(F2*OFFSET(Transactions!$E$3,P2*2,0),2)</f>
@@ -26623,8 +26623,8 @@
         <v>215.88</v>
       </c>
       <c r="H3" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P3*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P3*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I3" s="9">
         <f ca="1">ROUND(F3*OFFSET(Transactions!$E$3,P3*2,0),2)</f>
@@ -26681,8 +26681,8 @@
         <v>230.88</v>
       </c>
       <c r="H4" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P4*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P4*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">ROUND(F4*OFFSET(Transactions!$E$3,P4*2,0),2)</f>
@@ -26739,8 +26739,8 @@
         <v>236.88</v>
       </c>
       <c r="H5" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P5*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P5*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I5" s="9">
         <f ca="1">ROUND(F5*OFFSET(Transactions!$E$3,P5*2,0),2)</f>
@@ -26797,8 +26797,8 @@
         <v>252.24</v>
       </c>
       <c r="H6" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P6*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P6*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I6" s="9">
         <f ca="1">ROUND(F6*OFFSET(Transactions!$E$3,P6*2,0),2)</f>
@@ -26855,8 +26855,8 @@
         <v>249.08</v>
       </c>
       <c r="H7" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P7*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P7*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I7" s="9">
         <f ca="1">ROUND(F7*OFFSET(Transactions!$E$3,P7*2,0),2)</f>
@@ -26913,8 +26913,8 @@
         <v>193.38</v>
       </c>
       <c r="H8" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P8*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P8*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I8" s="9">
         <f ca="1">ROUND(F8*OFFSET(Transactions!$E$3,P8*2,0),2)</f>
@@ -26971,8 +26971,8 @@
         <v>244.72</v>
       </c>
       <c r="H9" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P9*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P9*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I9" s="9">
         <f ca="1">ROUND(F9*OFFSET(Transactions!$E$3,P9*2,0),2)</f>
@@ -27029,8 +27029,8 @@
         <v>243.95</v>
       </c>
       <c r="H10" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P10*2,0),2)</f>
-        <v>-1.01</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P10*2,0),2)</f>
+        <v>1.01</v>
       </c>
       <c r="I10" s="9">
         <f ca="1">ROUND(F10*OFFSET(Transactions!$E$3,P10*2,0),2)</f>
@@ -27087,8 +27087,8 @@
         <v>237.9</v>
       </c>
       <c r="H11" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P11*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P11*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I11" s="9">
         <f ca="1">ROUND(F11*OFFSET(Transactions!$E$3,P11*2,0),2)</f>
@@ -27145,8 +27145,8 @@
         <v>244.46</v>
       </c>
       <c r="H12" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P12*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P12*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I12" s="9">
         <f ca="1">ROUND(F12*OFFSET(Transactions!$E$3,P12*2,0),2)</f>
@@ -27203,8 +27203,8 @@
         <v>275.67</v>
       </c>
       <c r="H13" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P13*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P13*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I13" s="9">
         <f ca="1">ROUND(F13*OFFSET(Transactions!$E$3,P13*2,0),2)</f>
@@ -27261,8 +27261,8 @@
         <v>240.12</v>
       </c>
       <c r="H14" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P14*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P14*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I14" s="9">
         <f ca="1">ROUND(F14*OFFSET(Transactions!$E$3,P14*2,0),2)</f>
@@ -27319,8 +27319,8 @@
         <v>239.67</v>
       </c>
       <c r="H15" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P15*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P15*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I15" s="9">
         <f ca="1">ROUND(F15*OFFSET(Transactions!$E$3,P15*2,0),2)</f>
@@ -27377,8 +27377,8 @@
         <v>233.09</v>
       </c>
       <c r="H16" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P16*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P16*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I16" s="9">
         <f ca="1">ROUND(F16*OFFSET(Transactions!$E$3,P16*2,0),2)</f>
@@ -27435,8 +27435,8 @@
         <v>234.03</v>
       </c>
       <c r="H17" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P17*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P17*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I17" s="9">
         <f ca="1">ROUND(F17*OFFSET(Transactions!$E$3,P17*2,0),2)</f>
@@ -27493,8 +27493,8 @@
         <v>217.08</v>
       </c>
       <c r="H18" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P18*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P18*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I18" s="9">
         <f ca="1">ROUND(F18*OFFSET(Transactions!$E$3,P18*2,0),2)</f>
@@ -27551,8 +27551,8 @@
         <v>125.84</v>
       </c>
       <c r="H19" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P19*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P19*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I19" s="9">
         <f ca="1">ROUND(F19*OFFSET(Transactions!$E$3,P19*2,0),2)</f>
@@ -27609,8 +27609,8 @@
         <v>125.84</v>
       </c>
       <c r="H20" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P20*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P20*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I20" s="9">
         <f ca="1">ROUND(F20*OFFSET(Transactions!$E$3,P20*2,0),2)</f>
@@ -27667,8 +27667,8 @@
         <v>279.77999999999997</v>
       </c>
       <c r="H21" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P21*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P21*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I21" s="9">
         <f ca="1">ROUND(F21*OFFSET(Transactions!$E$3,P21*2,0),2)</f>
@@ -27725,8 +27725,8 @@
         <v>139.33000000000001</v>
       </c>
       <c r="H22" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P22*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P22*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I22" s="9">
         <f ca="1">ROUND(F22*OFFSET(Transactions!$E$3,P22*2,0),2)</f>
@@ -27783,8 +27783,8 @@
         <v>136.93</v>
       </c>
       <c r="H23" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P23*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P23*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I23" s="9">
         <f ca="1">ROUND(F23*OFFSET(Transactions!$E$3,P23*2,0),2)</f>
@@ -27841,8 +27841,8 @@
         <v>179.89</v>
       </c>
       <c r="H24" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P24*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P24*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I24" s="9">
         <f ca="1">ROUND(F24*OFFSET(Transactions!$E$3,P24*2,0),2)</f>
@@ -27899,8 +27899,8 @@
         <v>236.47</v>
       </c>
       <c r="H25" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P25*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P25*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I25" s="9">
         <f ca="1">ROUND(F25*OFFSET(Transactions!$E$3,P25*2,0),2)</f>
@@ -27957,8 +27957,8 @@
         <v>230.56</v>
       </c>
       <c r="H26" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P26*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P26*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I26" s="9">
         <f ca="1">ROUND(F26*OFFSET(Transactions!$E$3,P26*2,0),2)</f>
@@ -28015,8 +28015,8 @@
         <v>209.22</v>
       </c>
       <c r="H27" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P27*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P27*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I27" s="9">
         <f ca="1">ROUND(F27*OFFSET(Transactions!$E$3,P27*2,0),2)</f>
@@ -28073,8 +28073,8 @@
         <v>251.72</v>
       </c>
       <c r="H28" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P28*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P28*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I28" s="9">
         <f ca="1">ROUND(F28*OFFSET(Transactions!$E$3,P28*2,0),2)</f>
@@ -28131,8 +28131,8 @@
         <v>259.60000000000002</v>
       </c>
       <c r="H29" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P29*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P29*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I29" s="9">
         <f ca="1">ROUND(F29*OFFSET(Transactions!$E$3,P29*2,0),2)</f>
@@ -28189,8 +28189,8 @@
         <v>210.17</v>
       </c>
       <c r="H30" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P30*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P30*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I30" s="9">
         <f ca="1">ROUND(F30*OFFSET(Transactions!$E$3,P30*2,0),2)</f>
@@ -28247,8 +28247,8 @@
         <v>255.68</v>
       </c>
       <c r="H31" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P31*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P31*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I31" s="9">
         <f ca="1">ROUND(F31*OFFSET(Transactions!$E$3,P31*2,0),2)</f>
@@ -28305,8 +28305,8 @@
         <v>253.76</v>
       </c>
       <c r="H32" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P32*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P32*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I32" s="9">
         <f ca="1">ROUND(F32*OFFSET(Transactions!$E$3,P32*2,0),2)</f>
@@ -28363,8 +28363,8 @@
         <v>104.48</v>
       </c>
       <c r="H33" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P33*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P33*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I33" s="9">
         <f ca="1">ROUND(F33*OFFSET(Transactions!$E$3,P33*2,0),2)</f>
@@ -28421,8 +28421,8 @@
         <v>78.36</v>
       </c>
       <c r="H34" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P34*2,0),2)</f>
-        <v>-0.8</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P34*2,0),2)</f>
+        <v>0.8</v>
       </c>
       <c r="I34" s="9">
         <f ca="1">ROUND(F34*OFFSET(Transactions!$E$3,P34*2,0),2)</f>
@@ -28479,8 +28479,8 @@
         <v>98.39</v>
       </c>
       <c r="H35" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P35*2,0),2)</f>
-        <v>-0.97</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P35*2,0),2)</f>
+        <v>0.97</v>
       </c>
       <c r="I35" s="9">
         <f ca="1">ROUND(F35*OFFSET(Transactions!$E$3,P35*2,0),2)</f>
@@ -28537,8 +28537,8 @@
         <v>231.75</v>
       </c>
       <c r="H36" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P36*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P36*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I36" s="9">
         <f ca="1">ROUND(F36*OFFSET(Transactions!$E$3,P36*2,0),2)</f>
@@ -28595,8 +28595,8 @@
         <v>347.64</v>
       </c>
       <c r="H37" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P37*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P37*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I37" s="9">
         <f ca="1">ROUND(F37*OFFSET(Transactions!$E$3,P37*2,0),2)</f>
@@ -28653,8 +28653,8 @@
         <v>231.6</v>
       </c>
       <c r="H38" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P38*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P38*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I38" s="9">
         <f ca="1">ROUND(F38*OFFSET(Transactions!$E$3,P38*2,0),2)</f>
@@ -28711,8 +28711,8 @@
         <v>232.84</v>
       </c>
       <c r="H39" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P39*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P39*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I39" s="9">
         <f ca="1">ROUND(F39*OFFSET(Transactions!$E$3,P39*2,0),2)</f>
@@ -28769,8 +28769,8 @@
         <v>214.64</v>
       </c>
       <c r="H40" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P40*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P40*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I40" s="9">
         <f ca="1">ROUND(F40*OFFSET(Transactions!$E$3,P40*2,0),2)</f>
@@ -28827,8 +28827,8 @@
         <v>197.49</v>
       </c>
       <c r="H41" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P41*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P41*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I41" s="9">
         <f ca="1">ROUND(F41*OFFSET(Transactions!$E$3,P41*2,0),2)</f>
@@ -28885,8 +28885,8 @@
         <v>120.89</v>
       </c>
       <c r="H42" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P42*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P42*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I42" s="9">
         <f ca="1">ROUND(F42*OFFSET(Transactions!$E$3,P42*2,0),2)</f>
@@ -28943,8 +28943,8 @@
         <v>120.89</v>
       </c>
       <c r="H43" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P43*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P43*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I43" s="9">
         <f ca="1">ROUND(F43*OFFSET(Transactions!$E$3,P43*2,0),2)</f>
@@ -29001,8 +29001,8 @@
         <v>178.92</v>
       </c>
       <c r="H44" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P44*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P44*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I44" s="9">
         <f ca="1">ROUND(F44*OFFSET(Transactions!$E$3,P44*2,0),2)</f>
@@ -29059,8 +29059,8 @@
         <v>202.32</v>
       </c>
       <c r="H45" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P45*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P45*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I45" s="9">
         <f ca="1">ROUND(F45*OFFSET(Transactions!$E$3,P45*2,0),2)</f>
@@ -29117,8 +29117,8 @@
         <v>254.65</v>
       </c>
       <c r="H46" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P46*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P46*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I46" s="9">
         <f ca="1">ROUND(F46*OFFSET(Transactions!$E$3,P46*2,0),2)</f>
@@ -29175,8 +29175,8 @@
         <v>251.04</v>
       </c>
       <c r="H47" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P47*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P47*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I47" s="9">
         <f ca="1">ROUND(F47*OFFSET(Transactions!$E$3,P47*2,0),2)</f>
@@ -29233,8 +29233,8 @@
         <v>257.88</v>
       </c>
       <c r="H48" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P48*2,0),2)</f>
-        <v>-1.01</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P48*2,0),2)</f>
+        <v>1.01</v>
       </c>
       <c r="I48" s="9">
         <f ca="1">ROUND(F48*OFFSET(Transactions!$E$3,P48*2,0),2)</f>
@@ -29291,8 +29291,8 @@
         <v>94.98</v>
       </c>
       <c r="H49" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P49*2,0),2)</f>
-        <v>-0.89</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P49*2,0),2)</f>
+        <v>0.89</v>
       </c>
       <c r="I49" s="9">
         <f ca="1">ROUND(F49*OFFSET(Transactions!$E$3,P49*2,0),2)</f>
@@ -29349,8 +29349,8 @@
         <v>248.62</v>
       </c>
       <c r="H50" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P50*2,0),2)</f>
-        <v>-1.01</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P50*2,0),2)</f>
+        <v>1.01</v>
       </c>
       <c r="I50" s="9">
         <f ca="1">ROUND(F50*OFFSET(Transactions!$E$3,P50*2,0),2)</f>
@@ -29407,8 +29407,8 @@
         <v>248.77</v>
       </c>
       <c r="H51" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P51*2,0),2)</f>
-        <v>-1.01</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P51*2,0),2)</f>
+        <v>1.01</v>
       </c>
       <c r="I51" s="9">
         <f ca="1">ROUND(F51*OFFSET(Transactions!$E$3,P51*2,0),2)</f>
@@ -29465,8 +29465,8 @@
         <v>173.26</v>
       </c>
       <c r="H52" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P52*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P52*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I52" s="9">
         <f ca="1">ROUND(F52*OFFSET(Transactions!$E$3,P52*2,0),2)</f>
@@ -29523,8 +29523,8 @@
         <v>307.5</v>
       </c>
       <c r="H53" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P53*2,0),2)</f>
-        <v>-1.01</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P53*2,0),2)</f>
+        <v>1.01</v>
       </c>
       <c r="I53" s="9">
         <f ca="1">ROUND(F53*OFFSET(Transactions!$E$3,P53*2,0),2)</f>
@@ -29581,8 +29581,8 @@
         <v>231.66</v>
       </c>
       <c r="H54" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P54*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P54*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I54" s="9">
         <f ca="1">ROUND(F54*OFFSET(Transactions!$E$3,P54*2,0),2)</f>
@@ -29639,8 +29639,8 @@
         <v>200.79</v>
       </c>
       <c r="H55" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P55*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P55*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I55" s="9">
         <f ca="1">ROUND(F55*OFFSET(Transactions!$E$3,P55*2,0),2)</f>
@@ -29697,8 +29697,8 @@
         <v>225.55</v>
       </c>
       <c r="H56" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P56*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P56*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I56" s="9">
         <f ca="1">ROUND(F56*OFFSET(Transactions!$E$3,P56*2,0),2)</f>
@@ -29755,8 +29755,8 @@
         <v>128.43</v>
       </c>
       <c r="H57" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P57*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P57*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I57" s="9">
         <f ca="1">ROUND(F57*OFFSET(Transactions!$E$3,P57*2,0),2)</f>
@@ -29813,8 +29813,8 @@
         <v>102.74</v>
       </c>
       <c r="H58" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P58*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P58*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I58" s="9">
         <f ca="1">ROUND(F58*OFFSET(Transactions!$E$3,P58*2,0),2)</f>
@@ -29871,8 +29871,8 @@
         <v>345.8</v>
       </c>
       <c r="H59" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P59*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P59*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I59" s="9">
         <f ca="1">ROUND(F59*OFFSET(Transactions!$E$3,P59*2,0),2)</f>
@@ -29929,8 +29929,8 @@
         <v>263.89999999999998</v>
       </c>
       <c r="H60" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P60*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P60*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I60" s="9">
         <f ca="1">ROUND(F60*OFFSET(Transactions!$E$3,P60*2,0),2)</f>
@@ -29987,8 +29987,8 @@
         <v>221.88</v>
       </c>
       <c r="H61" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P61*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P61*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I61" s="9">
         <f ca="1">ROUND(F61*OFFSET(Transactions!$E$3,P61*2,0),2)</f>
@@ -30045,8 +30045,8 @@
         <v>222.04</v>
       </c>
       <c r="H62" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P62*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P62*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I62" s="9">
         <f ca="1">ROUND(F62*OFFSET(Transactions!$E$3,P62*2,0),2)</f>
@@ -30103,8 +30103,8 @@
         <v>173.6</v>
       </c>
       <c r="H63" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P63*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P63*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I63" s="9">
         <f ca="1">ROUND(F63*OFFSET(Transactions!$E$3,P63*2,0),2)</f>
@@ -30161,8 +30161,8 @@
         <v>105.62</v>
       </c>
       <c r="H64" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P64*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P64*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I64" s="9">
         <f ca="1">ROUND(F64*OFFSET(Transactions!$E$3,P64*2,0),2)</f>
@@ -30219,8 +30219,8 @@
         <v>105.62</v>
       </c>
       <c r="H65" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P65*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P65*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I65" s="9">
         <f ca="1">ROUND(F65*OFFSET(Transactions!$E$3,P65*2,0),2)</f>
@@ -30277,8 +30277,8 @@
         <v>225.65</v>
       </c>
       <c r="H66" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P66*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P66*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I66" s="9">
         <f ca="1">ROUND(F66*OFFSET(Transactions!$E$3,P66*2,0),2)</f>
@@ -30335,8 +30335,8 @@
         <v>234.58</v>
       </c>
       <c r="H67" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P67*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P67*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I67" s="9">
         <f ca="1">ROUND(F67*OFFSET(Transactions!$E$3,P67*2,0),2)</f>
@@ -30393,8 +30393,8 @@
         <v>232.67</v>
       </c>
       <c r="H68" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P68*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P68*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I68" s="9">
         <f ca="1">ROUND(F68*OFFSET(Transactions!$E$3,P68*2,0),2)</f>
@@ -30451,8 +30451,8 @@
         <v>251.38</v>
       </c>
       <c r="H69" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P69*2,0),2)</f>
-        <v>-1.01</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P69*2,0),2)</f>
+        <v>1.01</v>
       </c>
       <c r="I69" s="9">
         <f ca="1">ROUND(F69*OFFSET(Transactions!$E$3,P69*2,0),2)</f>
@@ -30509,8 +30509,8 @@
         <v>238.56</v>
       </c>
       <c r="H70" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P70*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P70*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I70" s="9">
         <f ca="1">ROUND(F70*OFFSET(Transactions!$E$3,P70*2,0),2)</f>
@@ -30567,8 +30567,8 @@
         <v>249.04</v>
       </c>
       <c r="H71" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P71*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P71*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I71" s="9">
         <f ca="1">ROUND(F71*OFFSET(Transactions!$E$3,P71*2,0),2)</f>
@@ -30625,8 +30625,8 @@
         <v>168.08</v>
       </c>
       <c r="H72" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P72*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P72*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I72" s="9">
         <f ca="1">ROUND(F72*OFFSET(Transactions!$E$3,P72*2,0),2)</f>
@@ -30683,8 +30683,8 @@
         <v>169.39</v>
       </c>
       <c r="H73" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P73*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P73*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I73" s="9">
         <f ca="1">ROUND(F73*OFFSET(Transactions!$E$3,P73*2,0),2)</f>
@@ -30741,8 +30741,8 @@
         <v>215.92</v>
       </c>
       <c r="H74" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P74*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P74*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I74" s="9">
         <f ca="1">ROUND(F74*OFFSET(Transactions!$E$3,P74*2,0),2)</f>
@@ -30799,8 +30799,8 @@
         <v>249.68</v>
       </c>
       <c r="H75" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P75*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P75*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I75" s="9">
         <f ca="1">ROUND(F75*OFFSET(Transactions!$E$3,P75*2,0),2)</f>
@@ -30857,8 +30857,8 @@
         <v>208.2</v>
       </c>
       <c r="H76" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P76*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P76*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I76" s="9">
         <f ca="1">ROUND(F76*OFFSET(Transactions!$E$3,P76*2,0),2)</f>
@@ -30915,8 +30915,8 @@
         <v>244.9</v>
       </c>
       <c r="H77" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P77*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P77*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I77" s="9">
         <f ca="1">ROUND(F77*OFFSET(Transactions!$E$3,P77*2,0),2)</f>
@@ -30973,8 +30973,8 @@
         <v>249.12</v>
       </c>
       <c r="H78" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P78*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P78*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I78" s="9">
         <f ca="1">ROUND(F78*OFFSET(Transactions!$E$3,P78*2,0),2)</f>
@@ -31031,8 +31031,8 @@
         <v>230.76</v>
       </c>
       <c r="H79" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P79*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P79*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I79" s="9">
         <f ca="1">ROUND(F79*OFFSET(Transactions!$E$3,P79*2,0),2)</f>
@@ -31089,8 +31089,8 @@
         <v>242.9</v>
       </c>
       <c r="H80" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P80*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P80*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I80" s="9">
         <f ca="1">ROUND(F80*OFFSET(Transactions!$E$3,P80*2,0),2)</f>
@@ -31147,8 +31147,8 @@
         <v>246.24</v>
       </c>
       <c r="H81" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P81*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P81*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I81" s="9">
         <f ca="1">ROUND(F81*OFFSET(Transactions!$E$3,P81*2,0),2)</f>
@@ -31205,8 +31205,8 @@
         <v>213.92</v>
       </c>
       <c r="H82" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P82*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P82*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I82" s="9">
         <f ca="1">ROUND(F82*OFFSET(Transactions!$E$3,P82*2,0),2)</f>
@@ -31263,8 +31263,8 @@
         <v>251.24</v>
       </c>
       <c r="H83" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P83*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P83*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I83" s="9">
         <f ca="1">ROUND(F83*OFFSET(Transactions!$E$3,P83*2,0),2)</f>
@@ -31321,8 +31321,8 @@
         <v>238.41</v>
       </c>
       <c r="H84" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P84*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P84*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I84" s="9">
         <f ca="1">ROUND(F84*OFFSET(Transactions!$E$3,P84*2,0),2)</f>
@@ -31379,8 +31379,8 @@
         <v>229.2</v>
       </c>
       <c r="H85" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P85*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P85*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I85" s="9">
         <f ca="1">ROUND(F85*OFFSET(Transactions!$E$3,P85*2,0),2)</f>
@@ -31437,8 +31437,8 @@
         <v>233.48</v>
       </c>
       <c r="H86" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P86*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P86*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I86" s="9">
         <f ca="1">ROUND(F86*OFFSET(Transactions!$E$3,P86*2,0),2)</f>
@@ -31495,8 +31495,8 @@
         <v>141.57</v>
       </c>
       <c r="H87" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P87*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P87*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I87" s="9">
         <f ca="1">ROUND(F87*OFFSET(Transactions!$E$3,P87*2,0),2)</f>
@@ -31553,8 +31553,8 @@
         <v>108.9</v>
       </c>
       <c r="H88" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P88*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P88*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I88" s="9">
         <f ca="1">ROUND(F88*OFFSET(Transactions!$E$3,P88*2,0),2)</f>
@@ -31611,8 +31611,8 @@
         <v>233.89</v>
       </c>
       <c r="H89" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P89*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P89*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I89" s="9">
         <f ca="1">ROUND(F89*OFFSET(Transactions!$E$3,P89*2,0),2)</f>
@@ -31669,8 +31669,8 @@
         <v>151.36000000000001</v>
       </c>
       <c r="H90" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P90*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P90*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I90" s="9">
         <f ca="1">ROUND(F90*OFFSET(Transactions!$E$3,P90*2,0),2)</f>
@@ -31727,8 +31727,8 @@
         <v>239.12</v>
       </c>
       <c r="H91" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P91*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P91*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I91" s="9">
         <f ca="1">ROUND(F91*OFFSET(Transactions!$E$3,P91*2,0),2)</f>
@@ -31785,8 +31785,8 @@
         <v>241.64</v>
       </c>
       <c r="H92" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P92*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P92*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I92" s="9">
         <f ca="1">ROUND(F92*OFFSET(Transactions!$E$3,P92*2,0),2)</f>
@@ -31843,8 +31843,8 @@
         <v>242.06</v>
       </c>
       <c r="H93" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P93*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P93*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I93" s="9">
         <f ca="1">ROUND(F93*OFFSET(Transactions!$E$3,P93*2,0),2)</f>
@@ -31901,8 +31901,8 @@
         <v>243.24</v>
       </c>
       <c r="H94" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P94*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P94*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I94" s="9">
         <f ca="1">ROUND(F94*OFFSET(Transactions!$E$3,P94*2,0),2)</f>
@@ -31959,8 +31959,8 @@
         <v>220.46</v>
       </c>
       <c r="H95" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P95*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P95*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I95" s="9">
         <f ca="1">ROUND(F95*OFFSET(Transactions!$E$3,P95*2,0),2)</f>
@@ -32017,8 +32017,8 @@
         <v>178.5</v>
       </c>
       <c r="H96" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P96*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P96*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I96" s="9">
         <f ca="1">ROUND(F96*OFFSET(Transactions!$E$3,P96*2,0),2)</f>
@@ -32075,8 +32075,8 @@
         <v>216.18</v>
       </c>
       <c r="H97" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P97*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P97*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I97" s="9">
         <f ca="1">ROUND(F97*OFFSET(Transactions!$E$3,P97*2,0),2)</f>
@@ -32133,8 +32133,8 @@
         <v>339.17</v>
       </c>
       <c r="H98" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P98*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P98*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I98" s="9">
         <f ca="1">ROUND(F98*OFFSET(Transactions!$E$3,P98*2,0),2)</f>
@@ -32191,8 +32191,8 @@
         <v>239.8</v>
       </c>
       <c r="H99" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P99*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P99*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I99" s="9">
         <f ca="1">ROUND(F99*OFFSET(Transactions!$E$3,P99*2,0),2)</f>
@@ -32249,8 +32249,8 @@
         <v>112.97</v>
       </c>
       <c r="H100" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P100*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P100*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I100" s="9">
         <f ca="1">ROUND(F100*OFFSET(Transactions!$E$3,P100*2,0),2)</f>
@@ -32307,8 +32307,8 @@
         <v>118.11</v>
       </c>
       <c r="H101" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P101*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P101*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I101" s="9">
         <f ca="1">ROUND(F101*OFFSET(Transactions!$E$3,P101*2,0),2)</f>
@@ -32365,8 +32365,8 @@
         <v>217.16</v>
       </c>
       <c r="H102" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P102*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P102*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I102" s="9">
         <f ca="1">ROUND(F102*OFFSET(Transactions!$E$3,P102*2,0),2)</f>
@@ -32423,8 +32423,8 @@
         <v>212.42</v>
       </c>
       <c r="H103" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P103*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P103*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I103" s="9">
         <f ca="1">ROUND(F103*OFFSET(Transactions!$E$3,P103*2,0),2)</f>
@@ -32481,8 +32481,8 @@
         <v>204.84</v>
       </c>
       <c r="H104" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P104*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P104*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I104" s="9">
         <f ca="1">ROUND(F104*OFFSET(Transactions!$E$3,P104*2,0),2)</f>
@@ -32539,8 +32539,8 @@
         <v>243.93</v>
       </c>
       <c r="H105" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P105*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P105*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I105" s="9">
         <f ca="1">ROUND(F105*OFFSET(Transactions!$E$3,P105*2,0),2)</f>
@@ -32597,8 +32597,8 @@
         <v>124</v>
       </c>
       <c r="H106" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P106*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P106*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I106" s="9">
         <f ca="1">ROUND(F106*OFFSET(Transactions!$E$3,P106*2,0),2)</f>
@@ -32655,8 +32655,8 @@
         <v>124</v>
       </c>
       <c r="H107" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P107*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P107*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I107" s="9">
         <f ca="1">ROUND(F107*OFFSET(Transactions!$E$3,P107*2,0),2)</f>
@@ -32713,8 +32713,8 @@
         <v>263.68</v>
       </c>
       <c r="H108" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P108*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P108*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I108" s="9">
         <f ca="1">ROUND(F108*OFFSET(Transactions!$E$3,P108*2,0),2)</f>
@@ -32771,8 +32771,8 @@
         <v>131.27000000000001</v>
       </c>
       <c r="H109" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P109*2,0),2)</f>
-        <v>-1</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P109*2,0),2)</f>
+        <v>1</v>
       </c>
       <c r="I109" s="9">
         <f ca="1">ROUND(F109*OFFSET(Transactions!$E$3,P109*2,0),2)</f>
@@ -32829,8 +32829,8 @@
         <v>87.51</v>
       </c>
       <c r="H110" s="9">
-        <f ca="1">ROUND(OFFSET(Transactions!$H$3,P110*2,0),2)</f>
-        <v>-0.91</v>
+        <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P110*2,0),2)</f>
+        <v>0.91</v>
       </c>
       <c r="I110" s="9">
         <f ca="1">ROUND(F110*OFFSET(Transactions!$E$3,P110*2,0),2)</f>
@@ -32867,9 +32867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A617EC5-69E2-4458-95CC-9F54FE0EA36C}">
   <dimension ref="A1:K109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="A109" sqref="A109"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -32913,7 +32911,7 @@
       </c>
       <c r="G1" s="9">
         <f ca="1">TransactionsFormatted!H2</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H1" s="9">
         <f ca="1">TransactionsFormatted!I2</f>
@@ -32959,7 +32957,7 @@
       </c>
       <c r="G2" s="9">
         <f ca="1">TransactionsFormatted!H3</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H2" s="9">
         <f ca="1">TransactionsFormatted!I3</f>
@@ -33005,7 +33003,7 @@
       </c>
       <c r="G3" s="9">
         <f ca="1">TransactionsFormatted!H4</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H3" s="9">
         <f ca="1">TransactionsFormatted!I4</f>
@@ -33051,7 +33049,7 @@
       </c>
       <c r="G4" s="9">
         <f ca="1">TransactionsFormatted!H5</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">TransactionsFormatted!I5</f>
@@ -33097,7 +33095,7 @@
       </c>
       <c r="G5" s="9">
         <f ca="1">TransactionsFormatted!H6</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H5" s="9">
         <f ca="1">TransactionsFormatted!I6</f>
@@ -33143,7 +33141,7 @@
       </c>
       <c r="G6" s="9">
         <f ca="1">TransactionsFormatted!H7</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H6" s="9">
         <f ca="1">TransactionsFormatted!I7</f>
@@ -33189,7 +33187,7 @@
       </c>
       <c r="G7" s="9">
         <f ca="1">TransactionsFormatted!H8</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H7" s="9">
         <f ca="1">TransactionsFormatted!I8</f>
@@ -33235,7 +33233,7 @@
       </c>
       <c r="G8" s="9">
         <f ca="1">TransactionsFormatted!H9</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H8" s="9">
         <f ca="1">TransactionsFormatted!I9</f>
@@ -33281,7 +33279,7 @@
       </c>
       <c r="G9" s="9">
         <f ca="1">TransactionsFormatted!H10</f>
-        <v>-1.01</v>
+        <v>1.01</v>
       </c>
       <c r="H9" s="9">
         <f ca="1">TransactionsFormatted!I10</f>
@@ -33327,7 +33325,7 @@
       </c>
       <c r="G10" s="9">
         <f ca="1">TransactionsFormatted!H11</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H10" s="9">
         <f ca="1">TransactionsFormatted!I11</f>
@@ -33373,7 +33371,7 @@
       </c>
       <c r="G11" s="9">
         <f ca="1">TransactionsFormatted!H12</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H11" s="9">
         <f ca="1">TransactionsFormatted!I12</f>
@@ -33419,7 +33417,7 @@
       </c>
       <c r="G12" s="9">
         <f ca="1">TransactionsFormatted!H13</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H12" s="9">
         <f ca="1">TransactionsFormatted!I13</f>
@@ -33465,7 +33463,7 @@
       </c>
       <c r="G13" s="9">
         <f ca="1">TransactionsFormatted!H14</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H13" s="9">
         <f ca="1">TransactionsFormatted!I14</f>
@@ -33511,7 +33509,7 @@
       </c>
       <c r="G14" s="9">
         <f ca="1">TransactionsFormatted!H15</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H14" s="9">
         <f ca="1">TransactionsFormatted!I15</f>
@@ -33557,7 +33555,7 @@
       </c>
       <c r="G15" s="9">
         <f ca="1">TransactionsFormatted!H16</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H15" s="9">
         <f ca="1">TransactionsFormatted!I16</f>
@@ -33603,7 +33601,7 @@
       </c>
       <c r="G16" s="9">
         <f ca="1">TransactionsFormatted!H17</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H16" s="9">
         <f ca="1">TransactionsFormatted!I17</f>
@@ -33649,7 +33647,7 @@
       </c>
       <c r="G17" s="9">
         <f ca="1">TransactionsFormatted!H18</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H17" s="9">
         <f ca="1">TransactionsFormatted!I18</f>
@@ -33695,7 +33693,7 @@
       </c>
       <c r="G18" s="9">
         <f ca="1">TransactionsFormatted!H19</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H18" s="9">
         <f ca="1">TransactionsFormatted!I19</f>
@@ -33741,7 +33739,7 @@
       </c>
       <c r="G19" s="9">
         <f ca="1">TransactionsFormatted!H20</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H19" s="9">
         <f ca="1">TransactionsFormatted!I20</f>
@@ -33787,7 +33785,7 @@
       </c>
       <c r="G20" s="9">
         <f ca="1">TransactionsFormatted!H21</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H20" s="9">
         <f ca="1">TransactionsFormatted!I21</f>
@@ -33833,7 +33831,7 @@
       </c>
       <c r="G21" s="9">
         <f ca="1">TransactionsFormatted!H22</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H21" s="9">
         <f ca="1">TransactionsFormatted!I22</f>
@@ -33879,7 +33877,7 @@
       </c>
       <c r="G22" s="9">
         <f ca="1">TransactionsFormatted!H23</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H22" s="9">
         <f ca="1">TransactionsFormatted!I23</f>
@@ -33925,7 +33923,7 @@
       </c>
       <c r="G23" s="9">
         <f ca="1">TransactionsFormatted!H24</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H23" s="9">
         <f ca="1">TransactionsFormatted!I24</f>
@@ -33971,7 +33969,7 @@
       </c>
       <c r="G24" s="9">
         <f ca="1">TransactionsFormatted!H25</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H24" s="9">
         <f ca="1">TransactionsFormatted!I25</f>
@@ -34017,7 +34015,7 @@
       </c>
       <c r="G25" s="9">
         <f ca="1">TransactionsFormatted!H26</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H25" s="9">
         <f ca="1">TransactionsFormatted!I26</f>
@@ -34063,7 +34061,7 @@
       </c>
       <c r="G26" s="9">
         <f ca="1">TransactionsFormatted!H27</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H26" s="9">
         <f ca="1">TransactionsFormatted!I27</f>
@@ -34109,7 +34107,7 @@
       </c>
       <c r="G27" s="9">
         <f ca="1">TransactionsFormatted!H28</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H27" s="9">
         <f ca="1">TransactionsFormatted!I28</f>
@@ -34155,7 +34153,7 @@
       </c>
       <c r="G28" s="9">
         <f ca="1">TransactionsFormatted!H29</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H28" s="9">
         <f ca="1">TransactionsFormatted!I29</f>
@@ -34201,7 +34199,7 @@
       </c>
       <c r="G29" s="9">
         <f ca="1">TransactionsFormatted!H30</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H29" s="9">
         <f ca="1">TransactionsFormatted!I30</f>
@@ -34247,7 +34245,7 @@
       </c>
       <c r="G30" s="9">
         <f ca="1">TransactionsFormatted!H31</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H30" s="9">
         <f ca="1">TransactionsFormatted!I31</f>
@@ -34293,7 +34291,7 @@
       </c>
       <c r="G31" s="9">
         <f ca="1">TransactionsFormatted!H32</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H31" s="9">
         <f ca="1">TransactionsFormatted!I32</f>
@@ -34339,7 +34337,7 @@
       </c>
       <c r="G32" s="9">
         <f ca="1">TransactionsFormatted!H33</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H32" s="9">
         <f ca="1">TransactionsFormatted!I33</f>
@@ -34385,7 +34383,7 @@
       </c>
       <c r="G33" s="9">
         <f ca="1">TransactionsFormatted!H34</f>
-        <v>-0.8</v>
+        <v>0.8</v>
       </c>
       <c r="H33" s="9">
         <f ca="1">TransactionsFormatted!I34</f>
@@ -34431,7 +34429,7 @@
       </c>
       <c r="G34" s="9">
         <f ca="1">TransactionsFormatted!H35</f>
-        <v>-0.97</v>
+        <v>0.97</v>
       </c>
       <c r="H34" s="9">
         <f ca="1">TransactionsFormatted!I35</f>
@@ -34477,7 +34475,7 @@
       </c>
       <c r="G35" s="9">
         <f ca="1">TransactionsFormatted!H36</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H35" s="9">
         <f ca="1">TransactionsFormatted!I36</f>
@@ -34523,7 +34521,7 @@
       </c>
       <c r="G36" s="9">
         <f ca="1">TransactionsFormatted!H37</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H36" s="9">
         <f ca="1">TransactionsFormatted!I37</f>
@@ -34569,7 +34567,7 @@
       </c>
       <c r="G37" s="9">
         <f ca="1">TransactionsFormatted!H38</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H37" s="9">
         <f ca="1">TransactionsFormatted!I38</f>
@@ -34615,7 +34613,7 @@
       </c>
       <c r="G38" s="9">
         <f ca="1">TransactionsFormatted!H39</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H38" s="9">
         <f ca="1">TransactionsFormatted!I39</f>
@@ -34661,7 +34659,7 @@
       </c>
       <c r="G39" s="9">
         <f ca="1">TransactionsFormatted!H40</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H39" s="9">
         <f ca="1">TransactionsFormatted!I40</f>
@@ -34707,7 +34705,7 @@
       </c>
       <c r="G40" s="9">
         <f ca="1">TransactionsFormatted!H41</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H40" s="9">
         <f ca="1">TransactionsFormatted!I41</f>
@@ -34753,7 +34751,7 @@
       </c>
       <c r="G41" s="9">
         <f ca="1">TransactionsFormatted!H42</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H41" s="9">
         <f ca="1">TransactionsFormatted!I42</f>
@@ -34799,7 +34797,7 @@
       </c>
       <c r="G42" s="9">
         <f ca="1">TransactionsFormatted!H43</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H42" s="9">
         <f ca="1">TransactionsFormatted!I43</f>
@@ -34845,7 +34843,7 @@
       </c>
       <c r="G43" s="9">
         <f ca="1">TransactionsFormatted!H44</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H43" s="9">
         <f ca="1">TransactionsFormatted!I44</f>
@@ -34891,7 +34889,7 @@
       </c>
       <c r="G44" s="9">
         <f ca="1">TransactionsFormatted!H45</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H44" s="9">
         <f ca="1">TransactionsFormatted!I45</f>
@@ -34937,7 +34935,7 @@
       </c>
       <c r="G45" s="9">
         <f ca="1">TransactionsFormatted!H46</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H45" s="9">
         <f ca="1">TransactionsFormatted!I46</f>
@@ -34983,7 +34981,7 @@
       </c>
       <c r="G46" s="9">
         <f ca="1">TransactionsFormatted!H47</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H46" s="9">
         <f ca="1">TransactionsFormatted!I47</f>
@@ -35029,7 +35027,7 @@
       </c>
       <c r="G47" s="9">
         <f ca="1">TransactionsFormatted!H48</f>
-        <v>-1.01</v>
+        <v>1.01</v>
       </c>
       <c r="H47" s="9">
         <f ca="1">TransactionsFormatted!I48</f>
@@ -35075,7 +35073,7 @@
       </c>
       <c r="G48" s="9">
         <f ca="1">TransactionsFormatted!H49</f>
-        <v>-0.89</v>
+        <v>0.89</v>
       </c>
       <c r="H48" s="9">
         <f ca="1">TransactionsFormatted!I49</f>
@@ -35121,7 +35119,7 @@
       </c>
       <c r="G49" s="9">
         <f ca="1">TransactionsFormatted!H50</f>
-        <v>-1.01</v>
+        <v>1.01</v>
       </c>
       <c r="H49" s="9">
         <f ca="1">TransactionsFormatted!I50</f>
@@ -35167,7 +35165,7 @@
       </c>
       <c r="G50" s="9">
         <f ca="1">TransactionsFormatted!H51</f>
-        <v>-1.01</v>
+        <v>1.01</v>
       </c>
       <c r="H50" s="9">
         <f ca="1">TransactionsFormatted!I51</f>
@@ -35213,7 +35211,7 @@
       </c>
       <c r="G51" s="9">
         <f ca="1">TransactionsFormatted!H52</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H51" s="9">
         <f ca="1">TransactionsFormatted!I52</f>
@@ -35259,7 +35257,7 @@
       </c>
       <c r="G52" s="9">
         <f ca="1">TransactionsFormatted!H53</f>
-        <v>-1.01</v>
+        <v>1.01</v>
       </c>
       <c r="H52" s="9">
         <f ca="1">TransactionsFormatted!I53</f>
@@ -35305,7 +35303,7 @@
       </c>
       <c r="G53" s="9">
         <f ca="1">TransactionsFormatted!H54</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H53" s="9">
         <f ca="1">TransactionsFormatted!I54</f>
@@ -35351,7 +35349,7 @@
       </c>
       <c r="G54" s="9">
         <f ca="1">TransactionsFormatted!H55</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H54" s="9">
         <f ca="1">TransactionsFormatted!I55</f>
@@ -35397,7 +35395,7 @@
       </c>
       <c r="G55" s="9">
         <f ca="1">TransactionsFormatted!H56</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H55" s="9">
         <f ca="1">TransactionsFormatted!I56</f>
@@ -35443,7 +35441,7 @@
       </c>
       <c r="G56" s="9">
         <f ca="1">TransactionsFormatted!H57</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H56" s="9">
         <f ca="1">TransactionsFormatted!I57</f>
@@ -35489,7 +35487,7 @@
       </c>
       <c r="G57" s="9">
         <f ca="1">TransactionsFormatted!H58</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H57" s="9">
         <f ca="1">TransactionsFormatted!I58</f>
@@ -35535,7 +35533,7 @@
       </c>
       <c r="G58" s="9">
         <f ca="1">TransactionsFormatted!H59</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H58" s="9">
         <f ca="1">TransactionsFormatted!I59</f>
@@ -35581,7 +35579,7 @@
       </c>
       <c r="G59" s="9">
         <f ca="1">TransactionsFormatted!H60</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H59" s="9">
         <f ca="1">TransactionsFormatted!I60</f>
@@ -35627,7 +35625,7 @@
       </c>
       <c r="G60" s="9">
         <f ca="1">TransactionsFormatted!H61</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H60" s="9">
         <f ca="1">TransactionsFormatted!I61</f>
@@ -35673,7 +35671,7 @@
       </c>
       <c r="G61" s="9">
         <f ca="1">TransactionsFormatted!H62</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H61" s="9">
         <f ca="1">TransactionsFormatted!I62</f>
@@ -35719,7 +35717,7 @@
       </c>
       <c r="G62" s="9">
         <f ca="1">TransactionsFormatted!H63</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H62" s="9">
         <f ca="1">TransactionsFormatted!I63</f>
@@ -35765,7 +35763,7 @@
       </c>
       <c r="G63" s="9">
         <f ca="1">TransactionsFormatted!H64</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H63" s="9">
         <f ca="1">TransactionsFormatted!I64</f>
@@ -35811,7 +35809,7 @@
       </c>
       <c r="G64" s="9">
         <f ca="1">TransactionsFormatted!H65</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H64" s="9">
         <f ca="1">TransactionsFormatted!I65</f>
@@ -35857,7 +35855,7 @@
       </c>
       <c r="G65" s="9">
         <f ca="1">TransactionsFormatted!H66</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H65" s="9">
         <f ca="1">TransactionsFormatted!I66</f>
@@ -35903,7 +35901,7 @@
       </c>
       <c r="G66" s="9">
         <f ca="1">TransactionsFormatted!H67</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H66" s="9">
         <f ca="1">TransactionsFormatted!I67</f>
@@ -35949,7 +35947,7 @@
       </c>
       <c r="G67" s="9">
         <f ca="1">TransactionsFormatted!H68</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H67" s="9">
         <f ca="1">TransactionsFormatted!I68</f>
@@ -35995,7 +35993,7 @@
       </c>
       <c r="G68" s="9">
         <f ca="1">TransactionsFormatted!H69</f>
-        <v>-1.01</v>
+        <v>1.01</v>
       </c>
       <c r="H68" s="9">
         <f ca="1">TransactionsFormatted!I69</f>
@@ -36041,7 +36039,7 @@
       </c>
       <c r="G69" s="9">
         <f ca="1">TransactionsFormatted!H70</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H69" s="9">
         <f ca="1">TransactionsFormatted!I70</f>
@@ -36087,7 +36085,7 @@
       </c>
       <c r="G70" s="9">
         <f ca="1">TransactionsFormatted!H71</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H70" s="9">
         <f ca="1">TransactionsFormatted!I71</f>
@@ -36133,7 +36131,7 @@
       </c>
       <c r="G71" s="9">
         <f ca="1">TransactionsFormatted!H72</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H71" s="9">
         <f ca="1">TransactionsFormatted!I72</f>
@@ -36179,7 +36177,7 @@
       </c>
       <c r="G72" s="9">
         <f ca="1">TransactionsFormatted!H73</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H72" s="9">
         <f ca="1">TransactionsFormatted!I73</f>
@@ -36225,7 +36223,7 @@
       </c>
       <c r="G73" s="9">
         <f ca="1">TransactionsFormatted!H74</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H73" s="9">
         <f ca="1">TransactionsFormatted!I74</f>
@@ -36271,7 +36269,7 @@
       </c>
       <c r="G74" s="9">
         <f ca="1">TransactionsFormatted!H75</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H74" s="9">
         <f ca="1">TransactionsFormatted!I75</f>
@@ -36317,7 +36315,7 @@
       </c>
       <c r="G75" s="9">
         <f ca="1">TransactionsFormatted!H76</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H75" s="9">
         <f ca="1">TransactionsFormatted!I76</f>
@@ -36363,7 +36361,7 @@
       </c>
       <c r="G76" s="9">
         <f ca="1">TransactionsFormatted!H77</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H76" s="9">
         <f ca="1">TransactionsFormatted!I77</f>
@@ -36409,7 +36407,7 @@
       </c>
       <c r="G77" s="9">
         <f ca="1">TransactionsFormatted!H78</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H77" s="9">
         <f ca="1">TransactionsFormatted!I78</f>
@@ -36455,7 +36453,7 @@
       </c>
       <c r="G78" s="9">
         <f ca="1">TransactionsFormatted!H79</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H78" s="9">
         <f ca="1">TransactionsFormatted!I79</f>
@@ -36501,7 +36499,7 @@
       </c>
       <c r="G79" s="9">
         <f ca="1">TransactionsFormatted!H80</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H79" s="9">
         <f ca="1">TransactionsFormatted!I80</f>
@@ -36547,7 +36545,7 @@
       </c>
       <c r="G80" s="9">
         <f ca="1">TransactionsFormatted!H81</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H80" s="9">
         <f ca="1">TransactionsFormatted!I81</f>
@@ -36593,7 +36591,7 @@
       </c>
       <c r="G81" s="9">
         <f ca="1">TransactionsFormatted!H82</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H81" s="9">
         <f ca="1">TransactionsFormatted!I82</f>
@@ -36639,7 +36637,7 @@
       </c>
       <c r="G82" s="9">
         <f ca="1">TransactionsFormatted!H83</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H82" s="9">
         <f ca="1">TransactionsFormatted!I83</f>
@@ -36685,7 +36683,7 @@
       </c>
       <c r="G83" s="9">
         <f ca="1">TransactionsFormatted!H84</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H83" s="9">
         <f ca="1">TransactionsFormatted!I84</f>
@@ -36731,7 +36729,7 @@
       </c>
       <c r="G84" s="9">
         <f ca="1">TransactionsFormatted!H85</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H84" s="9">
         <f ca="1">TransactionsFormatted!I85</f>
@@ -36777,7 +36775,7 @@
       </c>
       <c r="G85" s="9">
         <f ca="1">TransactionsFormatted!H86</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H85" s="9">
         <f ca="1">TransactionsFormatted!I86</f>
@@ -36823,7 +36821,7 @@
       </c>
       <c r="G86" s="9">
         <f ca="1">TransactionsFormatted!H87</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H86" s="9">
         <f ca="1">TransactionsFormatted!I87</f>
@@ -36869,7 +36867,7 @@
       </c>
       <c r="G87" s="9">
         <f ca="1">TransactionsFormatted!H88</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H87" s="9">
         <f ca="1">TransactionsFormatted!I88</f>
@@ -36915,7 +36913,7 @@
       </c>
       <c r="G88" s="9">
         <f ca="1">TransactionsFormatted!H89</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H88" s="9">
         <f ca="1">TransactionsFormatted!I89</f>
@@ -36961,7 +36959,7 @@
       </c>
       <c r="G89" s="9">
         <f ca="1">TransactionsFormatted!H90</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H89" s="9">
         <f ca="1">TransactionsFormatted!I90</f>
@@ -37007,7 +37005,7 @@
       </c>
       <c r="G90" s="9">
         <f ca="1">TransactionsFormatted!H91</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H90" s="9">
         <f ca="1">TransactionsFormatted!I91</f>
@@ -37053,7 +37051,7 @@
       </c>
       <c r="G91" s="9">
         <f ca="1">TransactionsFormatted!H92</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H91" s="9">
         <f ca="1">TransactionsFormatted!I92</f>
@@ -37099,7 +37097,7 @@
       </c>
       <c r="G92" s="9">
         <f ca="1">TransactionsFormatted!H93</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H92" s="9">
         <f ca="1">TransactionsFormatted!I93</f>
@@ -37145,7 +37143,7 @@
       </c>
       <c r="G93" s="9">
         <f ca="1">TransactionsFormatted!H94</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H93" s="9">
         <f ca="1">TransactionsFormatted!I94</f>
@@ -37191,7 +37189,7 @@
       </c>
       <c r="G94" s="9">
         <f ca="1">TransactionsFormatted!H95</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H94" s="9">
         <f ca="1">TransactionsFormatted!I95</f>
@@ -37237,7 +37235,7 @@
       </c>
       <c r="G95" s="9">
         <f ca="1">TransactionsFormatted!H96</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H95" s="9">
         <f ca="1">TransactionsFormatted!I96</f>
@@ -37283,7 +37281,7 @@
       </c>
       <c r="G96" s="9">
         <f ca="1">TransactionsFormatted!H97</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H96" s="9">
         <f ca="1">TransactionsFormatted!I97</f>
@@ -37329,7 +37327,7 @@
       </c>
       <c r="G97" s="9">
         <f ca="1">TransactionsFormatted!H98</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H97" s="9">
         <f ca="1">TransactionsFormatted!I98</f>
@@ -37375,7 +37373,7 @@
       </c>
       <c r="G98" s="9">
         <f ca="1">TransactionsFormatted!H99</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H98" s="9">
         <f ca="1">TransactionsFormatted!I99</f>
@@ -37421,7 +37419,7 @@
       </c>
       <c r="G99" s="9">
         <f ca="1">TransactionsFormatted!H100</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H99" s="9">
         <f ca="1">TransactionsFormatted!I100</f>
@@ -37467,7 +37465,7 @@
       </c>
       <c r="G100" s="9">
         <f ca="1">TransactionsFormatted!H101</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H100" s="9">
         <f ca="1">TransactionsFormatted!I101</f>
@@ -37513,7 +37511,7 @@
       </c>
       <c r="G101" s="9">
         <f ca="1">TransactionsFormatted!H102</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H101" s="9">
         <f ca="1">TransactionsFormatted!I102</f>
@@ -37559,7 +37557,7 @@
       </c>
       <c r="G102" s="9">
         <f ca="1">TransactionsFormatted!H103</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H102" s="9">
         <f ca="1">TransactionsFormatted!I103</f>
@@ -37605,7 +37603,7 @@
       </c>
       <c r="G103" s="9">
         <f ca="1">TransactionsFormatted!H104</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H103" s="9">
         <f ca="1">TransactionsFormatted!I104</f>
@@ -37651,7 +37649,7 @@
       </c>
       <c r="G104" s="9">
         <f ca="1">TransactionsFormatted!H105</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H104" s="9">
         <f ca="1">TransactionsFormatted!I105</f>
@@ -37697,7 +37695,7 @@
       </c>
       <c r="G105" s="9">
         <f ca="1">TransactionsFormatted!H106</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H105" s="9">
         <f ca="1">TransactionsFormatted!I106</f>
@@ -37743,7 +37741,7 @@
       </c>
       <c r="G106" s="9">
         <f ca="1">TransactionsFormatted!H107</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H106" s="9">
         <f ca="1">TransactionsFormatted!I107</f>
@@ -37789,7 +37787,7 @@
       </c>
       <c r="G107" s="9">
         <f ca="1">TransactionsFormatted!H108</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H107" s="9">
         <f ca="1">TransactionsFormatted!I108</f>
@@ -37835,7 +37833,7 @@
       </c>
       <c r="G108" s="9">
         <f ca="1">TransactionsFormatted!H109</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H108" s="9">
         <f ca="1">TransactionsFormatted!I109</f>
@@ -37881,7 +37879,7 @@
       </c>
       <c r="G109" s="9">
         <f ca="1">TransactionsFormatted!H110</f>
-        <v>-0.91</v>
+        <v>0.91</v>
       </c>
       <c r="H109" s="9">
         <f ca="1">TransactionsFormatted!I110</f>

--- a/src/main/resources/U5646616_2021_2021.xlsx
+++ b/src/main/resources/U5646616_2021_2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\indre\IdeaProjects\taxFormFiller\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21596826-945A-4AC6-8872-9DD82181B707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45963FDD-5E52-4D72-9BCB-3C7D030BE5F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2409,7 +2409,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -2524,6 +2524,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2569,7 +2578,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2595,6 +2604,13 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -18771,7 +18787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B600219B-B243-4686-8632-B49795067890}">
   <dimension ref="A1:K219"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A199" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -26461,10 +26477,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{724CC0B6-5A09-458C-B4E3-582AB8DBA603}">
-  <dimension ref="A1:P110"/>
+  <dimension ref="A1:P111"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J111" sqref="J111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -32799,62 +32816,85 @@
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A110" s="7" t="str">
+    <row r="110" spans="1:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="21" t="str">
         <f>Transactions!B218</f>
         <v>ZIM</v>
       </c>
-      <c r="B110" s="7" t="str">
+      <c r="B110" s="21" t="str">
         <f>LOOKUP(A110,StockInfo!$A$2:$A$83,StockInfo!$C$2:$C$83)</f>
         <v>IL0065100930</v>
       </c>
-      <c r="C110" s="7" t="str">
+      <c r="C110" s="21" t="str">
         <f>LOOKUP(A110,StockInfo!$A$2:$A$83,StockInfo!$B$2:$B$83)</f>
         <v>ZIM INTEGRATED SHIPPING SERV</v>
       </c>
-      <c r="D110" s="10">
+      <c r="D110" s="22">
         <f t="shared" ca="1" si="2"/>
         <v>44421</v>
       </c>
-      <c r="E110" s="10">
+      <c r="E110" s="22">
         <f t="shared" ca="1" si="3"/>
         <v>44427</v>
       </c>
-      <c r="F110" s="11">
+      <c r="F110" s="23">
         <f ca="1">OFFSET(Transactions!$D$2,P110*2,0)</f>
         <v>2</v>
       </c>
-      <c r="G110" s="9">
+      <c r="G110" s="24">
         <f ca="1">ROUND(F110*OFFSET(Transactions!$E$2,P110*2,0),2)</f>
         <v>87.51</v>
       </c>
-      <c r="H110" s="9">
+      <c r="H110" s="24">
         <f ca="1">-ROUND(OFFSET(Transactions!$H$3,P110*2,0),2)</f>
         <v>0.91</v>
       </c>
-      <c r="I110" s="9">
+      <c r="I110" s="24">
         <f ca="1">ROUND(F110*OFFSET(Transactions!$E$3,P110*2,0),2)</f>
         <v>90.53</v>
       </c>
-      <c r="J110" s="9">
-        <v>0</v>
-      </c>
-      <c r="K110" s="18" t="s">
+      <c r="J110" s="24">
+        <v>0</v>
+      </c>
+      <c r="K110" s="25" t="s">
         <v>669</v>
       </c>
-      <c r="L110" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="N110" s="7" t="str">
+      <c r="L110" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="M110" s="21"/>
+      <c r="N110" s="21" t="str">
         <f ca="1">OFFSET(Transactions!$C$2,P110*2,0)</f>
         <v>2021-08-13, 09:36:58</v>
       </c>
-      <c r="O110" s="7" t="str">
+      <c r="O110" s="21" t="str">
         <f ca="1">OFFSET(Transactions!$C$3,P110*2,0)</f>
         <v>2021-08-19, 09:31:01</v>
       </c>
-      <c r="P110" s="7">
+      <c r="P110" s="21">
         <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F111" s="27">
+        <f t="shared" ref="F111:H111" ca="1" si="4">SUM(F2:F110)</f>
+        <v>1138</v>
+      </c>
+      <c r="G111" s="26">
+        <f ca="1">SUM(G2:G110)</f>
+        <v>22908.54</v>
+      </c>
+      <c r="H111" s="26">
+        <f t="shared" ca="1" si="4"/>
+        <v>108.62999999999998</v>
+      </c>
+      <c r="I111" s="26">
+        <f ca="1">SUM(I2:I110)</f>
+        <v>22604.860000000015</v>
+      </c>
+      <c r="J111" s="26">
+        <f>SUM(J2:J110)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/U5646616_2021_2021.xlsx
+++ b/src/main/resources/U5646616_2021_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\indre\IdeaProjects\taxFormFiller\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657B8A99-552F-4D17-9C22-F0427B2FC850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2183609-E688-4384-AB0E-80AF64AB5E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="U5646616_2021_2021" sheetId="1" r:id="rId1"/>
@@ -26131,11 +26131,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{724CC0B6-5A09-458C-B4E3-582AB8DBA603}">
-  <dimension ref="A1:P111"/>
+  <dimension ref="A1:P117"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G118" sqref="G118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -32551,6 +32551,35 @@
         <v>0</v>
       </c>
     </row>
+    <row r="113" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G113" s="7">
+        <f ca="1">I111-G111</f>
+        <v>-303.67999999998574</v>
+      </c>
+    </row>
+    <row r="114" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G114" s="7">
+        <f ca="1">-H111</f>
+        <v>-108.62999999999998</v>
+      </c>
+    </row>
+    <row r="115" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G115" s="7">
+        <f ca="1">SUM(G113:G114)</f>
+        <v>-412.30999999998573</v>
+      </c>
+    </row>
+    <row r="116" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G116" s="7">
+        <v>-345.63</v>
+      </c>
+    </row>
+    <row r="117" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G117" s="7">
+        <f ca="1">G115/G116</f>
+        <v>1.1929230680206746</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -32561,7 +32590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A617EC5-69E2-4458-95CC-9F54FE0EA36C}">
   <dimension ref="A1:K109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/src/main/resources/U5646616_2021_2021.xlsx
+++ b/src/main/resources/U5646616_2021_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\indre\IdeaProjects\taxFormFiller\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2183609-E688-4384-AB0E-80AF64AB5E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C830EB-BAED-417D-AE05-B03474A41E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="U5646616_2021_2021" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3592" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3593" uniqueCount="648">
   <si>
     <t>Header</t>
   </si>
@@ -1982,6 +1982,9 @@
   </si>
   <si>
     <t>Ameerika</t>
+  </si>
+  <si>
+    <t>emta</t>
   </si>
 </sst>
 </file>
@@ -26133,9 +26136,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{724CC0B6-5A09-458C-B4E3-582AB8DBA603}">
   <dimension ref="A1:P117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G118" sqref="G118"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -32551,30 +32554,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G113" s="7">
         <f ca="1">I111-G111</f>
         <v>-303.67999999998574</v>
       </c>
     </row>
-    <row r="114" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G114" s="7">
         <f ca="1">-H111</f>
         <v>-108.62999999999998</v>
       </c>
     </row>
-    <row r="115" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F115" s="9" t="s">
+        <v>647</v>
+      </c>
       <c r="G115" s="7">
         <f ca="1">SUM(G113:G114)</f>
         <v>-412.30999999998573</v>
       </c>
     </row>
-    <row r="116" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G116" s="7">
         <v>-345.63</v>
       </c>
     </row>
-    <row r="117" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G117" s="7">
         <f ca="1">G115/G116</f>
         <v>1.1929230680206746</v>
@@ -32590,7 +32596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A617EC5-69E2-4458-95CC-9F54FE0EA36C}">
   <dimension ref="A1:K109"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
